--- a/806209426/localisation/excel/bftb_focus_l_german.xlsx
+++ b/806209426/localisation/excel/bftb_focus_l_german.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve"> GRE_bring_home_the_exiled_republicans_focus_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVenizelistische§! Minister und Generäle kehren aus dem Exil zurück und werden verfügbar.</t>
+    <t xml:space="preserve">§Y§Y Venizelistische §!§!  Minister und Generäle kehren aus dem Exil zurück und werden verfügbar.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_compromise_with_the_monarchists:</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve"> GRE_compromise_with_the_monarchists_focus_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YGeorg II.§! gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §YMonarchisten§! werden §Gfreundlich§!. \n£faction_gre_communist §YKommunisten§! werden §Rfeindselig§!.</t>
+    <t xml:space="preserve">§Y§Y Georg II. §!§!  gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §G§G freundlich §!§! . \n£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R feindselig §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_request_communist_support:</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve"> GRE_request_communist_support_focus_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_gre_communist §YKommunisten§! werden §Rfreundlich§!. \n£faction_gre_monarchist §YMonarchisten§! werden §Rfeindselig§!. \n\n£faction_gre_monarchist §YMonarchistische§! Generäle und Minister §Rquittieren§! den Dienst, aber £faction_gre_communist §Ykommunistische§! Generäle und Minister werden §Gverfügbar§!.</t>
+    <t xml:space="preserve">£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R freundlich §!§! . \n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §R§R feindselig §!§! . \n\n£faction_gre_monarchist §Y§Y Monarchistische §!§!  Generäle und Minister §R§R quittieren §!§!  den Dienst, aber £faction_gre_communist §Y§Y kommunistische §!§!  Generäle und Minister werden §G§G verfügbar §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_remembering_the_anatolian_catastrophe:</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve"> GRE_old_memories_stir_new_threats_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Anatolien zu einem emotionalen Thema zu machen, könnte §Yunbeabsichtigte Konsequenzen§! haben ...</t>
+    <t xml:space="preserve">Anatolien zu einem emotionalen Thema zu machen, könnte §Y§Y unbeabsichtigte Konsequenzen §!§!  haben ...</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_a_socialist_economy:</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve"> GRE_industry_bypass_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicht genügend Bauplätze für §YMilitärfabriken§! oder §YZivilfabriken§!</t>
+    <t xml:space="preserve">Nicht genügend Bauplätze für §Y§Y Militärfabriken §!§!  oder §Y§Y Zivilfabriken §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_red_militias:</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve"> GRE_megali_idea_conference_invites_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §YMegali-Konvention§! verschickt.</t>
+    <t xml:space="preserve">Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §Y§Y Megali-Konvention §!§!  verschickt.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_prepare_for_the_great_anti_fascist_war:</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve"> GRE_megali_idea_approved:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMegali Idea§! Genehmigt</t>
+    <t xml:space="preserve">§Y§Y Megali Idea §!§!  Genehmigt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_megali_convention_a_failure:</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve"> GRE_gordian_knot_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Unterzeichner außer §YItalien§! erklären der §YTürkei§! an der Seite von §YGriechenland§! den Krieg, um die Bestimmungen der §YMegali-Konvention§! einzuhalten.</t>
+    <t xml:space="preserve">Alle Unterzeichner außer §Y§Y Italien §!§!  erklären der §Y§Y Türkei §!§!  an der Seite von §Y§Y Griechenland §!§!  den Krieg, um die Bestimmungen der §Y§Y Megali-Konvention §!§!  einzuhalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_secure_the_aegean:</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve"> byz_restore_byzantine_empire_category_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet die Entscheidungen §YByzantinisches Reich wiederherstellen§! frei.</t>
+    <t xml:space="preserve">Schaltet die Entscheidungen §Y§Y Byzantinisches Reich wiederherstellen §!§!  frei.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_the_kings_government:</t>
@@ -544,13 +544,13 @@
     <t xml:space="preserve"> GRE_abandon_french_italian_debt_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir streichen unsere Schulden bei §YFrankreich§! und §YItalien§! einfach.\n</t>
+    <t xml:space="preserve">Wir streichen unsere Schulden bei §Y§Y Frankreich §!§!  und §Y§Y Italien §!§!  einfach.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_absolute_monarchy_opposition_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg!§! \nDie §YVenizelisten§! werden §Rrebellisch!§! \nDie §YKommunisten§! werden §Rrebellisch!§!</t>
+    <t xml:space="preserve">§R§R Wenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg! §!§!  \nDie §Y§Y Venizelisten §!§!  werden §R§R rebellisch! §!§!  \nDie §Y§Y Kommunisten §!§!  werden §R§R rebellisch! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_metaxism_focus:</t>
@@ -568,7 +568,7 @@
     <t xml:space="preserve"> GRE_metaxism_warning_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nWenn §YGriechenland§! einem Bündnis beitritt, bevor der Nationalgeist §YMetaxismus§! voll ausgebaut ist, wird dieser §Rentfernt§!.\n</t>
+    <t xml:space="preserve">\nWenn §Y§Y Griechenland §!§!  einem Bündnis beitritt, bevor der Nationalgeist §Y§Y Metaxismus §!§!  voll ausgebaut ist, wird dieser §R§R entfernt §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_the_hellenic_spirit:</t>
@@ -688,7 +688,7 @@
     <t xml:space="preserve"> GRE_fascists_put_in_play_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §Yfaschistische Fraktion§! wird aktiv und ist der Regierung gegenüber zu Beginn §Gfreundlich§! eingestellt. \nWenn wir mit den §YFaschisten§! kooperieren, legitimieren wir ihre Bewegung.</t>
+    <t xml:space="preserve">Die §Y§Y faschistische Fraktion §!§!  wird aktiv und ist der Regierung gegenüber zu Beginn §G§G freundlich §!§!  eingestellt. \nWenn wir mit den §Y§Y Faschisten §!§!  kooperieren, legitimieren wir ihre Bewegung.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_realign_ourselves_with_the_central_powers:</t>
@@ -706,7 +706,7 @@
     <t xml:space="preserve"> GRE_no_central_powers_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YÖsterreich-Ungarn§! oder das §YKaiserreich§! müssen existieren, damit dieser Schwerpunkt Auswirkungen hat.</t>
+    <t xml:space="preserve">§Y§Y Österreich-Ungarn §!§!  oder das §Y§Y Kaiserreich §!§!  müssen existieren, damit dieser Schwerpunkt Auswirkungen hat.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_our_traditional_allies_in_the_aegean:</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve"> GRE_metaxism_lost_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §YMetaxismus§!!</t>
+    <t xml:space="preserve">Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §Y§Y Metaxismus §!§! !</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_prepare_against_the_mediterranean_threat:</t>
@@ -742,13 +742,13 @@
     <t xml:space="preserve"> GRE_the_metaxas_line:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Anfang der §YMetaxas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n</t>
+    <t xml:space="preserve">Der Anfang der §Y§Y Metaxas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_the_leonidas_line:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Anfang der §YLeonidas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n</t>
+    <t xml:space="preserve">Der Anfang der §Y§Y Leonidas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_an_orthodox_state:</t>
@@ -778,7 +778,7 @@
     <t xml:space="preserve"> no_fascist_metaxism_spirit_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn der Nationalgeist §YDen Geist der spartanischen Krieger wiederbeleben§! nicht gewählt wurde, dann wird der Nationalgeist §YMetaxism§! nicht faschistisiert, sondern stattdessen §Rentfernt§!.</t>
+    <t xml:space="preserve">Wenn der Nationalgeist §Y§Y Den Geist der spartanischen Krieger wiederbeleben §!§!  nicht gewählt wurde, dann wird der Nationalgeist §Y§Y Metaxism §!§!  nicht faschistisiert, sondern stattdessen §R§R entfernt §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_reclaiming_the_wayward_ally:</t>
@@ -856,7 +856,7 @@
     <t xml:space="preserve"> GRE_required_fascist_faction_loyalty_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Das §Yfaschistische Bündnis§! muss §Gloyal§! sein.</t>
+    <t xml:space="preserve">Das §Y§Y faschistische Bündnis §!§!  muss §G§G loyal §!§!  sein.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_expansion_of_athens_university:</t>
@@ -910,7 +910,7 @@
     <t xml:space="preserve"> schachtplan_required_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Besitzt keine Variationen des §YSchacht-Plans§!</t>
+    <t xml:space="preserve">Besitzt keine Variationen des §Y§Y Schacht-Plans §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_protectors_of_the_mediterranean:</t>
@@ -1030,7 +1030,7 @@
     <t xml:space="preserve"> GRE_pay_back_debt_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Durch diese §YEntscheidungen§! können wir den Nationalgeist §YSchulden bei der IFK§! verringern und schließlich ganz loswerden.</t>
+    <t xml:space="preserve">Durch diese §Y§Y Entscheidungen §!§!  können wir den Nationalgeist §Y§Y Schulden bei der IFK §!§!  verringern und schließlich ganz loswerden.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_lignite_liquefaction:</t>
@@ -1096,13 +1096,13 @@
     <t xml:space="preserve"> GRE_open_foreign_subsidized_factories_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes der folgenden Länder, dessen §YMeinung§! zu §YGriechenland§! über §G80§! liegt, erhält eine Eine §YMilitärfabrik§! und eine §YZivilfabrik§!: \n§Y[FRA.GetNameDef]§!, §Y[ENG.GetNameDef]§!, §Y[GER.GetNameDef]§! und §Y[SOV.GetNameDef]§!.</t>
+    <t xml:space="preserve">Jedes der folgenden Länder, dessen §Y§Y Meinung §!§!  zu §Y§Y Griechenland §!§!  über §G§G 80 §!§!  liegt, erhält eine Eine §Y§Y Militärfabrik §!§!  und eine §Y§Y Zivilfabrik §!§! : \n§Y§Y [FRA.GetNameDef] §!§! , §Y§Y [ENG.GetNameDef] §!§! , §Y§Y [GER.GetNameDef] §!§!  und §Y§Y [SOV.GetNameDef] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_unlock_soviet_decision_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidungen frei: §YEine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen§!</t>
+    <t xml:space="preserve">Schaltet Entscheidungen frei: §Y§Y Eine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_paying_back_our_debts_in_bulk:</t>
@@ -1120,25 +1120,25 @@
     <t xml:space="preserve"> GRE_paid_off_most_of_debt_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir müssen den Großteil unserer nationalen §YSchulden§! zurückgezahlt haben.</t>
+    <t xml:space="preserve">Wir müssen den Großteil unserer nationalen §Y§Y Schulden §!§!  zurückgezahlt haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_paying_back_our_debts_in_bulk_ENG_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim britischen Staat§! \n</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim britischen Staat §!§!  \n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_paying_back_our_debts_in_bulk_FRA_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim französischen Staat§! \n</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim französischen Staat §!§!  \n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_paying_back_our_debts_in_bulk_ITA_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim italienischen Staat§! \n</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim italienischen Staat §!§!  \n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_open_up_the_country:</t>
@@ -1216,7 +1216,7 @@
     <t xml:space="preserve"> GRE_fiscal_responsibility_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YSchulden bei der IFK§! müssen teilweise oder vollständig zurückgezahlt sein</t>
+    <t xml:space="preserve">Die §Y§Y Schulden bei der IFK §!§!  müssen teilweise oder vollständig zurückgezahlt sein</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_bolster_the_schachtplan:</t>
@@ -1258,7 +1258,7 @@
     <t xml:space="preserve"> GRE_renegotiate_debt_with_france_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YDie französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen§! \nErlässt sämtliche §YSchulden bei der IFK§!, die von §Y[FRA.GetNameDef]§! verwaltet werden.</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Die französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen §!§!  \nErlässt sämtliche §Y§Y Schulden bei der IFK §!§! , die von §Y§Y [FRA.GetNameDef] §!§!  verwaltet werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_sophistry_and_science:</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve"> GRE_bedrock_of_balkan_financial_stability_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir erhalten für jedes Land auf dem §YWestbalkan§!, dem §YOstbalkan§! und dem §YNordbalkan§!, das eine hohe freundschaftliche §YMeinung§! von uns hat, §YZivilfabriken§! abseits der Karte. Das gilt auch für §Y[AUS.GetNameDef]§!, §Y[CZE.GetNameDef]§! und §Y[TUR.GetNameDef]§!.</t>
+    <t xml:space="preserve">Wir erhalten für jedes Land auf dem §Y§Y Westbalkan §!§! , dem §Y§Y Ostbalkan §!§!  und dem §Y§Y Nordbalkan §!§! , das eine hohe freundschaftliche §Y§Y Meinung §!§!  von uns hat, §Y§Y Zivilfabriken §!§!  abseits der Karte. Das gilt auch für §Y§Y [AUS.GetNameDef] §!§! , §Y§Y [CZE.GetNameDef] §!§!  und §Y§Y [TUR.GetNameDef] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_rapprochement_with_the_italians:</t>
@@ -1366,7 +1366,7 @@
     <t xml:space="preserve"> GRE_encourage_tourism_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten!§!</t>
+    <t xml:space="preserve">§R§R Wir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_mobilise_our_economy:</t>
@@ -1408,19 +1408,19 @@
     <t xml:space="preserve"> GRE_making_use_of_our_islands_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! und der §YDodekanes§! kontrolliert werden.</t>
+    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  und der §Y§Y Dodekanes §!§!  kontrolliert werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_making_use_of_our_islands_dodecanese_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §YDodekanes§! kontrolliert wird.</t>
+    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §Y§Y Dodekanes §!§!  kontrolliert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_making_use_of_our_islands_cyprus_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! kontrolliert wird.</t>
+    <t xml:space="preserve">Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  kontrolliert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_clear_the_slums:</t>
@@ -1594,7 +1594,7 @@
     <t xml:space="preserve"> GRE_abandon_the_greek_turkish_naval_treaty_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir uns politisch nach §YGroßbritannien§! oder §YDeutschland§! ausrichten, können wir einige unserer alten §Yschweren Schiffe§! erneut bauen.\n</t>
+    <t xml:space="preserve">Wenn wir uns politisch nach §Y§Y Großbritannien §!§!  oder §Y§Y Deutschland §!§!  ausrichten, können wir einige unserer alten §Y§Y schweren Schiffe §!§!  erneut bauen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_a_modern_navy:</t>
@@ -1756,7 +1756,7 @@
     <t xml:space="preserve"> GRE_mountain_training_effect:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ermöglicht §HAusbildung in Gebirgskriegsführung§!\n§HInfanterie\n    Gebirge§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+5%§!\n§HMarineinfanterie\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n§HGebirgsjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+10%§!\n§HFallschirmjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n</t>
+    <t xml:space="preserve">Ermöglicht §H§H Ausbildung in Gebirgskriegsführung §!§! \n§H§H Infanterie\n    Gebirge §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n§H§H Marineinfanterie\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Gebirgsjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Fallschirmjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_a_long_and_proud_tradition:</t>
@@ -1822,7 +1822,7 @@
     <t xml:space="preserve"> TUR_the_montreux_convention_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir berufen eine §YKonkvention§! ein und erklären unsere Absicht, die §YDardanellen§! und den §YBosporus§! zu remilitarisieren. Wir sollten uns auf Proteste seitens der §YSowjetunion§! einstellen.</t>
+    <t xml:space="preserve">Wir berufen eine §Y§Y Konkvention §!§!  ein und erklären unsere Absicht, die §Y§Y Dardanellen §!§!  und den §Y§Y Bosporus §!§!  zu remilitarisieren. Wir sollten uns auf Proteste seitens der §Y§Y Sowjetunion §!§!  einstellen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_fully_integrate_the_is_bank:</t>
@@ -1840,7 +1840,7 @@
     <t xml:space="preserve"> TUR_sanayiciler_liberals_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres liberalen Wirtschaftsmodells günstiger.</t>
+    <t xml:space="preserve">\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres liberalen Wirtschaftsmodells günstiger.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ratify_the_six_arrows:</t>
@@ -1870,7 +1870,7 @@
     <t xml:space="preserve"> TUR_privatize_the_anadolu_agency_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt die Entscheidung §YDie Pressezensur einrichten§!.</t>
+    <t xml:space="preserve">Entfernt die Entscheidung §Y§Y Die Pressezensur einrichten §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_lift_the_ban_on_other_political_parties:</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve"> TUR_unlock_reconciliation_occupation_law_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Besatzungsfrecht frei: §YVersöhnung§!.</t>
+    <t xml:space="preserve">Schaltet Besatzungsfrecht frei: §Y§Y Versöhnung §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_truce_with_government_called_flag:</t>
@@ -2026,7 +2026,7 @@
     <t xml:space="preserve"> TUR_civil_war_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDurch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt.§!</t>
+    <t xml:space="preserve">§R§R Durch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_the_sanayiciler:</t>
@@ -2044,7 +2044,7 @@
     <t xml:space="preserve"> TUR_sanayiciler_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Durch den Einsatz von §YPolitischer Macht§! und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §YZivilfabriken§! und §YMilitärfabriken§! für die Nutzung durch den Staat zu investieren.</t>
+    <t xml:space="preserve">Durch den Einsatz von §Y§Y Politischer Macht §!§!  und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §Y§Y Zivilfabriken §!§!  und §Y§Y Militärfabriken §!§!  für die Nutzung durch den Staat zu investieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_cooperate_with_the_debt_council:</t>
@@ -2062,7 +2062,7 @@
     <t xml:space="preserve"> TUR_debt_council_nationalized_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der §YSchuldenrat§! kontrolliert die Schulden der §Y[TUR.GetNameDef]§! nicht länger.</t>
+    <t xml:space="preserve">Der §Y§Y Schuldenrat §!§!  kontrolliert die Schulden der §Y§Y [TUR.GetNameDef] §!§!  nicht länger.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_utilize_foreign_capital:</t>
@@ -2080,7 +2080,7 @@
     <t xml:space="preserve"> TUR_foreign_capital_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Je besser unsere Beziehung zu den alten §YGroßmächten Europas§! und den §YUSA§!, desto mehr Optionen für §YInvestitionen§! können wir bezahlen.</t>
+    <t xml:space="preserve">Je besser unsere Beziehung zu den alten §Y§Y Großmächten Europas §!§!  und den §Y§Y USA §!§! , desto mehr Optionen für §Y§Y Investitionen §!§!  können wir bezahlen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_treaty_of_saadabad:</t>
@@ -2110,7 +2110,7 @@
     <t xml:space="preserve"> TUR_choices_will_decide_legacy_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMustafa Kemal Atatürk§! hat lange den Wandel der §Y[ROOT.GetNameDef]§! von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §YAtatürks§! gerecht werden.</t>
+    <t xml:space="preserve">§Y§Y Mustafa Kemal Atatürk §!§!  hat lange den Wandel der §Y§Y [ROOT.GetNameDef] §!§!  von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §Y§Y Atatürks §!§!  gerecht werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ataturk_seeking_treatment:</t>
@@ -2158,7 +2158,7 @@
     <t xml:space="preserve"> TUR_sanayiciler_etatism_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres etatistischen Wirtschaftsmodells teurer.</t>
+    <t xml:space="preserve">\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres etatistischen Wirtschaftsmodells teurer.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_peace_at_home:</t>
@@ -2236,7 +2236,7 @@
     <t xml:space="preserve"> TUR_kemalist_state_targets_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Zwei neutrale Staaten werden §Ykemalistisch§!\n</t>
+    <t xml:space="preserve">Zwei neutrale Staaten werden §Y§Y kemalistisch §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_the_sun_language_theory:</t>
@@ -2326,7 +2326,7 @@
     <t xml:space="preserve"> TUR_kemalist_officers_made_hostile_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDie kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein.§!</t>
+    <t xml:space="preserve">§R§R Die kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_rehabilitate_the_kadro_movement:</t>
@@ -2356,7 +2356,7 @@
     <t xml:space="preserve"> TUR_kemalism_and_the_modern_movement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Meinung aller §Yfaschistischen§! Länder in §YEuropa§! zu [ROOT.GetNameDef] wird um §G+25§! erhöht.</t>
+    <t xml:space="preserve">Die Meinung aller §Y§Y faschistischen §!§!  Länder in §Y§Y Europa §!§!  zu [ROOT.GetNameDef] wird um §G§G +25 §!§!  erhöht.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_integrate_the_fascist_council:</t>
@@ -2386,7 +2386,7 @@
     <t xml:space="preserve"> TUR_restack_the_officer_corps_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §Ykemalistischen Offiziere§! werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§RWenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren!§!</t>
+    <t xml:space="preserve">Die §Y§Y kemalistischen Offiziere §!§!  werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§R§R Wenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_form_the_redshirts:</t>
@@ -2416,7 +2416,7 @@
     <t xml:space="preserve"> TUR_fatherland_first_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir werden an die £faction_tur_traditionalist §YTraditionalisten§!, die £faction_tur_kurdish §YKurden§! und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert.</t>
+    <t xml:space="preserve">Wir werden an die £faction_tur_traditionalist §Y§Y Traditionalisten §!§! , die £faction_tur_kurdish §Y§Y Kurden §!§!  und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_deal_for_the_oniki_islands:</t>
@@ -2446,19 +2446,19 @@
     <t xml:space="preserve"> TUR_pontic_redoubt_trabzon_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y7 Landbefestigungen§! entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 7 Landbefestigungen §!§!  entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_pontic_redoubt_van_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y6 Landbefestigungen§! entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 6 Landbefestigungen §!§!  entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_pontic_redoubt_erzurum_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y3 Landbefestigungen§! in der Stadt Erzurum hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt Erzurum hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_abuse_the_office_of_soil_products:</t>
@@ -2620,7 +2620,7 @@
     <t xml:space="preserve"> TUR_kemalists_purged_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt alle £faction_tur_kemalist §Ykemalistischen§! Staatsmodifikatoren.</t>
+    <t xml:space="preserve">Entfernt alle £faction_tur_kemalist §Y§Y kemalistischen §!§!  Staatsmodifikatoren.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_restore_the_divan:</t>
@@ -2734,7 +2734,7 @@
     <t xml:space="preserve"> TUR_saadabad_pact_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir werden alle Unterzeichner des §YSaadabad-Pakts§! in ein formelles Bündnis einladen.</t>
+    <t xml:space="preserve">Wir werden alle Unterzeichner des §Y§Y Saadabad-Pakts §!§!  in ein formelles Bündnis einladen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_no_faction_members_tt:</t>
@@ -2788,7 +2788,7 @@
     <t xml:space="preserve"> TUR_unlock_camelry_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Technologie hinzufügen: §YKamelreiter§!.</t>
+    <t xml:space="preserve">Technologie hinzufügen: §Y§Y Kamelreiter §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_the_pan_national_association_of_ulemas:</t>
@@ -2902,7 +2902,7 @@
     <t xml:space="preserve"> TUR_balkan_defense_council_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nachdem der §YBalkanpakt§! zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen.</t>
+    <t xml:space="preserve">Nachdem der §Y§Y Balkanpakt §!§!  zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_three_year_industrial_plan:</t>
@@ -2932,7 +2932,7 @@
     <t xml:space="preserve"> TUR_united_against_imperialism_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §YBalkanpakts§!: §G10%§!.\n</t>
+    <t xml:space="preserve">Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §Y§Y Balkanpakts §!§! : §G§G 10% §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_create_the_balkan_central_bank:</t>
@@ -2986,19 +2986,19 @@
     <t xml:space="preserve"> TUR_connect_capitals_greece_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nachdem §YGriechenland§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
+    <t xml:space="preserve">Nachdem §Y§Y Griechenland §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_connect_capitals_romania_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nachdem §YRumänien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
+    <t xml:space="preserve">Nachdem §Y§Y Rumänien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_connect_capitals_yugoslavia_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nachdem §YJugoslawien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
+    <t xml:space="preserve">Nachdem §Y§Y Jugoslawien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_fortifying_contentious_areas:</t>
@@ -3016,19 +3016,19 @@
     <t xml:space="preserve"> TUR_fortify_the_south_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y2 Landbefestigungen§! an jeder Überquerung des §Y[164.GetName]§! hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 2 Landbefestigungen §!§!  an jeder Überquerung des §Y§Y [164.GetName] §!§!  hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_fortify_the_north_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt eine Verteidigungslinie aus §YLandbefestigungen§! in §Y[354.GetName]§! hinzu.\n</t>
+    <t xml:space="preserve">Fügt eine Verteidigungslinie aus §Y§Y Landbefestigungen §!§!  in §Y§Y [354.GetName] §!§!  hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_fortify_the_east_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y5 Landbefestigungen§! an den östlichen Grenzen von §Y[800.GetName]§! hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 5 Landbefestigungen §!§!  an den östlichen Grenzen von §Y§Y [800.GetName] §!§!  hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_integrated_armed_forces:</t>
@@ -3190,7 +3190,7 @@
     <t xml:space="preserve"> TUR_add_medium_tank_technology_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Technologie hinzufügen: §YEinfache mittlere Panzer§!.</t>
+    <t xml:space="preserve">Technologie hinzufügen: §Y§Y Einfache mittlere Panzer §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_applying_british_oil_embargoes_on_iraq:</t>
@@ -3232,7 +3232,7 @@
     <t xml:space="preserve"> TUR_raise_opinion_of_america_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Je besser die Meinung der §YUSA§! über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird.</t>
+    <t xml:space="preserve">Je besser die Meinung der §Y§Y USA §!§!  über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_american_motor_factories:</t>
@@ -3418,7 +3418,7 @@
     <t xml:space="preserve"> TUR_clodius_agreement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeder Staat, der §Y65§! oder mehr Einheiten §YChrom§! produziert, erhält drei Stufen §YInfrastruktur§! und zwei §YMilitärfabriken§!.</t>
+    <t xml:space="preserve">Jeder Staat, der §Y§Y 65 §!§!  oder mehr Einheiten §Y§Y Chrom §!§!  produziert, erhält drei Stufen §Y§Y Infrastruktur §!§!  und zwei §Y§Y Militärfabriken §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_purchase_italian_light_tanks:</t>
@@ -3568,13 +3568,13 @@
     <t xml:space="preserve"> TUR_fortifying_the_bosporus_istanbul_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt §Y3 Landbefestigungen§! in der Stadt hinzu.\n</t>
+    <t xml:space="preserve">Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_fortifying_the_bosporus_edirne_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt eine Reihe von §YLandbefestigungen§! der Stufe 2 entlang der §Ytürkischen Meerengen§! hinzu.\n</t>
+    <t xml:space="preserve">Fügt eine Reihe von §Y§Y Landbefestigungen §!§!  der Stufe 2 entlang der §Y§Y türkischen Meerengen §!§!  hinzu.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_mediterranean_merchant_fleet:</t>
@@ -4408,7 +4408,7 @@
     <t xml:space="preserve"> TUR_alienate_our_allies_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RDer radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen.§!</t>
+    <t xml:space="preserve">\n§R§R Der radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_recover_the_kardzhali_vilayet:</t>
@@ -4594,7 +4594,7 @@
     <t xml:space="preserve"> BUL_attract_foreign_capitals_dynamic_modifier_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält den Nationalgeist §YAusländische Industrie§! und dadurch (Politischer Machtzuwachs: §G+5%§!, Baugeschwindigkeit: §R-10%§!, Produktionsausstoß: §R-2%§!, £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R-5%§!, £GFX_prod_eff Anstieg der Produktionsleistung: §R-5%§!)</t>
+    <t xml:space="preserve">Erhält den Nationalgeist §Y§Y Ausländische Industrie §!§!  und dadurch (Politischer Machtzuwachs: §G§G +5% §!§! , Baugeschwindigkeit: §R§R -10% §!§! , Produktionsausstoß: §R§R -2% §!§! , £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R§R -5% §!§! , £GFX_prod_eff Anstieg der Produktionsleistung: §R§R -5% §!§! )</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_invigorate_national_industry:</t>
@@ -4648,13 +4648,13 @@
     <t xml:space="preserve"> BUL_nationalization_dynamic_modifier_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationalgeist §YAusländische Industrie§! entfernen</t>
+    <t xml:space="preserve">Nationalgeist §Y§Y Ausländische Industrie §!§!  entfernen</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nationalization_warning_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAls Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären!§!</t>
+    <t xml:space="preserve">§R§R Als Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_increase_industry_investments:</t>
@@ -4684,13 +4684,13 @@
     <t xml:space="preserve"> BUL_utmost_optimization_dynamic_modifier_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YAusländische Industrie§! modifizieren um\nBaugeschwindigkeit: §G+5%§!\n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G+3%§!\n£GFX_prod_eff Anstieg der Produktionsleistung: §G+3%§!</t>
+    <t xml:space="preserve">§Y§Y Ausländische Industrie §!§!  modifizieren um\nBaugeschwindigkeit: §G§G +5% §!§! \n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G§G +3% §!§! \n£GFX_prod_eff Anstieg der Produktionsleistung: §G§G +3% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_utmost_optimization_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Auswirkungen ändern sich, wenn der Schwerpunkt §YAusländisches Kapital anlocken§! abgeschlossen wird.</t>
+    <t xml:space="preserve">Die Auswirkungen ändern sich, wenn der Schwerpunkt §Y§Y Ausländisches Kapital anlocken §!§!  abgeschlossen wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_national_railway_lines:</t>
@@ -4768,19 +4768,19 @@
     <t xml:space="preserve"> BUL_uranium_prospecting_no_target_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §RBulgarien muss Mitglied eines Bündnisses sein.§!</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §R§R Bulgarien muss Mitglied eines Bündnisses sein. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_uranium_prospecting_leader_target_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses Boni erhält.</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses Boni erhält.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_uranium_prospecting_major_ally_target_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten.</t>
+    <t xml:space="preserve">Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_georgi_benkovski_aircraft_repair_facilities:</t>
@@ -6385,19 +6385,19 @@
     <t xml:space="preserve"> BUL_approach_germany_foreign_industry_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken.</t>
+    <t xml:space="preserve">Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_approach_british_foreign_industry_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken.</t>
+    <t xml:space="preserve">Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_approach_soviet_foreign_industry_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken.</t>
+    <t xml:space="preserve">Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_with_italy:</t>
@@ -6577,7 +6577,7 @@
     <t xml:space="preserve"> BUL_the_spanish_struggle_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDer Leiter der Luftwaffe§!, §YSachari Sachariew§!, wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §RErfordert die Entsendung von Freiwilligen an das §! §Y[GetSpanishRepublicFlag]Republikanische Spanien§!.</t>
+    <t xml:space="preserve">§Y§Y Der Leiter der Luftwaffe §!§! , §Y§Y Sachari Sachariew §!§! , wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §R§R Erfordert die Entsendung von Freiwilligen an das  §!§!  §Y§Y [GetSpanishRepublicFlag]Republikanische Spanien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_spd_flag:</t>
@@ -6598,19 +6598,19 @@
     <t xml:space="preserve"> BUL_potential_civil_war_low_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWenn§! die §YStabilität§! §Runter§! §Y30%§! §Rliegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg!§!</t>
+    <t xml:space="preserve">§R§R Wenn §!§!  die §Y§Y Stabilität §!§!  §R§R unter §!§!  §Y§Y 30% §!§!  §R§R liegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_fatherland_front_bzns_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetBznsName] über §Y50%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetBznsName] über §Y§Y 50% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_fatherland_front_zveno_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetZvenoName] über §Y50%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetZvenoName] über §Y§Y 50% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_fatherland_front_communist_support_tt:</t>
@@ -6622,7 +6622,7 @@
     <t xml:space="preserve"> BUL_the_peoples_republic_of_bulgaria_bs_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y50%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y§Y 50% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_soviet_bulgarian_treaty_of_mutual_assistance_tt:</t>
@@ -6634,19 +6634,19 @@
     <t xml:space="preserve"> BUL_collectivization_of_the_countryside_bs_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y70%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y§Y 70% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_soviet_bulgarian_war_industry_research_sharing_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G5%§!.</t>
+    <t xml:space="preserve">Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G§G 5% §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_carry_the_revolution_abroad_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in sein Bündnis ein'§!.</t>
+    <t xml:space="preserve">Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in sein Bündnis ein' §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_anti_capitalist_fight_ns_tt:</t>
@@ -6658,7 +6658,7 @@
     <t xml:space="preserve"> BUL_the_anti_capitalist_fight_wargoal_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße Demokratien in Europa§!.</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große Demokratien in Europa §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_treaty_of_perpetual_friendship_tt:</t>
@@ -6670,19 +6670,19 @@
     <t xml:space="preserve"> BUL_liberation_of_the_proletariat_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YStürzen Sie die Regierung§! gegen alle §Yfaschistischen§! oder §Yneutralen§! Nachbarn oder europäischen Großmächte:</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Stürzen Sie die Regierung §!§!  gegen alle §Y§Y faschistischen §!§!  oder §Y§Y neutralen §!§!  Nachbarn oder europäischen Großmächte:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_condemn_macedonian_organizations_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidungen §YMazedonische Revolutionsgruppen bekämpfen§! frei.</t>
+    <t xml:space="preserve">Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen bekämpfen §!§!  frei.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_support_macedonian_organizations_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidungen §YMazedonische Revolutionsgruppen unterstützen§! frei.</t>
+    <t xml:space="preserve">Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen unterstützen §!§!  frei.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_dissolve_the_military_union_tt:</t>
@@ -6730,7 +6730,7 @@
     <t xml:space="preserve"> BUL_crush_the_communists_no_cooperation_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RHindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen§!.</t>
+    <t xml:space="preserve">\n§R§R Hindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_state_is_in_the_aegean_sea_tt:</t>
@@ -6754,7 +6754,7 @@
     <t xml:space="preserve"> BUL_stability_impact_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verlust von Stabilität auf Basis von Unterstützung für §YKommunismus§! und §YBeliebtheit§! von [GetBsName].</t>
+    <t xml:space="preserve">Verlust von Stabilität auf Basis von Unterstützung für §Y§Y Kommunismus §!§!  und §Y§Y Beliebtheit §!§!  von [GetBsName].</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_form_a_regency_council_tt:</t>
@@ -6778,31 +6778,31 @@
     <t xml:space="preserve"> BUL_united_we_shall_prevail_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §YVereinter Balkan§! und damit (Divisionsorganisation: §G+10%§!, Divisionsangriff auf Kerngebiet: §G+15%§!, Divisionsverteidigung auf Kerngebiet: §G+15%§!).</t>
+    <t xml:space="preserve">[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §Y§Y Vereinter Balkan §!§!  und damit (Divisionsorganisation: §G§G +10% §!§! , Divisionsangriff auf Kerngebiet: §G§G +15% §!§! , Divisionsverteidigung auf Kerngebiet: §G§G +15% §!§! ).</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_federation_of_socialist_republics_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!.</t>
+    <t xml:space="preserve">Erhält das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_federation_of_socialist_republics_decisions_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDer Traum von der Balkanföderation§! Entscheidungen können nun auch andere Balkanländer als Ziel haben.</t>
+    <t xml:space="preserve">§Y§Y Der Traum von der Balkanföderation §!§!  Entscheidungen können nun auch andere Balkanländer als Ziel haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_explanatory_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!.</t>
+    <t xml:space="preserve">Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_explanatory_democratic_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle unabhängigen §Ydemokratischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!.</t>
+    <t xml:space="preserve">Alle unabhängigen §Y§Y demokratischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_decisions_tt:</t>
@@ -6814,61 +6814,61 @@
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_no_faction:</t>
   </si>
   <si>
-    <t xml:space="preserve">[ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e Fraktion</t>
+    <t xml:space="preserve">[ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e Fraktion</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_communist:</t>
   </si>
   <si>
-    <t xml:space="preserve">die §YBalkanföderation der Sozialistischen Republiken§!</t>
+    <t xml:space="preserve">die §Y§Y Balkanföderation der Sozialistischen Republiken §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bury_the_grudges_of_the_past_democratic:</t>
   </si>
   <si>
-    <t xml:space="preserve">die §YBalkanentente§!</t>
+    <t xml:space="preserve">die §Y§Y Balkanentente §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_trade_union_secretariat_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §YBalkan-Gewerkschaftssekretariat§! und damit (Konsumgüterfabriken: §Y-5%§!, Wirtschaftsgesetze-Kosten: §G-35%§!, Handelsgesetze-Kosten: §G-35%§!).</t>
+    <t xml:space="preserve">Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §Y§Y Balkan-Gewerkschaftssekretariat §!§!  und damit (Konsumgüterfabriken: §Y§Y -5% §!§! , Wirtschaftsgesetze-Kosten: §G§G -35% §!§! , Handelsgesetze-Kosten: §G§G -35% §!§! ).</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_unification_of_the_balkans_event_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! verbündet sind, erhalten das Ereignis §Y'Vereinigung auf dem Balkan'§!.\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll.</t>
+    <t xml:space="preserve">\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  verbündet sind, erhalten das Ereignis §Y§Y 'Vereinigung auf dem Balkan' §!§! .\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_eastern_front_ws_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Gewinn von Basiskriegsunterstützung auf Basis der §YUnterstützung für den Faschismus§!</t>
+    <t xml:space="preserve">Gewinn von Basiskriegsunterstützung auf Basis der §Y§Y Unterstützung für den Faschismus §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_eastern_front_stab_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verlust von Stabilität auf Basis der §YUnterstützung für den Kommunismus§!</t>
+    <t xml:space="preserve">Verlust von Stabilität auf Basis der §Y§Y Unterstützung für den Kommunismus §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_total_war_wargoal_expires_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ablauf des Kriegsziels in: §R180 Tagen§!</t>
+    <t xml:space="preserve">Ablauf des Kriegsziels in: §R§R 180 Tagen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_eastern_front_join_war_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[ROOT.GetNameDefCap]§! schließt sich seinen Verbündeten im Krieg gegen die §Y[SOV.GetNameDef]§! an</t>
+    <t xml:space="preserve">§Y§Y [ROOT.GetNameDefCap] §!§!  schließt sich seinen Verbündeten im Krieg gegen die §Y§Y [SOV.GetNameDef] §!§!  an</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_third_bulgarian_empire_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">+ §G1§! Bauplatz, §Y1 Zivilfabrik§! und §Y1 Infrastruktur§! in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden.</t>
+    <t xml:space="preserve">+ §G§G 1 §!§!  Bauplatz, §Y§Y 1 Zivilfabrik §!§!  und §Y§Y 1 Infrastruktur §!§!  in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_has_abolished_monarchy_tt:</t>
@@ -6898,61 +6898,61 @@
     <t xml:space="preserve"> BUL_join_the_tripartite_pact_warranted_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GZugesicherte Staaten:§!</t>
+    <t xml:space="preserve">§G§G Zugesicherte Staaten: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_peaceful_development_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidungen vom Typ §YBesatzung sichern§! frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind.</t>
+    <t xml:space="preserve">Schaltet Entscheidungen vom Typ §Y§Y Besatzung sichern §!§!  frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bulgarian_administration_of_the_balkans_cores_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Gewährt Kerngebiete in §Y[106.GetName]§!, §Y[803.GetName]§! und §Y[77.GetName]§!, sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:</t>
+    <t xml:space="preserve">Gewährt Kerngebiete in §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§!  und §Y§Y [77.GetName] §!§! , sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bulgarian_administration_of_the_balkans_decisions_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet §YBulgarische Reintegrationskampagne§!-Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen.</t>
+    <t xml:space="preserve">Schaltet §Y§Y Bulgarische Reintegrationskampagne §!§! -Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_amend_old_grudges_balkan_targets_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YAnnektierung§! gegen:</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Annektierung §!§!  gegen:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_toppling_giants_wargoal_1_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YMarionette§! gegen:</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_toppling_giants_wargoal_2_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YMarionette§! gegen §Yjede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef]§! grenzt.</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef] §!§!  grenzt.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nationalist_propaganda_combo_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§YDas Schicksal des Balkans§!' (§Y+365§! Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§YNationalistische Propaganda§!'.</t>
+    <t xml:space="preserve">Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§Y§Y Das Schicksal des Balkans §!§! ' (§Y§Y +365 §!§!  Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§Y§Y Nationalistische Propaganda §!§! '.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_guardians_of_the_balkans_wargoal_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YMarionette§! gegen §Yjede nicht-verbündete Nation, die Balkanstaaten kontrolliert§!:</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede nicht-verbündete Nation, die Balkanstaaten kontrolliert §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_guardians_of_the_balkans_remove_ns_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war.</t>
+    <t xml:space="preserve">Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_allow_far_right_organizations_tt:</t>
@@ -6964,13 +6964,13 @@
     <t xml:space="preserve"> BUL_toppling_giants_ns_targets_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nGroße europäische Länder, die an [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! grenzen:</t>
+    <t xml:space="preserve">\nGroße europäische Länder, die an [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  grenzen:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_dominance_in_the_black_sea_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
+    <t xml:space="preserve">[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_dominance_in_the_black_sea_wargoals_tt:</t>
@@ -6979,25 +6979,25 @@
     <t xml:space="preserve"> BUL_dominance_in_the_aegean_sea_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
+    <t xml:space="preserve">[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_dominance_in_the_adriatic_sea_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
+    <t xml:space="preserve">[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bulgaria_on_the_three_seas_buliding_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y2 Marinewerften§! hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y1 Marinestützpunkt§! und §Y2 Küstenbefestigungen§! hinzugefügt. \nAktuelle Effekte:</t>
+    <t xml:space="preserve">Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 2 Marinewerften §!§!  hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 1 Marinestützpunkt §!§!  und §Y§Y 2 Küstenbefestigungen §!§!  hinzugefügt. \nAktuelle Effekte:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_support_the_spanish_coup_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §YFeldmarschall§! befördert und erhält §G1§! Fähigkeitsstufe und eine zufällige §YEigenschaft§!, wenn der Spanische Bürgerkrieg endet. §RErfordert die Entsendung von Freiwilligen an das§! §Y[GetNationalistSpainFlag]Nationalistische Spanien§!.</t>
+    <t xml:space="preserve">Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §Y§Y Feldmarschall §!§!  befördert und erhält §G§G 1 §!§!  Fähigkeitsstufe und eine zufällige §Y§Y Eigenschaft §!§! , wenn der Spanische Bürgerkrieg endet. §R§R Erfordert die Entsendung von Freiwilligen an das §!§!  §Y§Y [GetNationalistSpainFlag]Nationalistische Spanien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_spa_flag:</t>
@@ -7012,25 +7012,25 @@
     <t xml:space="preserve"> BUL_the_return_of_ferdinand_opinion_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält §YAlte Feinde§! (Meinung von [GRE.GetFlag]§Y[GRE.GetNameDef]§!, [ROM.GetFlag]§Y[ROM.GetNameDef]§!, [YUG.GetFlag]§Y[YUG.GetNameDef]§!, [TUR.GetFlag]§Y[TUR.GetNameDef]§! §R-25§!</t>
+    <t xml:space="preserve">Erhält §Y§Y Alte Feinde §!§!  (Meinung von [GRE.GetFlag]§Y§Y [GRE.GetNameDef] §!§! , [ROM.GetFlag]§Y§Y [ROM.GetNameDef] §!§! , [YUG.GetFlag]§Y§Y [YUG.GetNameDef] §!§! , [TUR.GetFlag]§Y§Y [TUR.GetNameDef] §!§!  §R§R -25 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_carry_the_revolution_abroad_comintern_invitation_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y[ROOT.GetName]§! eingeladen werden</t>
+    <t xml:space="preserve">Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  eingeladen werden</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_carry_the_revolution_abroad_alternative_invitation_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn [ROOT.GetFlag]§Y[ROOT.GetName]§! Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden.</t>
+    <t xml:space="preserve">Wenn [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_recover_italian_territories_ita_will_refuse_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n[ITA.GetFlag]§Y[ITA.GetNameDefCap]§! §Rweigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil§! §Y[ITA.GetFlag][ITA.GetNameDef]§! §Roder§! §Yein [ITA.GetAdjective]er Verbündeter§! §Rmit§! [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! §Rim Krieg liegt§!</t>
+    <t xml:space="preserve">\n[ITA.GetFlag]§Y§Y [ITA.GetNameDefCap] §!§!  §R§R weigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil §!§!  §Y§Y [ITA.GetFlag][ITA.GetNameDef] §!§!  §R§R oder §!§!  §Y§Y ein [ITA.GetAdjective]er Verbündeter §!§!  §R§R mit §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  §R§R im Krieg liegt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_tsar_is_boris:</t>
@@ -7060,7 +7060,7 @@
     <t xml:space="preserve"> BUL_support_macedonian_organizations_rearmament_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RDer Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung§! §YUnsere Friedenspolitik demonstrieren§! §Rnicht mehr länger für§! §Y[ROOT.GetNameWithFlag]§! §Rverfügbar ist§!.</t>
+    <t xml:space="preserve">\n§R§R Der Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung §!§!  §Y§Y Unsere Friedenspolitik demonstrieren §!§!  §R§R nicht mehr länger für §!§!  §Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R verfügbar ist §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_treaty_of_perpetual_friendship_event_effects_tt:</t>
@@ -7072,37 +7072,37 @@
     <t xml:space="preserve"> BUL_treaty_of_perpetual_friendship_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RBulgarien gibt alle Gebietsansprüche in§! §Y[YUG.GetNameWithFlag]§! §Rauf§!.</t>
+    <t xml:space="preserve">§R§R Bulgarien gibt alle Gebietsansprüche in §!§!  §Y§Y [YUG.GetNameWithFlag] §!§!  §R§R auf §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_guardians_of_the_balkans_subject_ns_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nAlle §Y[ROOT.GetAdjective]en Untertanen auf dem Balkan§!:</t>
+    <t xml:space="preserve">\nAlle §Y§Y [ROOT.GetAdjective]en Untertanen auf dem Balkan §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_total_war_join_wars_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[ROOT.GetNameWithFlag]§! §Rschließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der§! §Y[SOV.GetNameWithFlag]§!.</t>
+    <t xml:space="preserve">§Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R schließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der §!§!  §Y§Y [SOV.GetNameWithFlag] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_land_reorganization_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">+ §Y2§! Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:</t>
+    <t xml:space="preserve">+ §Y§Y 2 §!§!  Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_agrarian_cooperative_movement_bzns_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetBznsName] über §Y80%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetBznsName] über §Y§Y 80% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_modernize_the_industry_bs_support_requirement_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y80%§! </t>
+    <t xml:space="preserve">Fraktionsloyalität von [GetBsName] über §Y§Y 80% §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_approach_the_united_kingdom_ferdinand_tt:</t>
@@ -7114,7 +7114,7 @@
     <t xml:space="preserve"> BUL_appeal_to_european_capitalists_cg_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YAusländische Industrie§! modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y-5%§!</t>
+    <t xml:space="preserve">§Y§Y Ausländische Industrie §!§!  modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y§Y -5% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_salonika_agreement_event_effects_tt:</t>
@@ -7126,7 +7126,7 @@
     <t xml:space="preserve"> BUL_a_balkan_confederation_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!.</t>
+    <t xml:space="preserve">Erhält das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_federation:</t>
@@ -7150,25 +7150,25 @@
     <t xml:space="preserve"> BUL_free_balkan_states_guarantees_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Garantie für alle §Ydemokratischen§! und §Yneutralen§! Balkannationen, die unabhängig oder mit §Y[BUL.GetNameWithFlag]§! verbündet sind:</t>
+    <t xml:space="preserve">Garantie für alle §Y§Y demokratischen §!§!  und §Y§Y neutralen §!§!  Balkannationen, die unabhängig oder mit §Y§Y [BUL.GetNameWithFlag] §!§!  verbündet sind:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_free_balkan_states_ns_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nErhält Nationalgeist §YUnsere Pflicht auf dem Balkan§!. Dieser gewährt (Konsumgüterfabriken: §Y-1%§! für jedes garantierte Land, Stabilität: §G+5%§! für jedes garantierte Land, Wöchentliche Mannstärke: §G+1000§! nicht beeinflusst von garantierten Ländern).</t>
+    <t xml:space="preserve">\nErhält Nationalgeist §Y§Y Unsere Pflicht auf dem Balkan §!§! . Dieser gewährt (Konsumgüterfabriken: §Y§Y -1% §!§!  für jedes garantierte Land, Stabilität: §G§G +5% §!§!  für jedes garantierte Land, Wöchentliche Mannstärke: §G§G +1000 §!§!  nicht beeinflusst von garantierten Ländern).</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_free_balkan_states_wargoals_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nErhält Kriegsziel §YMarionette§! gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:</t>
+    <t xml:space="preserve">\nErhält Kriegsziel §Y§Y Marionette §!§!  gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_fight_tyranny_wargoals_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße faschistische Länder in Europa§!.</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große faschistische Länder in Europa §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_fight_tyranny_wargoals_current_tt:</t>
@@ -7180,7 +7180,7 @@
     <t xml:space="preserve"> BUL_obliterate_the_bolshevik_threat_wargoal_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße kommunistische Länder in Europa§!.</t>
+    <t xml:space="preserve">Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große kommunistische Länder in Europa §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_obliterate_the_bolshevik_threat_wargoal_current_tt:</t>
@@ -7192,7 +7192,7 @@
     <t xml:space="preserve"> BUL_assert_our_claims_historical_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y[BUL.GetNameWithFlag]§! kontrolliert werden.\nHistorische beanspruchte Staaten: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!.</t>
+    <t xml:space="preserve">Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y§Y [BUL.GetNameWithFlag] §!§!  kontrolliert werden.\nHistorische beanspruchte Staaten: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_assert_our_claims_historical_claims_current_tt:</t>
@@ -7204,19 +7204,19 @@
     <t xml:space="preserve"> BUL_assert_our_claims_initial_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn §Y[ENG.GetNameWithFlag]§! akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y[48.GetName]§!, §Y[211.GetName]§!, §Y[212.GetName]§!, §Y[801.GetName]§!), die von einem Verbündeten kontrolliert werden, werden an §Y[BUL.GetNameWithFlag]§! zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	</t>
+    <t xml:space="preserve">Wenn §Y§Y [ENG.GetNameWithFlag] §!§!  akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y§Y [48.GetName] §!§! , §Y§Y [211.GetName] §!§! , §Y§Y [212.GetName] §!§! , §Y§Y [801.GetName] §!§! ), die von einem Verbündeten kontrolliert werden, werden an §Y§Y [BUL.GetNameWithFlag] §!§!  zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_assert_our_claims_enemy_claims_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§Y[BUL.GetNameWithFlag]§! erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Yannektieren§! gegen diese Nachbarländer.</t>
+    <t xml:space="preserve">\n§Y§Y [BUL.GetNameWithFlag] §!§!  erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Y§Y annektieren §!§!  gegen diese Nachbarländer.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_freedom_of_press_ban_faction_media_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§Rhindert die Regierung §Y365 Tage§! lang daran, die Medien eines Bündnisses zu verbieten.§!</t>
+    <t xml:space="preserve">\n§R§R hindert die Regierung §Y§Y 365 Tage §!§!  lang daran, die Medien eines Bündnisses zu verbieten. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_legalize_the_agrarian_party_legalize_bzns_tt:</t>
@@ -7234,79 +7234,79 @@
     <t xml:space="preserve"> BUL_defensive_lines_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergänz §Y1 Infrastruktur§!, §Y1 Flugabwehr§! und §Y1 Landbefestigung§! in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Yweltweite Spannung§! erzeugt hat.</t>
+    <t xml:space="preserve">Ergänz §Y§Y 1 Infrastruktur §!§! , §Y§Y 1 Flugabwehr §!§!  und §Y§Y 1 Landbefestigung §!§!  in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Y§Y weltweite Spannung §!§!  erzeugt hat.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_historical_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nHistorische Territorialansprüche: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!.</t>
+    <t xml:space="preserve">\nHistorische Territorialansprüche: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_reinforce_naval_bases_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergänzt §Y2 Landbefestigungen§!, §Y2 Küstenbefestigungen§!, §Y1 Flugabwehr-§! und §Y2 Marinestützpunkte§! in §Y[211.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!, so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:</t>
+    <t xml:space="preserve">Ergänzt §Y§Y 2 Landbefestigungen §!§! , §Y§Y 2 Küstenbefestigungen §!§! , §Y§Y 1 Flugabwehr- §!§!  und §Y§Y 2 Marinestützpunkte §!§!  in §Y§Y [211.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! , so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_an_aegean_sea_fleet_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergänzt §Y1 Marinestützpunkt§!, §G1§! Bauplatz und §Y1 Marinewerft§! in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:</t>
+    <t xml:space="preserve">Ergänzt §Y§Y 1 Marinestützpunkt §!§! , §G§G 1 §!§!  Bauplatz und §Y§Y 1 Marinewerft §!§!  in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_remove_tsar_loyalist_trait_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt Staatsoberhaupteigenschaft §YLoyaler Zarist§!.</t>
+    <t xml:space="preserve">Entfernt Staatsoberhaupteigenschaft §Y§Y Loyaler Zarist §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_is_not_alone_in_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Beliebiges Land: Ist in einem Bündnis mit §Y[ROOT.GetNameWithFlag]§!</t>
+    <t xml:space="preserve">Beliebiges Land: Ist in einem Bündnis mit §Y§Y [ROOT.GetNameWithFlag] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_unification_of_the_balkans_cores_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält Kernprovinz in §Yallen Balkanstaaten§!:</t>
+    <t xml:space="preserve">Erhält Kernprovinz in §Y§Y allen Balkanstaaten §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_carry_the_revolution_abroad_wargoals_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält Kriegsziel §Yannektieren§! gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Ykommunistische Gefahr§! (Meinung von §Y[BUL.GetNameWithFlag]§! §R-35§!.)\nAktuell betroffene Länder:</t>
+    <t xml:space="preserve">Erhält Kriegsziel §Y§Y annektieren §!§!  gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Y§Y kommunistische Gefahr §!§!  (Meinung von §Y§Y [BUL.GetNameWithFlag] §!§!  §R§R -35 §!§! .)\nAktuell betroffene Länder:</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_freedom_of_press_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat Schwerpunkt §YPressefreiheit§! abgeschlossen</t>
+    <t xml:space="preserve">Hat Schwerpunkt §Y§Y Pressefreiheit §!§!  abgeschlossen</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_industrial_investments_in_bulgaria_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Land hat industrielle Investitionen in §Y[ROOT.GetNameWithFlag]§! getätigt</t>
+    <t xml:space="preserve">Land hat industrielle Investitionen in §Y§Y [ROOT.GetNameWithFlag] §!§!  getätigt</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_replace_national_naval_designer_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Modifiziert §Y$BUL_varna_naval_dockyard$§! um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G+10%§! \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G+5%§! \n$naval_equipment_research$: §G+5%§!\n\n</t>
+    <t xml:space="preserve">Modifiziert §Y§Y $BUL_varna_naval_dockyard$ §!§!  um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G§G +10% §!§!  \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G§G +5% §!§!  \n$naval_equipment_research$: §G§G +5% §!§! \n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_depose_the_tsar_cw_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §Yneutralen§! Unterstützer starten einen Bürgerkrieg.</t>
+    <t xml:space="preserve">Die §Y§Y neutralen §!§!  Unterstützer starten einen Bürgerkrieg.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nationalization_foreign_designers_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAusländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind.§!</t>
+    <t xml:space="preserve">§R§R Ausländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_simeon_is_1:</t>
@@ -7378,19 +7378,19 @@
     <t xml:space="preserve"> BUL_condemn_macedonian_organizations_rearmament_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y[ENG.GetNameWithFlag]§! über die Entscheidung §YBulgarische Wiederbewaffnung verhandeln§! die bulgarischen Militärbeschränkungen aufhebt.</t>
+    <t xml:space="preserve">\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y§Y [ENG.GetNameWithFlag] §!§!  über die Entscheidung §Y§Y Bulgarische Wiederbewaffnung verhandeln §!§!  die bulgarischen Militärbeschränkungen aufhebt.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_dissolve_the_military_union_zveno_coup_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird§!</t>
+    <t xml:space="preserve">\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperate_with_the_zveno_coup_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird§!</t>
+    <t xml:space="preserve">\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird §!§! </t>
   </si>
 </sst>
 </file>
@@ -7614,8 +7614,8 @@
   </sheetPr>
   <dimension ref="A1:D1231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1231" activeCellId="0" sqref="D1:D1231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7679,11 +7679,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> GRE_bring_home_the_exiled_republicans_focus_tt: "§YVenizelistische§! Minister und Generäle kehren aus dem Exil zurück und werden verfügbar."</v>
+        <v> GRE_bring_home_the_exiled_republicans_focus_tt: "§Y§Y Venizelistische §!§!  Minister und Generäle kehren aus dem Exil zurück und werden verfügbar."</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> GRE_bring_home_the_exiled_republicans_focus_tt: "§YVenizelistische§! Minister und Generäle kehren aus dem Exil zurück und werden verfügbar."</v>
+        <v> GRE_bring_home_the_exiled_republicans_focus_tt: "§Y§Y Venizelistische §!§!  Minister und Generäle kehren aus dem Exil zurück und werden verfügbar."</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,11 +7727,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> GRE_compromise_with_the_monarchists_focus_tt: "§YGeorg II.§! gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §YMonarchisten§! werden §Gfreundlich§!. \n£faction_gre_communist §YKommunisten§! werden §Rfeindselig§!."</v>
+        <v> GRE_compromise_with_the_monarchists_focus_tt: "§Y§Y Georg II. §!§!  gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §G§G freundlich §!§! . \n£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R feindselig §!§! ."</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> GRE_compromise_with_the_monarchists_focus_tt: "§YGeorg II.§! gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §YMonarchisten§! werden §Gfreundlich§!. \n£faction_gre_communist §YKommunisten§! werden §Rfeindselig§!."</v>
+        <v> GRE_compromise_with_the_monarchists_focus_tt: "§Y§Y Georg II. §!§!  gibt das Land aus seinem Würgegriff frei und wird zu einem konstitutionellen Monarchen. \n\n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §G§G freundlich §!§! . \n£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R feindselig §!§! ."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,11 +7775,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> GRE_request_communist_support_focus_tt: "£faction_gre_communist §YKommunisten§! werden §Rfreundlich§!. \n£faction_gre_monarchist §YMonarchisten§! werden §Rfeindselig§!. \n\n£faction_gre_monarchist §YMonarchistische§! Generäle und Minister §Rquittieren§! den Dienst, aber £faction_gre_communist §Ykommunistische§! Generäle und Minister werden §Gverfügbar§!."</v>
+        <v> GRE_request_communist_support_focus_tt: "£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R freundlich §!§! . \n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §R§R feindselig §!§! . \n\n£faction_gre_monarchist §Y§Y Monarchistische §!§!  Generäle und Minister §R§R quittieren §!§!  den Dienst, aber £faction_gre_communist §Y§Y kommunistische §!§!  Generäle und Minister werden §G§G verfügbar §!§! ."</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> GRE_request_communist_support_focus_tt: "£faction_gre_communist §YKommunisten§! werden §Rfreundlich§!. \n£faction_gre_monarchist §YMonarchisten§! werden §Rfeindselig§!. \n\n£faction_gre_monarchist §YMonarchistische§! Generäle und Minister §Rquittieren§! den Dienst, aber £faction_gre_communist §Ykommunistische§! Generäle und Minister werden §Gverfügbar§!."</v>
+        <v> GRE_request_communist_support_focus_tt: "£faction_gre_communist §Y§Y Kommunisten §!§!  werden §R§R freundlich §!§! . \n£faction_gre_monarchist §Y§Y Monarchisten §!§!  werden §R§R feindselig §!§! . \n\n£faction_gre_monarchist §Y§Y Monarchistische §!§!  Generäle und Minister §R§R quittieren §!§!  den Dienst, aber £faction_gre_communist §Y§Y kommunistische §!§!  Generäle und Minister werden §G§G verfügbar §!§! ."</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> GRE_old_memories_stir_new_threats_tt: "Anatolien zu einem emotionalen Thema zu machen, könnte §Yunbeabsichtigte Konsequenzen§! haben ..."</v>
+        <v> GRE_old_memories_stir_new_threats_tt: "Anatolien zu einem emotionalen Thema zu machen, könnte §Y§Y unbeabsichtigte Konsequenzen §!§!  haben ..."</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> GRE_old_memories_stir_new_threats_tt: "Anatolien zu einem emotionalen Thema zu machen, könnte §Yunbeabsichtigte Konsequenzen§! haben ..."</v>
+        <v> GRE_old_memories_stir_new_threats_tt: "Anatolien zu einem emotionalen Thema zu machen, könnte §Y§Y unbeabsichtigte Konsequenzen §!§!  haben ..."</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,11 +8191,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> GRE_industry_bypass_tt: "Nicht genügend Bauplätze für §YMilitärfabriken§! oder §YZivilfabriken§!"</v>
+        <v> GRE_industry_bypass_tt: "Nicht genügend Bauplätze für §Y§Y Militärfabriken §!§!  oder §Y§Y Zivilfabriken §!§! "</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> GRE_industry_bypass_tt: "Nicht genügend Bauplätze für §YMilitärfabriken§! oder §YZivilfabriken§!"</v>
+        <v> GRE_industry_bypass_tt: "Nicht genügend Bauplätze für §Y§Y Militärfabriken §!§!  oder §Y§Y Zivilfabriken §!§! "</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8367,11 +8367,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> GRE_megali_idea_conference_invites_tt: "Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §YMegali-Konvention§! verschickt."</v>
+        <v> GRE_megali_idea_conference_invites_tt: "Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §Y§Y Megali-Konvention §!§!  verschickt."</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> GRE_megali_idea_conference_invites_tt: "Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §YMegali-Konvention§! verschickt."</v>
+        <v> GRE_megali_idea_conference_invites_tt: "Wenn dieser Schwerpunkt ausgewählt wird, werden Einladungen in die §Y§Y Megali-Konvention §!§!  verschickt."</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8543,11 +8543,11 @@
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> GRE_megali_idea_approved: "§YMegali Idea§! Genehmigt"</v>
+        <v> GRE_megali_idea_approved: "§Y§Y Megali Idea §!§!  Genehmigt"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> GRE_megali_idea_approved: "§YMegali Idea§! Genehmigt"</v>
+        <v> GRE_megali_idea_approved: "§Y§Y Megali Idea §!§!  Genehmigt"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8575,11 +8575,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> GRE_gordian_knot_tt: "Alle Unterzeichner außer §YItalien§! erklären der §YTürkei§! an der Seite von §YGriechenland§! den Krieg, um die Bestimmungen der §YMegali-Konvention§! einzuhalten."</v>
+        <v> GRE_gordian_knot_tt: "Alle Unterzeichner außer §Y§Y Italien §!§!  erklären der §Y§Y Türkei §!§!  an der Seite von §Y§Y Griechenland §!§!  den Krieg, um die Bestimmungen der §Y§Y Megali-Konvention §!§!  einzuhalten."</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> GRE_gordian_knot_tt: "Alle Unterzeichner außer §YItalien§! erklären der §YTürkei§! an der Seite von §YGriechenland§! den Krieg, um die Bestimmungen der §YMegali-Konvention§! einzuhalten."</v>
+        <v> GRE_gordian_knot_tt: "Alle Unterzeichner außer §Y§Y Italien §!§!  erklären der §Y§Y Türkei §!§!  an der Seite von §Y§Y Griechenland §!§!  den Krieg, um die Bestimmungen der §Y§Y Megali-Konvention §!§!  einzuhalten."</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,11 +8943,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> byz_restore_byzantine_empire_category_tt: "Schaltet die Entscheidungen §YByzantinisches Reich wiederherstellen§! frei."</v>
+        <v> byz_restore_byzantine_empire_category_tt: "Schaltet die Entscheidungen §Y§Y Byzantinisches Reich wiederherstellen §!§!  frei."</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> byz_restore_byzantine_empire_category_tt: "Schaltet die Entscheidungen §YByzantinisches Reich wiederherstellen§! frei."</v>
+        <v> byz_restore_byzantine_empire_category_tt: "Schaltet die Entscheidungen §Y§Y Byzantinisches Reich wiederherstellen §!§!  frei."</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,11 +9023,11 @@
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> GRE_abandon_french_italian_debt_tt: "Wir streichen unsere Schulden bei §YFrankreich§! und §YItalien§! einfach.\n"</v>
+        <v> GRE_abandon_french_italian_debt_tt: "Wir streichen unsere Schulden bei §Y§Y Frankreich §!§!  und §Y§Y Italien §!§!  einfach.\n"</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> GRE_abandon_french_italian_debt_tt: "Wir streichen unsere Schulden bei §YFrankreich§! und §YItalien§! einfach.\n"</v>
+        <v> GRE_abandon_french_italian_debt_tt: "Wir streichen unsere Schulden bei §Y§Y Frankreich §!§!  und §Y§Y Italien §!§!  einfach.\n"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,11 +9039,11 @@
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> GRE_absolute_monarchy_opposition_tt: "§RWenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg!§! \nDie §YVenizelisten§! werden §Rrebellisch!§! \nDie §YKommunisten§! werden §Rrebellisch!§!"</v>
+        <v> GRE_absolute_monarchy_opposition_tt: "§R§R Wenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg! §!§!  \nDie §Y§Y Venizelisten §!§!  werden §R§R rebellisch! §!§!  \nDie §Y§Y Kommunisten §!§!  werden §R§R rebellisch! §!§! "</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> GRE_absolute_monarchy_opposition_tt: "§RWenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg!§! \nDie §YVenizelisten§! werden §Rrebellisch!§! \nDie §YKommunisten§! werden §Rrebellisch!§!"</v>
+        <v> GRE_absolute_monarchy_opposition_tt: "§R§R Wenn Sie diesen Pfad einschlagen, kommt es zum Bürgerkrieg! §!§!  \nDie §Y§Y Venizelisten §!§!  werden §R§R rebellisch! §!§!  \nDie §Y§Y Kommunisten §!§!  werden §R§R rebellisch! §!§! "</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,11 +9087,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> GRE_metaxism_warning_tt: "\nWenn §YGriechenland§! einem Bündnis beitritt, bevor der Nationalgeist §YMetaxismus§! voll ausgebaut ist, wird dieser §Rentfernt§!.\n"</v>
+        <v> GRE_metaxism_warning_tt: "\nWenn §Y§Y Griechenland §!§!  einem Bündnis beitritt, bevor der Nationalgeist §Y§Y Metaxismus §!§!  voll ausgebaut ist, wird dieser §R§R entfernt §!§! .\n"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> GRE_metaxism_warning_tt: "\nWenn §YGriechenland§! einem Bündnis beitritt, bevor der Nationalgeist §YMetaxismus§! voll ausgebaut ist, wird dieser §Rentfernt§!.\n"</v>
+        <v> GRE_metaxism_warning_tt: "\nWenn §Y§Y Griechenland §!§!  einem Bündnis beitritt, bevor der Nationalgeist §Y§Y Metaxismus §!§!  voll ausgebaut ist, wird dieser §R§R entfernt §!§! .\n"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,11 +9407,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> GRE_fascists_put_in_play_tt: "Die §Yfaschistische Fraktion§! wird aktiv und ist der Regierung gegenüber zu Beginn §Gfreundlich§! eingestellt. \nWenn wir mit den §YFaschisten§! kooperieren, legitimieren wir ihre Bewegung."</v>
+        <v> GRE_fascists_put_in_play_tt: "Die §Y§Y faschistische Fraktion §!§!  wird aktiv und ist der Regierung gegenüber zu Beginn §G§G freundlich §!§!  eingestellt. \nWenn wir mit den §Y§Y Faschisten §!§!  kooperieren, legitimieren wir ihre Bewegung."</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> GRE_fascists_put_in_play_tt: "Die §Yfaschistische Fraktion§! wird aktiv und ist der Regierung gegenüber zu Beginn §Gfreundlich§! eingestellt. \nWenn wir mit den §YFaschisten§! kooperieren, legitimieren wir ihre Bewegung."</v>
+        <v> GRE_fascists_put_in_play_tt: "Die §Y§Y faschistische Fraktion §!§!  wird aktiv und ist der Regierung gegenüber zu Beginn §G§G freundlich §!§!  eingestellt. \nWenn wir mit den §Y§Y Faschisten §!§!  kooperieren, legitimieren wir ihre Bewegung."</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,11 +9455,11 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> GRE_no_central_powers_tt: "§YÖsterreich-Ungarn§! oder das §YKaiserreich§! müssen existieren, damit dieser Schwerpunkt Auswirkungen hat."</v>
+        <v> GRE_no_central_powers_tt: "§Y§Y Österreich-Ungarn §!§!  oder das §Y§Y Kaiserreich §!§!  müssen existieren, damit dieser Schwerpunkt Auswirkungen hat."</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> GRE_no_central_powers_tt: "§YÖsterreich-Ungarn§! oder das §YKaiserreich§! müssen existieren, damit dieser Schwerpunkt Auswirkungen hat."</v>
+        <v> GRE_no_central_powers_tt: "§Y§Y Österreich-Ungarn §!§!  oder das §Y§Y Kaiserreich §!§!  müssen existieren, damit dieser Schwerpunkt Auswirkungen hat."</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9503,11 +9503,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> GRE_metaxism_lost_tt: "Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §YMetaxismus§!!"</v>
+        <v> GRE_metaxism_lost_tt: "Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §Y§Y Metaxismus §!§! !"</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> GRE_metaxism_lost_tt: "Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §YMetaxismus§!!"</v>
+        <v> GRE_metaxism_lost_tt: "Wenn wir nicht alle Reformen von Metaxas umgesetzt haben, verlieren wir den Nationalgeist §Y§Y Metaxismus §!§! !"</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,11 +9551,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> GRE_the_metaxas_line: "Der Anfang der §YMetaxas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
+        <v> GRE_the_metaxas_line: "Der Anfang der §Y§Y Metaxas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> GRE_the_metaxas_line: "Der Anfang der §YMetaxas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
+        <v> GRE_the_metaxas_line: "Der Anfang der §Y§Y Metaxas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,11 +9567,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> GRE_the_leonidas_line: "Der Anfang der §YLeonidas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
+        <v> GRE_the_leonidas_line: "Der Anfang der §Y§Y Leonidas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> GRE_the_leonidas_line: "Der Anfang der §YLeonidas-Linie§! - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
+        <v> GRE_the_leonidas_line: "Der Anfang der §Y§Y Leonidas-Linie §!§!  - einer Rehe von Landbefestigungen entlang unserer oft verletzten Grenzen - wird fertiggestellt.\n"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,11 +9647,11 @@
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> no_fascist_metaxism_spirit_tt: "Wenn der Nationalgeist §YDen Geist der spartanischen Krieger wiederbeleben§! nicht gewählt wurde, dann wird der Nationalgeist §YMetaxism§! nicht faschistisiert, sondern stattdessen §Rentfernt§!."</v>
+        <v> no_fascist_metaxism_spirit_tt: "Wenn der Nationalgeist §Y§Y Den Geist der spartanischen Krieger wiederbeleben §!§!  nicht gewählt wurde, dann wird der Nationalgeist §Y§Y Metaxism §!§!  nicht faschistisiert, sondern stattdessen §R§R entfernt §!§! ."</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v> no_fascist_metaxism_spirit_tt: "Wenn der Nationalgeist §YDen Geist der spartanischen Krieger wiederbeleben§! nicht gewählt wurde, dann wird der Nationalgeist §YMetaxism§! nicht faschistisiert, sondern stattdessen §Rentfernt§!."</v>
+        <v> no_fascist_metaxism_spirit_tt: "Wenn der Nationalgeist §Y§Y Den Geist der spartanischen Krieger wiederbeleben §!§!  nicht gewählt wurde, dann wird der Nationalgeist §Y§Y Metaxism §!§!  nicht faschistisiert, sondern stattdessen §R§R entfernt §!§! ."</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9855,11 +9855,11 @@
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> GRE_required_fascist_faction_loyalty_tt: "Das §Yfaschistische Bündnis§! muss §Gloyal§! sein."</v>
+        <v> GRE_required_fascist_faction_loyalty_tt: "Das §Y§Y faschistische Bündnis §!§!  muss §G§G loyal §!§!  sein."</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> GRE_required_fascist_faction_loyalty_tt: "Das §Yfaschistische Bündnis§! muss §Gloyal§! sein."</v>
+        <v> GRE_required_fascist_faction_loyalty_tt: "Das §Y§Y faschistische Bündnis §!§!  muss §G§G loyal §!§!  sein."</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9999,11 +9999,11 @@
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> schachtplan_required_tt: "Besitzt keine Variationen des §YSchacht-Plans§!"</v>
+        <v> schachtplan_required_tt: "Besitzt keine Variationen des §Y§Y Schacht-Plans §!§! "</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> schachtplan_required_tt: "Besitzt keine Variationen des §YSchacht-Plans§!"</v>
+        <v> schachtplan_required_tt: "Besitzt keine Variationen des §Y§Y Schacht-Plans §!§! "</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10319,11 +10319,11 @@
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> GRE_pay_back_debt_tt: "Durch diese §YEntscheidungen§! können wir den Nationalgeist §YSchulden bei der IFK§! verringern und schließlich ganz loswerden."</v>
+        <v> GRE_pay_back_debt_tt: "Durch diese §Y§Y Entscheidungen §!§!  können wir den Nationalgeist §Y§Y Schulden bei der IFK §!§!  verringern und schließlich ganz loswerden."</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> GRE_pay_back_debt_tt: "Durch diese §YEntscheidungen§! können wir den Nationalgeist §YSchulden bei der IFK§! verringern und schließlich ganz loswerden."</v>
+        <v> GRE_pay_back_debt_tt: "Durch diese §Y§Y Entscheidungen §!§!  können wir den Nationalgeist §Y§Y Schulden bei der IFK §!§!  verringern und schließlich ganz loswerden."</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10495,11 +10495,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> GRE_open_foreign_subsidized_factories_tt: "Jedes der folgenden Länder, dessen §YMeinung§! zu §YGriechenland§! über §G80§! liegt, erhält eine Eine §YMilitärfabrik§! und eine §YZivilfabrik§!: \n§Y[FRA.GetNameDef]§!, §Y[ENG.GetNameDef]§!, §Y[GER.GetNameDef]§! und §Y[SOV.GetNameDef]§!."</v>
+        <v> GRE_open_foreign_subsidized_factories_tt: "Jedes der folgenden Länder, dessen §Y§Y Meinung §!§!  zu §Y§Y Griechenland §!§!  über §G§G 80 §!§!  liegt, erhält eine Eine §Y§Y Militärfabrik §!§!  und eine §Y§Y Zivilfabrik §!§! : \n§Y§Y [FRA.GetNameDef] §!§! , §Y§Y [ENG.GetNameDef] §!§! , §Y§Y [GER.GetNameDef] §!§!  und §Y§Y [SOV.GetNameDef] §!§! ."</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> GRE_open_foreign_subsidized_factories_tt: "Jedes der folgenden Länder, dessen §YMeinung§! zu §YGriechenland§! über §G80§! liegt, erhält eine Eine §YMilitärfabrik§! und eine §YZivilfabrik§!: \n§Y[FRA.GetNameDef]§!, §Y[ENG.GetNameDef]§!, §Y[GER.GetNameDef]§! und §Y[SOV.GetNameDef]§!."</v>
+        <v> GRE_open_foreign_subsidized_factories_tt: "Jedes der folgenden Länder, dessen §Y§Y Meinung §!§!  zu §Y§Y Griechenland §!§!  über §G§G 80 §!§!  liegt, erhält eine Eine §Y§Y Militärfabrik §!§!  und eine §Y§Y Zivilfabrik §!§! : \n§Y§Y [FRA.GetNameDef] §!§! , §Y§Y [ENG.GetNameDef] §!§! , §Y§Y [GER.GetNameDef] §!§!  und §Y§Y [SOV.GetNameDef] §!§! ."</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10511,11 +10511,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> GRE_unlock_soviet_decision_tt: "Schaltet Entscheidungen frei: §YEine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen§!"</v>
+        <v> GRE_unlock_soviet_decision_tt: "Schaltet Entscheidungen frei: §Y§Y Eine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen §!§! "</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> GRE_unlock_soviet_decision_tt: "Schaltet Entscheidungen frei: §YEine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen§!"</v>
+        <v> GRE_unlock_soviet_decision_tt: "Schaltet Entscheidungen frei: §Y§Y Eine Gruppe von [SOV.GetAdjective]en Bürokraten in [ROOT.GetNameDef] empfangen §!§! "</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10559,11 +10559,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> GRE_paid_off_most_of_debt_tt: "Wir müssen den Großteil unserer nationalen §YSchulden§! zurückgezahlt haben."</v>
+        <v> GRE_paid_off_most_of_debt_tt: "Wir müssen den Großteil unserer nationalen §Y§Y Schulden §!§!  zurückgezahlt haben."</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> GRE_paid_off_most_of_debt_tt: "Wir müssen den Großteil unserer nationalen §YSchulden§! zurückgezahlt haben."</v>
+        <v> GRE_paid_off_most_of_debt_tt: "Wir müssen den Großteil unserer nationalen §Y§Y Schulden §!§!  zurückgezahlt haben."</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,11 +10575,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> GRE_paying_back_our_debts_in_bulk_ENG_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim britischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_ENG_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim britischen Staat §!§!  \n"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> GRE_paying_back_our_debts_in_bulk_ENG_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim britischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_ENG_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim britischen Staat §!§!  \n"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10591,11 +10591,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> GRE_paying_back_our_debts_in_bulk_FRA_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim französischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_FRA_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim französischen Staat §!§!  \n"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> GRE_paying_back_our_debts_in_bulk_FRA_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim französischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_FRA_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim französischen Staat §!§!  \n"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10607,11 +10607,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> GRE_paying_back_our_debts_in_bulk_ITA_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim italienischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_ITA_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim italienischen Staat §!§!  \n"</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> GRE_paying_back_our_debts_in_bulk_ITA_tt: "Schaltet Entscheidung frei: §YGroße Tilgung der Schulden beim italienischen Staat§! \n"</v>
+        <v> GRE_paying_back_our_debts_in_bulk_ITA_tt: "Schaltet Entscheidung frei: §Y§Y Große Tilgung der Schulden beim italienischen Staat §!§!  \n"</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10815,11 +10815,11 @@
       </c>
       <c r="C200" s="1" t="str">
         <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v> GRE_fiscal_responsibility_tt: "Die §YSchulden bei der IFK§! müssen teilweise oder vollständig zurückgezahlt sein"</v>
+        <v> GRE_fiscal_responsibility_tt: "Die §Y§Y Schulden bei der IFK §!§!  müssen teilweise oder vollständig zurückgezahlt sein"</v>
       </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
-        <v> GRE_fiscal_responsibility_tt: "Die §YSchulden bei der IFK§! müssen teilweise oder vollständig zurückgezahlt sein"</v>
+        <v> GRE_fiscal_responsibility_tt: "Die §Y§Y Schulden bei der IFK §!§!  müssen teilweise oder vollständig zurückgezahlt sein"</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10927,11 +10927,11 @@
       </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> GRE_renegotiate_debt_with_france_tt: "Schaltet Entscheidung frei: §YDie französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen§! \nErlässt sämtliche §YSchulden bei der IFK§!, die von §Y[FRA.GetNameDef]§! verwaltet werden."</v>
+        <v> GRE_renegotiate_debt_with_france_tt: "Schaltet Entscheidung frei: §Y§Y Die französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen §!§!  \nErlässt sämtliche §Y§Y Schulden bei der IFK §!§! , die von §Y§Y [FRA.GetNameDef] §!§!  verwaltet werden."</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v> GRE_renegotiate_debt_with_france_tt: "Schaltet Entscheidung frei: §YDie französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen§! \nErlässt sämtliche §YSchulden bei der IFK§!, die von §Y[FRA.GetNameDef]§! verwaltet werden."</v>
+        <v> GRE_renegotiate_debt_with_france_tt: "Schaltet Entscheidung frei: §Y§Y Die französischen Gewerkschaften dazu bestechen, ihre Regierung unter Druck zu setzen §!§!  \nErlässt sämtliche §Y§Y Schulden bei der IFK §!§! , die von §Y§Y [FRA.GetNameDef] §!§!  verwaltet werden."</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11103,11 +11103,11 @@
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v> GRE_bedrock_of_balkan_financial_stability_tt: "Wir erhalten für jedes Land auf dem §YWestbalkan§!, dem §YOstbalkan§! und dem §YNordbalkan§!, das eine hohe freundschaftliche §YMeinung§! von uns hat, §YZivilfabriken§! abseits der Karte. Das gilt auch für §Y[AUS.GetNameDef]§!, §Y[CZE.GetNameDef]§! und §Y[TUR.GetNameDef]§!."</v>
+        <v> GRE_bedrock_of_balkan_financial_stability_tt: "Wir erhalten für jedes Land auf dem §Y§Y Westbalkan §!§! , dem §Y§Y Ostbalkan §!§!  und dem §Y§Y Nordbalkan §!§! , das eine hohe freundschaftliche §Y§Y Meinung §!§!  von uns hat, §Y§Y Zivilfabriken §!§!  abseits der Karte. Das gilt auch für §Y§Y [AUS.GetNameDef] §!§! , §Y§Y [CZE.GetNameDef] §!§!  und §Y§Y [TUR.GetNameDef] §!§! ."</v>
       </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
-        <v> GRE_bedrock_of_balkan_financial_stability_tt: "Wir erhalten für jedes Land auf dem §YWestbalkan§!, dem §YOstbalkan§! und dem §YNordbalkan§!, das eine hohe freundschaftliche §YMeinung§! von uns hat, §YZivilfabriken§! abseits der Karte. Das gilt auch für §Y[AUS.GetNameDef]§!, §Y[CZE.GetNameDef]§! und §Y[TUR.GetNameDef]§!."</v>
+        <v> GRE_bedrock_of_balkan_financial_stability_tt: "Wir erhalten für jedes Land auf dem §Y§Y Westbalkan §!§! , dem §Y§Y Ostbalkan §!§!  und dem §Y§Y Nordbalkan §!§! , das eine hohe freundschaftliche §Y§Y Meinung §!§!  von uns hat, §Y§Y Zivilfabriken §!§!  abseits der Karte. Das gilt auch für §Y§Y [AUS.GetNameDef] §!§! , §Y§Y [CZE.GetNameDef] §!§!  und §Y§Y [TUR.GetNameDef] §!§! ."</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11215,11 +11215,11 @@
       </c>
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v> GRE_encourage_tourism_tt: "§RWir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten!§!"</v>
+        <v> GRE_encourage_tourism_tt: "§R§R Wir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten! §!§! "</v>
       </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
-        <v> GRE_encourage_tourism_tt: "§RWir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten!§!"</v>
+        <v> GRE_encourage_tourism_tt: "§R§R Wir verlieren unsere Tourismusindustrie, sobald wir in einen Krieg eintreten! §!§! "</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11327,11 +11327,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> GRE_making_use_of_our_islands_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! und der §YDodekanes§! kontrolliert werden."</v>
+        <v> GRE_making_use_of_our_islands_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  und der §Y§Y Dodekanes §!§!  kontrolliert werden."</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
-        <v> GRE_making_use_of_our_islands_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! und der §YDodekanes§! kontrolliert werden."</v>
+        <v> GRE_making_use_of_our_islands_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  und der §Y§Y Dodekanes §!§!  kontrolliert werden."</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,11 +11343,11 @@
       </c>
       <c r="C233" s="1" t="str">
         <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v> GRE_making_use_of_our_islands_dodecanese_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §YDodekanes§! kontrolliert wird."</v>
+        <v> GRE_making_use_of_our_islands_dodecanese_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §Y§Y Dodekanes §!§!  kontrolliert wird."</v>
       </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
-        <v> GRE_making_use_of_our_islands_dodecanese_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §YDodekanes§! kontrolliert wird."</v>
+        <v> GRE_making_use_of_our_islands_dodecanese_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch der §Y§Y Dodekanes §!§!  kontrolliert wird."</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,11 +11359,11 @@
       </c>
       <c r="C234" s="1" t="str">
         <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v> GRE_making_use_of_our_islands_cyprus_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! kontrolliert wird."</v>
+        <v> GRE_making_use_of_our_islands_cyprus_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  kontrolliert wird."</v>
       </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
-        <v> GRE_making_use_of_our_islands_cyprus_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §YZypern§! kontrolliert wird."</v>
+        <v> GRE_making_use_of_our_islands_cyprus_tt: "Dieser Schwerpunkt hat eine größere Wirkung, wenn auch §Y§Y Zypern §!§!  kontrolliert wird."</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11823,11 +11823,11 @@
       </c>
       <c r="C263" s="1" t="str">
         <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v> GRE_abandon_the_greek_turkish_naval_treaty_tt: "Wenn wir uns politisch nach §YGroßbritannien§! oder §YDeutschland§! ausrichten, können wir einige unserer alten §Yschweren Schiffe§! erneut bauen.\n"</v>
+        <v> GRE_abandon_the_greek_turkish_naval_treaty_tt: "Wenn wir uns politisch nach §Y§Y Großbritannien §!§!  oder §Y§Y Deutschland §!§!  ausrichten, können wir einige unserer alten §Y§Y schweren Schiffe §!§!  erneut bauen.\n"</v>
       </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
-        <v> GRE_abandon_the_greek_turkish_naval_treaty_tt: "Wenn wir uns politisch nach §YGroßbritannien§! oder §YDeutschland§! ausrichten, können wir einige unserer alten §Yschweren Schiffe§! erneut bauen.\n"</v>
+        <v> GRE_abandon_the_greek_turkish_naval_treaty_tt: "Wenn wir uns politisch nach §Y§Y Großbritannien §!§!  oder §Y§Y Deutschland §!§!  ausrichten, können wir einige unserer alten §Y§Y schweren Schiffe §!§!  erneut bauen.\n"</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12255,11 +12255,11 @@
       </c>
       <c r="C290" s="1" t="str">
         <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v> GRE_mountain_training_effect: "Ermöglicht §HAusbildung in Gebirgskriegsführung§!\n§HInfanterie\n    Gebirge§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+5%§!\n§HMarineinfanterie\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n§HGebirgsjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+10%§!\n§HFallschirmjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n"</v>
+        <v> GRE_mountain_training_effect: "Ermöglicht §H§H Ausbildung in Gebirgskriegsführung §!§! \n§H§H Infanterie\n    Gebirge §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n§H§H Marineinfanterie\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Gebirgsjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Fallschirmjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n"</v>
       </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
-        <v> GRE_mountain_training_effect: "Ermöglicht §HAusbildung in Gebirgskriegsführung§!\n§HInfanterie\n    Gebirge§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+5%§!\n§HMarineinfanterie\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n§HGebirgsjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Verteidigung: §G+5%§!\n      Bewegung: §G+10%§!\n§HFallschirmjäger\n    Gebirge§!\n      Angriff: §G+5%§!\n      Bewegung: §G+10%§!\n"</v>
+        <v> GRE_mountain_training_effect: "Ermöglicht §H§H Ausbildung in Gebirgskriegsführung §!§! \n§H§H Infanterie\n    Gebirge §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n§H§H Marineinfanterie\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Gebirgsjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Verteidigung: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n§H§H Fallschirmjäger\n    Gebirge §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +10% §!§! \n"</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12431,11 +12431,11 @@
       </c>
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> TUR_the_montreux_convention_tt: "Wir berufen eine §YKonkvention§! ein und erklären unsere Absicht, die §YDardanellen§! und den §YBosporus§! zu remilitarisieren. Wir sollten uns auf Proteste seitens der §YSowjetunion§! einstellen."</v>
+        <v> TUR_the_montreux_convention_tt: "Wir berufen eine §Y§Y Konkvention §!§!  ein und erklären unsere Absicht, die §Y§Y Dardanellen §!§!  und den §Y§Y Bosporus §!§!  zu remilitarisieren. Wir sollten uns auf Proteste seitens der §Y§Y Sowjetunion §!§!  einstellen."</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
-        <v> TUR_the_montreux_convention_tt: "Wir berufen eine §YKonkvention§! ein und erklären unsere Absicht, die §YDardanellen§! und den §YBosporus§! zu remilitarisieren. Wir sollten uns auf Proteste seitens der §YSowjetunion§! einstellen."</v>
+        <v> TUR_the_montreux_convention_tt: "Wir berufen eine §Y§Y Konkvention §!§!  ein und erklären unsere Absicht, die §Y§Y Dardanellen §!§!  und den §Y§Y Bosporus §!§!  zu remilitarisieren. Wir sollten uns auf Proteste seitens der §Y§Y Sowjetunion §!§!  einstellen."</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12479,11 +12479,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> TUR_sanayiciler_liberals_tt: "\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres liberalen Wirtschaftsmodells günstiger."</v>
+        <v> TUR_sanayiciler_liberals_tt: "\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres liberalen Wirtschaftsmodells günstiger."</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
-        <v> TUR_sanayiciler_liberals_tt: "\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres liberalen Wirtschaftsmodells günstiger."</v>
+        <v> TUR_sanayiciler_liberals_tt: "\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres liberalen Wirtschaftsmodells günstiger."</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12559,11 +12559,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v> TUR_privatize_the_anadolu_agency_tt: "Entfernt die Entscheidung §YDie Pressezensur einrichten§!."</v>
+        <v> TUR_privatize_the_anadolu_agency_tt: "Entfernt die Entscheidung §Y§Y Die Pressezensur einrichten §!§! ."</v>
       </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
-        <v> TUR_privatize_the_anadolu_agency_tt: "Entfernt die Entscheidung §YDie Pressezensur einrichten§!."</v>
+        <v> TUR_privatize_the_anadolu_agency_tt: "Entfernt die Entscheidung §Y§Y Die Pressezensur einrichten §!§! ."</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12815,11 +12815,11 @@
       </c>
       <c r="C325" s="1" t="str">
         <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v> TUR_unlock_reconciliation_occupation_law_tt: "Schaltet Besatzungsfrecht frei: §YVersöhnung§!."</v>
+        <v> TUR_unlock_reconciliation_occupation_law_tt: "Schaltet Besatzungsfrecht frei: §Y§Y Versöhnung §!§! ."</v>
       </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
-        <v> TUR_unlock_reconciliation_occupation_law_tt: "Schaltet Besatzungsfrecht frei: §YVersöhnung§!."</v>
+        <v> TUR_unlock_reconciliation_occupation_law_tt: "Schaltet Besatzungsfrecht frei: §Y§Y Versöhnung §!§! ."</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12975,11 +12975,11 @@
       </c>
       <c r="C335" s="1" t="str">
         <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v> TUR_civil_war_tt: "§RDurch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt.§!"</v>
+        <v> TUR_civil_war_tt: "§R§R Durch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt. §!§! "</v>
       </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
-        <v> TUR_civil_war_tt: "§RDurch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt.§!"</v>
+        <v> TUR_civil_war_tt: "§R§R Durch die Säuberung der Kemalisten aus unseren Streitkräften wird ein Bürgerkrieg ausbrechen. Die Stärke unserer Ausgangsposition hängt davon ab, wie stark die Islamisten im Binnenland sind und ob wir unsere Streitkräfte reformiert haben oder nicht. Kurdistan spaltet sich ab und kämpft für seine Freiheit, wenn die Stabilität bei Abschluss dieses Schwerpunkts unter 60% liegt. §!§! "</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13023,11 +13023,11 @@
       </c>
       <c r="C338" s="1" t="str">
         <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v> TUR_sanayiciler_tt: "Durch den Einsatz von §YPolitischer Macht§! und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §YZivilfabriken§! und §YMilitärfabriken§! für die Nutzung durch den Staat zu investieren."</v>
+        <v> TUR_sanayiciler_tt: "Durch den Einsatz von §Y§Y Politischer Macht §!§!  und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §Y§Y Zivilfabriken §!§!  und §Y§Y Militärfabriken §!§!  für die Nutzung durch den Staat zu investieren."</v>
       </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
-        <v> TUR_sanayiciler_tt: "Durch den Einsatz von §YPolitischer Macht§! und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §YZivilfabriken§! und §YMilitärfabriken§! für die Nutzung durch den Staat zu investieren."</v>
+        <v> TUR_sanayiciler_tt: "Durch den Einsatz von §Y§Y Politischer Macht §!§!  und anderen uns zur Verfügung stehenden Mitteln können wir unsere aufkeimende Klasse von Industriellen dazu ermächtigen, ihre Ressourcen in den Bau von §Y§Y Zivilfabriken §!§!  und §Y§Y Militärfabriken §!§!  für die Nutzung durch den Staat zu investieren."</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13071,11 +13071,11 @@
       </c>
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> TUR_debt_council_nationalized_tt: "Der §YSchuldenrat§! kontrolliert die Schulden der §Y[TUR.GetNameDef]§! nicht länger."</v>
+        <v> TUR_debt_council_nationalized_tt: "Der §Y§Y Schuldenrat §!§!  kontrolliert die Schulden der §Y§Y [TUR.GetNameDef] §!§!  nicht länger."</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
-        <v> TUR_debt_council_nationalized_tt: "Der §YSchuldenrat§! kontrolliert die Schulden der §Y[TUR.GetNameDef]§! nicht länger."</v>
+        <v> TUR_debt_council_nationalized_tt: "Der §Y§Y Schuldenrat §!§!  kontrolliert die Schulden der §Y§Y [TUR.GetNameDef] §!§!  nicht länger."</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13119,11 +13119,11 @@
       </c>
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> TUR_foreign_capital_tt: "Je besser unsere Beziehung zu den alten §YGroßmächten Europas§! und den §YUSA§!, desto mehr Optionen für §YInvestitionen§! können wir bezahlen."</v>
+        <v> TUR_foreign_capital_tt: "Je besser unsere Beziehung zu den alten §Y§Y Großmächten Europas §!§!  und den §Y§Y USA §!§! , desto mehr Optionen für §Y§Y Investitionen §!§!  können wir bezahlen."</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
-        <v> TUR_foreign_capital_tt: "Je besser unsere Beziehung zu den alten §YGroßmächten Europas§! und den §YUSA§!, desto mehr Optionen für §YInvestitionen§! können wir bezahlen."</v>
+        <v> TUR_foreign_capital_tt: "Je besser unsere Beziehung zu den alten §Y§Y Großmächten Europas §!§!  und den §Y§Y USA §!§! , desto mehr Optionen für §Y§Y Investitionen §!§!  können wir bezahlen."</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13199,11 +13199,11 @@
       </c>
       <c r="C349" s="1" t="str">
         <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v> TUR_choices_will_decide_legacy_tt: "§YMustafa Kemal Atatürk§! hat lange den Wandel der §Y[ROOT.GetNameDef]§! von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §YAtatürks§! gerecht werden."</v>
+        <v> TUR_choices_will_decide_legacy_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  hat lange den Wandel der §Y§Y [ROOT.GetNameDef] §!§!  von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §Y§Y Atatürks §!§!  gerecht werden."</v>
       </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
-        <v> TUR_choices_will_decide_legacy_tt: "§YMustafa Kemal Atatürk§! hat lange den Wandel der §Y[ROOT.GetNameDef]§! von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §YAtatürks§! gerecht werden."</v>
+        <v> TUR_choices_will_decide_legacy_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  hat lange den Wandel der §Y§Y [ROOT.GetNameDef] §!§!  von einem autoritären Einparteienstaat zu einer liberalen Mehrparteiendemokratie propagiert. Unsere Entscheidungen, in welche ideologische Richtung, wir das Land steuern wollen, werden zeigen, wie sehr wir den Idealen §Y§Y Atatürks §!§!  gerecht werden."</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13327,11 +13327,11 @@
       </c>
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> TUR_sanayiciler_etatism_tt: "\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres etatistischen Wirtschaftsmodells teurer."</v>
+        <v> TUR_sanayiciler_etatism_tt: "\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres etatistischen Wirtschaftsmodells teurer."</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
-        <v> TUR_sanayiciler_etatism_tt: "\nDie Entscheidungen §YSanayiciler-Industrieprojekte§! sind wegen unseres etatistischen Wirtschaftsmodells teurer."</v>
+        <v> TUR_sanayiciler_etatism_tt: "\nDie Entscheidungen §Y§Y Sanayiciler-Industrieprojekte §!§!  sind wegen unseres etatistischen Wirtschaftsmodells teurer."</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13535,11 +13535,11 @@
       </c>
       <c r="C370" s="1" t="str">
         <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v> TUR_kemalist_state_targets_tt: "Zwei neutrale Staaten werden §Ykemalistisch§!\n"</v>
+        <v> TUR_kemalist_state_targets_tt: "Zwei neutrale Staaten werden §Y§Y kemalistisch §!§! \n"</v>
       </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
-        <v> TUR_kemalist_state_targets_tt: "Zwei neutrale Staaten werden §Ykemalistisch§!\n"</v>
+        <v> TUR_kemalist_state_targets_tt: "Zwei neutrale Staaten werden §Y§Y kemalistisch §!§! \n"</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,11 +13775,11 @@
       </c>
       <c r="C385" s="1" t="str">
         <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v> TUR_kemalist_officers_made_hostile_tt: "§RDie kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein.§!"</v>
+        <v> TUR_kemalist_officers_made_hostile_tt: "§R§R Die kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein. §!§! "</v>
       </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
-        <v> TUR_kemalist_officers_made_hostile_tt: "§RDie kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein.§!"</v>
+        <v> TUR_kemalist_officers_made_hostile_tt: "§R§R Die kemalistischen Offiziere werden äußerst verärgert über den Kurs der Regierung sein. §!§! "</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13855,11 +13855,11 @@
       </c>
       <c r="C390" s="1" t="str">
         <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v> TUR_kemalism_and_the_modern_movement_tt: "Die Meinung aller §Yfaschistischen§! Länder in §YEuropa§! zu [ROOT.GetNameDef] wird um §G+25§! erhöht."</v>
+        <v> TUR_kemalism_and_the_modern_movement_tt: "Die Meinung aller §Y§Y faschistischen §!§!  Länder in §Y§Y Europa §!§!  zu [ROOT.GetNameDef] wird um §G§G +25 §!§!  erhöht."</v>
       </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
-        <v> TUR_kemalism_and_the_modern_movement_tt: "Die Meinung aller §Yfaschistischen§! Länder in §YEuropa§! zu [ROOT.GetNameDef] wird um §G+25§! erhöht."</v>
+        <v> TUR_kemalism_and_the_modern_movement_tt: "Die Meinung aller §Y§Y faschistischen §!§!  Länder in §Y§Y Europa §!§!  zu [ROOT.GetNameDef] wird um §G§G +25 §!§!  erhöht."</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13935,11 +13935,11 @@
       </c>
       <c r="C395" s="1" t="str">
         <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v> TUR_restack_the_officer_corps_tt: "Die §Ykemalistischen Offiziere§! werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§RWenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren!§!"</v>
+        <v> TUR_restack_the_officer_corps_tt: "Die §Y§Y kemalistischen Offiziere §!§!  werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§R§R Wenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren! §!§! "</v>
       </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
-        <v> TUR_restack_the_officer_corps_tt: "Die §Ykemalistischen Offiziere§! werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§RWenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren!§!"</v>
+        <v> TUR_restack_the_officer_corps_tt: "Die §Y§Y kemalistischen Offiziere §!§!  werden neu organisiert, damit sie den Wünschen der Regierung gegenüber aufgeschlossener sind. \n§R§R Wenn das Land unter 50% Stabilität liegt und die kemalistischen Offiziere viel Macht haben, ist davon auszugehen, dass sie gegen die Regierung rebellieren! §!§! "</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,11 +14015,11 @@
       </c>
       <c r="C400" s="1" t="str">
         <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v> TUR_fatherland_first_tt: "Wir werden an die £faction_tur_traditionalist §YTraditionalisten§!, die £faction_tur_kurdish §YKurden§! und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert."</v>
+        <v> TUR_fatherland_first_tt: "Wir werden an die £faction_tur_traditionalist §Y§Y Traditionalisten §!§! , die £faction_tur_kurdish §Y§Y Kurden §!§!  und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert."</v>
       </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
-        <v> TUR_fatherland_first_tt: "Wir werden an die £faction_tur_traditionalist §YTraditionalisten§!, die £faction_tur_kurdish §YKurden§! und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert."</v>
+        <v> TUR_fatherland_first_tt: "Wir werden an die £faction_tur_traditionalist §Y§Y Traditionalisten §!§! , die £faction_tur_kurdish §Y§Y Kurden §!§!  und die anderen benachteiligten Gruppen in unserer Nation appellieren, sich vereint hinter eine Regierung zu stellen, die sie alle repräsentiert."</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14095,11 +14095,11 @@
       </c>
       <c r="C405" s="1" t="str">
         <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v> TUR_pontic_redoubt_trabzon_tt: "Fügt §Y7 Landbefestigungen§! entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_trabzon_tt: "Fügt §Y§Y 7 Landbefestigungen §!§!  entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
       </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
-        <v> TUR_pontic_redoubt_trabzon_tt: "Fügt §Y7 Landbefestigungen§! entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_trabzon_tt: "Fügt §Y§Y 7 Landbefestigungen §!§!  entlang des Flusses Çoruh in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14111,11 +14111,11 @@
       </c>
       <c r="C406" s="1" t="str">
         <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v> TUR_pontic_redoubt_van_tt: "Fügt §Y6 Landbefestigungen§! entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_van_tt: "Fügt §Y§Y 6 Landbefestigungen §!§!  entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
       </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
-        <v> TUR_pontic_redoubt_van_tt: "Fügt §Y6 Landbefestigungen§! entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_van_tt: "Fügt §Y§Y 6 Landbefestigungen §!§!  entlang des Flusses Kars in der Nähe der [SOV.GetAdjective]en Grenze hinzu.\n"</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14127,11 +14127,11 @@
       </c>
       <c r="C407" s="1" t="str">
         <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v> TUR_pontic_redoubt_erzurum_tt: "Fügt §Y3 Landbefestigungen§! in der Stadt Erzurum hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_erzurum_tt: "Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt Erzurum hinzu.\n"</v>
       </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
-        <v> TUR_pontic_redoubt_erzurum_tt: "Fügt §Y3 Landbefestigungen§! in der Stadt Erzurum hinzu.\n"</v>
+        <v> TUR_pontic_redoubt_erzurum_tt: "Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt Erzurum hinzu.\n"</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14559,11 +14559,11 @@
       </c>
       <c r="C434" s="1" t="str">
         <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v> TUR_kemalists_purged_tt: "Entfernt alle £faction_tur_kemalist §Ykemalistischen§! Staatsmodifikatoren."</v>
+        <v> TUR_kemalists_purged_tt: "Entfernt alle £faction_tur_kemalist §Y§Y kemalistischen §!§!  Staatsmodifikatoren."</v>
       </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
-        <v> TUR_kemalists_purged_tt: "Entfernt alle £faction_tur_kemalist §Ykemalistischen§! Staatsmodifikatoren."</v>
+        <v> TUR_kemalists_purged_tt: "Entfernt alle £faction_tur_kemalist §Y§Y kemalistischen §!§!  Staatsmodifikatoren."</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14863,11 +14863,11 @@
       </c>
       <c r="C453" s="1" t="str">
         <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v> TUR_saadabad_pact_faction_tt: "Wir werden alle Unterzeichner des §YSaadabad-Pakts§! in ein formelles Bündnis einladen."</v>
+        <v> TUR_saadabad_pact_faction_tt: "Wir werden alle Unterzeichner des §Y§Y Saadabad-Pakts §!§!  in ein formelles Bündnis einladen."</v>
       </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
-        <v> TUR_saadabad_pact_faction_tt: "Wir werden alle Unterzeichner des §YSaadabad-Pakts§! in ein formelles Bündnis einladen."</v>
+        <v> TUR_saadabad_pact_faction_tt: "Wir werden alle Unterzeichner des §Y§Y Saadabad-Pakts §!§!  in ein formelles Bündnis einladen."</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15007,11 +15007,11 @@
       </c>
       <c r="C462" s="1" t="str">
         <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v> TUR_unlock_camelry_effect_tt: "Technologie hinzufügen: §YKamelreiter§!."</v>
+        <v> TUR_unlock_camelry_effect_tt: "Technologie hinzufügen: §Y§Y Kamelreiter §!§! ."</v>
       </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
-        <v> TUR_unlock_camelry_effect_tt: "Technologie hinzufügen: §YKamelreiter§!."</v>
+        <v> TUR_unlock_camelry_effect_tt: "Technologie hinzufügen: §Y§Y Kamelreiter §!§! ."</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15311,11 +15311,11 @@
       </c>
       <c r="C481" s="1" t="str">
         <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v> TUR_balkan_defense_council_tt: "Nachdem der §YBalkanpakt§! zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen."</v>
+        <v> TUR_balkan_defense_council_tt: "Nachdem der §Y§Y Balkanpakt §!§!  zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen."</v>
       </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
-        <v> TUR_balkan_defense_council_tt: "Nachdem der §YBalkanpakt§! zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen."</v>
+        <v> TUR_balkan_defense_council_tt: "Nachdem der §Y§Y Balkanpakt §!§!  zu einem Bündnis ratifiziert wurde, können wir uns abstimmen, wie wir uns am besten gegen ausländische Aggression verteidigen."</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15391,11 +15391,11 @@
       </c>
       <c r="C486" s="1" t="str">
         <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v> TUR_united_against_imperialism_tt: "Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §YBalkanpakts§!: §G10%§!.\n"</v>
+        <v> TUR_united_against_imperialism_tt: "Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §Y§Y Balkanpakts §!§! : §G§G 10% §!§! .\n"</v>
       </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
-        <v> TUR_united_against_imperialism_tt: "Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §YBalkanpakts§!: §G10%§!.\n"</v>
+        <v> TUR_united_against_imperialism_tt: "Änderung in der Beliebtheit von Demokratie oder Neutral für Länder des §Y§Y Balkanpakts §!§! : §G§G 10% §!§! .\n"</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15535,11 +15535,11 @@
       </c>
       <c r="C495" s="1" t="str">
         <f aca="false">A495 &amp;" " &amp;"""" &amp;B495 &amp;""""</f>
-        <v> TUR_connect_capitals_greece_tt: "Nachdem §YGriechenland§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_greece_tt: "Nachdem §Y§Y Griechenland §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
       <c r="D495" s="1" t="str">
         <f aca="false">IF(ISBLANK(A495),"",C495)</f>
-        <v> TUR_connect_capitals_greece_tt: "Nachdem §YGriechenland§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_greece_tt: "Nachdem §Y§Y Griechenland §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15551,11 +15551,11 @@
       </c>
       <c r="C496" s="1" t="str">
         <f aca="false">A496 &amp;" " &amp;"""" &amp;B496 &amp;""""</f>
-        <v> TUR_connect_capitals_romania_tt: "Nachdem §YRumänien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_romania_tt: "Nachdem §Y§Y Rumänien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
       <c r="D496" s="1" t="str">
         <f aca="false">IF(ISBLANK(A496),"",C496)</f>
-        <v> TUR_connect_capitals_romania_tt: "Nachdem §YRumänien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_romania_tt: "Nachdem §Y§Y Rumänien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15567,11 +15567,11 @@
       </c>
       <c r="C497" s="1" t="str">
         <f aca="false">A497 &amp;" " &amp;"""" &amp;B497 &amp;""""</f>
-        <v> TUR_connect_capitals_yugoslavia_tt: "Nachdem §YJugoslawien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_yugoslavia_tt: "Nachdem §Y§Y Jugoslawien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
       <c r="D497" s="1" t="str">
         <f aca="false">IF(ISBLANK(A497),"",C497)</f>
-        <v> TUR_connect_capitals_yugoslavia_tt: "Nachdem §YJugoslawien§! aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
+        <v> TUR_connect_capitals_yugoslavia_tt: "Nachdem §Y§Y Jugoslawien §!§!  aus eigenem Antrieb heraus Infrastrukturprojekte angestoßen hat, erhält es zusätzliche Infrastruktur."</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15615,11 +15615,11 @@
       </c>
       <c r="C500" s="1" t="str">
         <f aca="false">A500 &amp;" " &amp;"""" &amp;B500 &amp;""""</f>
-        <v> TUR_fortify_the_south_tt: "Fügt §Y2 Landbefestigungen§! an jeder Überquerung des §Y[164.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_south_tt: "Fügt §Y§Y 2 Landbefestigungen §!§!  an jeder Überquerung des §Y§Y [164.GetName] §!§!  hinzu.\n"</v>
       </c>
       <c r="D500" s="1" t="str">
         <f aca="false">IF(ISBLANK(A500),"",C500)</f>
-        <v> TUR_fortify_the_south_tt: "Fügt §Y2 Landbefestigungen§! an jeder Überquerung des §Y[164.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_south_tt: "Fügt §Y§Y 2 Landbefestigungen §!§!  an jeder Überquerung des §Y§Y [164.GetName] §!§!  hinzu.\n"</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15631,11 +15631,11 @@
       </c>
       <c r="C501" s="1" t="str">
         <f aca="false">A501 &amp;" " &amp;"""" &amp;B501 &amp;""""</f>
-        <v> TUR_fortify_the_north_tt: "Fügt eine Verteidigungslinie aus §YLandbefestigungen§! in §Y[354.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_north_tt: "Fügt eine Verteidigungslinie aus §Y§Y Landbefestigungen §!§!  in §Y§Y [354.GetName] §!§!  hinzu.\n"</v>
       </c>
       <c r="D501" s="1" t="str">
         <f aca="false">IF(ISBLANK(A501),"",C501)</f>
-        <v> TUR_fortify_the_north_tt: "Fügt eine Verteidigungslinie aus §YLandbefestigungen§! in §Y[354.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_north_tt: "Fügt eine Verteidigungslinie aus §Y§Y Landbefestigungen §!§!  in §Y§Y [354.GetName] §!§!  hinzu.\n"</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15647,11 +15647,11 @@
       </c>
       <c r="C502" s="1" t="str">
         <f aca="false">A502 &amp;" " &amp;"""" &amp;B502 &amp;""""</f>
-        <v> TUR_fortify_the_east_tt: "Fügt §Y5 Landbefestigungen§! an den östlichen Grenzen von §Y[800.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_east_tt: "Fügt §Y§Y 5 Landbefestigungen §!§!  an den östlichen Grenzen von §Y§Y [800.GetName] §!§!  hinzu.\n"</v>
       </c>
       <c r="D502" s="1" t="str">
         <f aca="false">IF(ISBLANK(A502),"",C502)</f>
-        <v> TUR_fortify_the_east_tt: "Fügt §Y5 Landbefestigungen§! an den östlichen Grenzen von §Y[800.GetName]§! hinzu.\n"</v>
+        <v> TUR_fortify_the_east_tt: "Fügt §Y§Y 5 Landbefestigungen §!§!  an den östlichen Grenzen von §Y§Y [800.GetName] §!§!  hinzu.\n"</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="C529" s="1" t="str">
         <f aca="false">A529 &amp;" " &amp;"""" &amp;B529 &amp;""""</f>
-        <v> TUR_add_medium_tank_technology_tt: "Technologie hinzufügen: §YEinfache mittlere Panzer§!."</v>
+        <v> TUR_add_medium_tank_technology_tt: "Technologie hinzufügen: §Y§Y Einfache mittlere Panzer §!§! ."</v>
       </c>
       <c r="D529" s="1" t="str">
         <f aca="false">IF(ISBLANK(A529),"",C529)</f>
-        <v> TUR_add_medium_tank_technology_tt: "Technologie hinzufügen: §YEinfache mittlere Panzer§!."</v>
+        <v> TUR_add_medium_tank_technology_tt: "Technologie hinzufügen: §Y§Y Einfache mittlere Panzer §!§! ."</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16191,11 +16191,11 @@
       </c>
       <c r="C536" s="1" t="str">
         <f aca="false">A536 &amp;" " &amp;"""" &amp;B536 &amp;""""</f>
-        <v> TUR_raise_opinion_of_america_tt: "Je besser die Meinung der §YUSA§! über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird."</v>
+        <v> TUR_raise_opinion_of_america_tt: "Je besser die Meinung der §Y§Y USA §!§!  über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird."</v>
       </c>
       <c r="D536" s="1" t="str">
         <f aca="false">IF(ISBLANK(A536),"",C536)</f>
-        <v> TUR_raise_opinion_of_america_tt: "Je besser die Meinung der §YUSA§! über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird."</v>
+        <v> TUR_raise_opinion_of_america_tt: "Je besser die Meinung der §Y§Y USA §!§!  über uns, desto höher die Wahrscheinlichkeit, dass die Konzession genehmigt wird."</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16687,11 +16687,11 @@
       </c>
       <c r="C567" s="1" t="str">
         <f aca="false">A567 &amp;" " &amp;"""" &amp;B567 &amp;""""</f>
-        <v> TUR_clodius_agreement_tt: "Jeder Staat, der §Y65§! oder mehr Einheiten §YChrom§! produziert, erhält drei Stufen §YInfrastruktur§! und zwei §YMilitärfabriken§!."</v>
+        <v> TUR_clodius_agreement_tt: "Jeder Staat, der §Y§Y 65 §!§!  oder mehr Einheiten §Y§Y Chrom §!§!  produziert, erhält drei Stufen §Y§Y Infrastruktur §!§!  und zwei §Y§Y Militärfabriken §!§! ."</v>
       </c>
       <c r="D567" s="1" t="str">
         <f aca="false">IF(ISBLANK(A567),"",C567)</f>
-        <v> TUR_clodius_agreement_tt: "Jeder Staat, der §Y65§! oder mehr Einheiten §YChrom§! produziert, erhält drei Stufen §YInfrastruktur§! und zwei §YMilitärfabriken§!."</v>
+        <v> TUR_clodius_agreement_tt: "Jeder Staat, der §Y§Y 65 §!§!  oder mehr Einheiten §Y§Y Chrom §!§!  produziert, erhält drei Stufen §Y§Y Infrastruktur §!§!  und zwei §Y§Y Militärfabriken §!§! ."</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17087,11 +17087,11 @@
       </c>
       <c r="C592" s="1" t="str">
         <f aca="false">A592 &amp;" " &amp;"""" &amp;B592 &amp;""""</f>
-        <v> TUR_fortifying_the_bosporus_istanbul_tt: "Fügt §Y3 Landbefestigungen§! in der Stadt hinzu.\n"</v>
+        <v> TUR_fortifying_the_bosporus_istanbul_tt: "Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt hinzu.\n"</v>
       </c>
       <c r="D592" s="1" t="str">
         <f aca="false">IF(ISBLANK(A592),"",C592)</f>
-        <v> TUR_fortifying_the_bosporus_istanbul_tt: "Fügt §Y3 Landbefestigungen§! in der Stadt hinzu.\n"</v>
+        <v> TUR_fortifying_the_bosporus_istanbul_tt: "Fügt §Y§Y 3 Landbefestigungen §!§!  in der Stadt hinzu.\n"</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17103,11 +17103,11 @@
       </c>
       <c r="C593" s="1" t="str">
         <f aca="false">A593 &amp;" " &amp;"""" &amp;B593 &amp;""""</f>
-        <v> TUR_fortifying_the_bosporus_edirne_tt: "Fügt eine Reihe von §YLandbefestigungen§! der Stufe 2 entlang der §Ytürkischen Meerengen§! hinzu.\n"</v>
+        <v> TUR_fortifying_the_bosporus_edirne_tt: "Fügt eine Reihe von §Y§Y Landbefestigungen §!§!  der Stufe 2 entlang der §Y§Y türkischen Meerengen §!§!  hinzu.\n"</v>
       </c>
       <c r="D593" s="1" t="str">
         <f aca="false">IF(ISBLANK(A593),"",C593)</f>
-        <v> TUR_fortifying_the_bosporus_edirne_tt: "Fügt eine Reihe von §YLandbefestigungen§! der Stufe 2 entlang der §Ytürkischen Meerengen§! hinzu.\n"</v>
+        <v> TUR_fortifying_the_bosporus_edirne_tt: "Fügt eine Reihe von §Y§Y Landbefestigungen §!§!  der Stufe 2 entlang der §Y§Y türkischen Meerengen §!§!  hinzu.\n"</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19327,11 +19327,11 @@
       </c>
       <c r="C732" s="1" t="str">
         <f aca="false">A732 &amp;" " &amp;"""" &amp;B732 &amp;""""</f>
-        <v> TUR_alienate_our_allies_tt: "\n§RDer radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen.§!"</v>
+        <v> TUR_alienate_our_allies_tt: "\n§R§R Der radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen. §!§! "</v>
       </c>
       <c r="D732" s="1" t="str">
         <f aca="false">IF(ISBLANK(A732),"",C732)</f>
-        <v> TUR_alienate_our_allies_tt: "\n§RDer radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen.§!"</v>
+        <v> TUR_alienate_our_allies_tt: "\n§R§R Der radikale Wandel in der Außenpolitik könnte uns und unsere Verbündeten entzweien, besonders, wenn wir anfangen, sie ins Visier zu nehmen. §!§! "</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19823,11 +19823,11 @@
       </c>
       <c r="C763" s="1" t="str">
         <f aca="false">A763 &amp;" " &amp;"""" &amp;B763 &amp;""""</f>
-        <v> BUL_attract_foreign_capitals_dynamic_modifier_tt: "Erhält den Nationalgeist §YAusländische Industrie§! und dadurch (Politischer Machtzuwachs: §G+5%§!, Baugeschwindigkeit: §R-10%§!, Produktionsausstoß: §R-2%§!, £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R-5%§!, £GFX_prod_eff Anstieg der Produktionsleistung: §R-5%§!)"</v>
+        <v> BUL_attract_foreign_capitals_dynamic_modifier_tt: "Erhält den Nationalgeist §Y§Y Ausländische Industrie §!§!  und dadurch (Politischer Machtzuwachs: §G§G +5% §!§! , Baugeschwindigkeit: §R§R -10% §!§! , Produktionsausstoß: §R§R -2% §!§! , £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R§R -5% §!§! , £GFX_prod_eff Anstieg der Produktionsleistung: §R§R -5% §!§! )"</v>
       </c>
       <c r="D763" s="1" t="str">
         <f aca="false">IF(ISBLANK(A763),"",C763)</f>
-        <v> BUL_attract_foreign_capitals_dynamic_modifier_tt: "Erhält den Nationalgeist §YAusländische Industrie§! und dadurch (Politischer Machtzuwachs: §G+5%§!, Baugeschwindigkeit: §R-10%§!, Produktionsausstoß: §R-2%§!, £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R-5%§!, £GFX_prod_eff Anstieg der Produktionsleistung: §R-5%§!)"</v>
+        <v> BUL_attract_foreign_capitals_dynamic_modifier_tt: "Erhält den Nationalgeist §Y§Y Ausländische Industrie §!§!  und dadurch (Politischer Machtzuwachs: §G§G +5% §!§! , Baugeschwindigkeit: §R§R -10% §!§! , Produktionsausstoß: §R§R -2% §!§! , £GFX_prod_eff_cap Produktionsleistungsobergrenze: §R§R -5% §!§! , £GFX_prod_eff Anstieg der Produktionsleistung: §R§R -5% §!§! )"</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19967,11 +19967,11 @@
       </c>
       <c r="C772" s="1" t="str">
         <f aca="false">A772 &amp;" " &amp;"""" &amp;B772 &amp;""""</f>
-        <v> BUL_nationalization_dynamic_modifier_tt: "Nationalgeist §YAusländische Industrie§! entfernen"</v>
+        <v> BUL_nationalization_dynamic_modifier_tt: "Nationalgeist §Y§Y Ausländische Industrie §!§!  entfernen"</v>
       </c>
       <c r="D772" s="1" t="str">
         <f aca="false">IF(ISBLANK(A772),"",C772)</f>
-        <v> BUL_nationalization_dynamic_modifier_tt: "Nationalgeist §YAusländische Industrie§! entfernen"</v>
+        <v> BUL_nationalization_dynamic_modifier_tt: "Nationalgeist §Y§Y Ausländische Industrie §!§!  entfernen"</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19983,11 +19983,11 @@
       </c>
       <c r="C773" s="1" t="str">
         <f aca="false">A773 &amp;" " &amp;"""" &amp;B773 &amp;""""</f>
-        <v> BUL_nationalization_warning_tt: "§RAls Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären!§!"</v>
+        <v> BUL_nationalization_warning_tt: "§R§R Als Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären! §!§! "</v>
       </c>
       <c r="D773" s="1" t="str">
         <f aca="false">IF(ISBLANK(A773),"",C773)</f>
-        <v> BUL_nationalization_warning_tt: "§RAls Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären!§!"</v>
+        <v> BUL_nationalization_warning_tt: "§R§R Als Folge des Nationalismus können ausländische Nationen, die in die bulgarische Industrie investiert haben, entscheiden, ein Handelsembargo gegen unser Land zu verhängen, uns aus dem Bündnis zu werfen oder uns sogar den Krieg zu erklären! §!§! "</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20063,11 +20063,11 @@
       </c>
       <c r="C778" s="1" t="str">
         <f aca="false">A778 &amp;" " &amp;"""" &amp;B778 &amp;""""</f>
-        <v> BUL_utmost_optimization_dynamic_modifier_tt: "§YAusländische Industrie§! modifizieren um\nBaugeschwindigkeit: §G+5%§!\n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G+3%§!\n£GFX_prod_eff Anstieg der Produktionsleistung: §G+3%§!"</v>
+        <v> BUL_utmost_optimization_dynamic_modifier_tt: "§Y§Y Ausländische Industrie §!§!  modifizieren um\nBaugeschwindigkeit: §G§G +5% §!§! \n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G§G +3% §!§! \n£GFX_prod_eff Anstieg der Produktionsleistung: §G§G +3% §!§! "</v>
       </c>
       <c r="D778" s="1" t="str">
         <f aca="false">IF(ISBLANK(A778),"",C778)</f>
-        <v> BUL_utmost_optimization_dynamic_modifier_tt: "§YAusländische Industrie§! modifizieren um\nBaugeschwindigkeit: §G+5%§!\n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G+3%§!\n£GFX_prod_eff Anstieg der Produktionsleistung: §G+3%§!"</v>
+        <v> BUL_utmost_optimization_dynamic_modifier_tt: "§Y§Y Ausländische Industrie §!§!  modifizieren um\nBaugeschwindigkeit: §G§G +5% §!§! \n£GFX_prod_eff_cap Produktionsleistungsobergrenze: §G§G +3% §!§! \n£GFX_prod_eff Anstieg der Produktionsleistung: §G§G +3% §!§! "</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20079,11 +20079,11 @@
       </c>
       <c r="C779" s="1" t="str">
         <f aca="false">A779 &amp;" " &amp;"""" &amp;B779 &amp;""""</f>
-        <v> BUL_utmost_optimization_tt: "Die Auswirkungen ändern sich, wenn der Schwerpunkt §YAusländisches Kapital anlocken§! abgeschlossen wird."</v>
+        <v> BUL_utmost_optimization_tt: "Die Auswirkungen ändern sich, wenn der Schwerpunkt §Y§Y Ausländisches Kapital anlocken §!§!  abgeschlossen wird."</v>
       </c>
       <c r="D779" s="1" t="str">
         <f aca="false">IF(ISBLANK(A779),"",C779)</f>
-        <v> BUL_utmost_optimization_tt: "Die Auswirkungen ändern sich, wenn der Schwerpunkt §YAusländisches Kapital anlocken§! abgeschlossen wird."</v>
+        <v> BUL_utmost_optimization_tt: "Die Auswirkungen ändern sich, wenn der Schwerpunkt §Y§Y Ausländisches Kapital anlocken §!§!  abgeschlossen wird."</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20287,11 +20287,11 @@
       </c>
       <c r="C792" s="1" t="str">
         <f aca="false">A792 &amp;" " &amp;"""" &amp;B792 &amp;""""</f>
-        <v> BUL_uranium_prospecting_no_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §RBulgarien muss Mitglied eines Bündnisses sein.§!"</v>
+        <v> BUL_uranium_prospecting_no_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §R§R Bulgarien muss Mitglied eines Bündnisses sein. §!§! "</v>
       </c>
       <c r="D792" s="1" t="str">
         <f aca="false">IF(ISBLANK(A792),"",C792)</f>
-        <v> BUL_uranium_prospecting_no_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §RBulgarien muss Mitglied eines Bündnisses sein.§!"</v>
+        <v> BUL_uranium_prospecting_no_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses oder der wichtigste verbündete Boni erhält. §R§R Bulgarien muss Mitglied eines Bündnisses sein. §!§! "</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="C793" s="1" t="str">
         <f aca="false">A793 &amp;" " &amp;"""" &amp;B793 &amp;""""</f>
-        <v> BUL_uranium_prospecting_leader_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses Boni erhält."</v>
+        <v> BUL_uranium_prospecting_leader_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses Boni erhält."</v>
       </c>
       <c r="D793" s="1" t="str">
         <f aca="false">IF(ISBLANK(A793),"",C793)</f>
-        <v> BUL_uranium_prospecting_leader_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch der Führer des bulgarischen Bündnisses Boni erhält."</v>
+        <v> BUL_uranium_prospecting_leader_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch der Führer des bulgarischen Bündnisses Boni erhält."</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20319,11 +20319,11 @@
       </c>
       <c r="C794" s="1" t="str">
         <f aca="false">A794 &amp;" " &amp;"""" &amp;B794 &amp;""""</f>
-        <v> BUL_uranium_prospecting_major_ally_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten."</v>
+        <v> BUL_uranium_prospecting_major_ally_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten."</v>
       </c>
       <c r="D794" s="1" t="str">
         <f aca="false">IF(ISBLANK(A794),"",C794)</f>
-        <v> BUL_uranium_prospecting_major_ally_target_tt: "Schaltet Entscheidung frei: §YUrankonzessionsvereinbarungen§!, wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten."</v>
+        <v> BUL_uranium_prospecting_major_ally_target_tt: "Schaltet Entscheidung frei: §Y§Y Urankonzessionsvereinbarungen §!§! , wodurch die wichtigsten Verbündeten Bulgariens Boni erhalten."</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24607,11 +24607,11 @@
       </c>
       <c r="C1062" s="1" t="str">
         <f aca="false">A1062 &amp;" " &amp;"""" &amp;B1062 &amp;""""</f>
-        <v> BUL_approach_germany_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_germany_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken."</v>
       </c>
       <c r="D1062" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1062),"",C1062)</f>
-        <v> BUL_approach_germany_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_germany_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [GER.GetNameDef] und erhöhte Obergrenze für [GER.GetAdjective]e Fabriken."</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24623,11 +24623,11 @@
       </c>
       <c r="C1063" s="1" t="str">
         <f aca="false">A1063 &amp;" " &amp;"""" &amp;B1063 &amp;""""</f>
-        <v> BUL_approach_british_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_british_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken."</v>
       </c>
       <c r="D1063" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1063),"",C1063)</f>
-        <v> BUL_approach_british_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_british_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [ENG.GetNameDef] und erhöhte Obergrenze für [ENG.GetAdjective]e Fabriken."</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24639,11 +24639,11 @@
       </c>
       <c r="C1064" s="1" t="str">
         <f aca="false">A1064 &amp;" " &amp;"""" &amp;B1064 &amp;""""</f>
-        <v> BUL_approach_soviet_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_soviet_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken."</v>
       </c>
       <c r="D1064" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1064),"",C1064)</f>
-        <v> BUL_approach_soviet_foreign_industry_tt: "Verringerte Entscheidungskosten für §YVerträge mit dem Ausland§! mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken."</v>
+        <v> BUL_approach_soviet_foreign_industry_tt: "Verringerte Entscheidungskosten für §Y§Y Verträge mit dem Ausland §!§!  mit [SOV.GetNameDef] und erhöhte Obergrenze für [SOV.GetAdjective]e Fabriken."</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25119,11 +25119,11 @@
       </c>
       <c r="C1094" s="1" t="str">
         <f aca="false">A1094 &amp;" " &amp;"""" &amp;B1094 &amp;""""</f>
-        <v> BUL_the_spanish_struggle_tt: "§YDer Leiter der Luftwaffe§!, §YSachari Sachariew§!, wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §RErfordert die Entsendung von Freiwilligen an das §! §Y[GetSpanishRepublicFlag]Republikanische Spanien§!."</v>
+        <v> BUL_the_spanish_struggle_tt: "§Y§Y Der Leiter der Luftwaffe §!§! , §Y§Y Sachari Sachariew §!§! , wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §R§R Erfordert die Entsendung von Freiwilligen an das  §!§!  §Y§Y [GetSpanishRepublicFlag]Republikanische Spanien §!§! ."</v>
       </c>
       <c r="D1094" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1094),"",C1094)</f>
-        <v> BUL_the_spanish_struggle_tt: "§YDer Leiter der Luftwaffe§!, §YSachari Sachariew§!, wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §RErfordert die Entsendung von Freiwilligen an das §! §Y[GetSpanishRepublicFlag]Republikanische Spanien§!."</v>
+        <v> BUL_the_spanish_struggle_tt: "§Y§Y Der Leiter der Luftwaffe §!§! , §Y§Y Sachari Sachariew §!§! , wird als Jagdpilot des bulgarischen Freiwilligengeschwaders in den Spanischen Bürgerkrieg geschickt. §R§R Erfordert die Entsendung von Freiwilligen an das  §!§!  §Y§Y [GetSpanishRepublicFlag]Republikanische Spanien §!§! ."</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25180,11 +25180,11 @@
       </c>
       <c r="C1098" s="1" t="str">
         <f aca="false">A1098 &amp;" " &amp;"""" &amp;B1098 &amp;""""</f>
-        <v> BUL_potential_civil_war_low_requirement_tt: "§RWenn§! die §YStabilität§! §Runter§! §Y30%§! §Rliegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg!§!"</v>
+        <v> BUL_potential_civil_war_low_requirement_tt: "§R§R Wenn §!§!  die §Y§Y Stabilität §!§!  §R§R unter §!§!  §Y§Y 30% §!§!  §R§R liegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg! §!§! "</v>
       </c>
       <c r="D1098" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1098),"",C1098)</f>
-        <v> BUL_potential_civil_war_low_requirement_tt: "§RWenn§! die §YStabilität§! §Runter§! §Y30%§! §Rliegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg!§!"</v>
+        <v> BUL_potential_civil_war_low_requirement_tt: "§R§R Wenn §!§!  die §Y§Y Stabilität §!§!  §R§R unter §!§!  §Y§Y 30% §!§!  §R§R liegt, wenn dieser Schwerpunkt abgeschlossen wird, beginnt ein Bürgerkrieg! §!§! "</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25196,11 +25196,11 @@
       </c>
       <c r="C1099" s="1" t="str">
         <f aca="false">A1099 &amp;" " &amp;"""" &amp;B1099 &amp;""""</f>
-        <v> BUL_the_fatherland_front_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y50%§! "</v>
+        <v> BUL_the_fatherland_front_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y§Y 50% §!§!  "</v>
       </c>
       <c r="D1099" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1099),"",C1099)</f>
-        <v> BUL_the_fatherland_front_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y50%§! "</v>
+        <v> BUL_the_fatherland_front_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y§Y 50% §!§!  "</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25212,11 +25212,11 @@
       </c>
       <c r="C1100" s="1" t="str">
         <f aca="false">A1100 &amp;" " &amp;"""" &amp;B1100 &amp;""""</f>
-        <v> BUL_the_fatherland_front_zveno_support_requirement_tt: "Fraktionsloyalität von [GetZvenoName] über §Y50%§! "</v>
+        <v> BUL_the_fatherland_front_zveno_support_requirement_tt: "Fraktionsloyalität von [GetZvenoName] über §Y§Y 50% §!§!  "</v>
       </c>
       <c r="D1100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1100),"",C1100)</f>
-        <v> BUL_the_fatherland_front_zveno_support_requirement_tt: "Fraktionsloyalität von [GetZvenoName] über §Y50%§! "</v>
+        <v> BUL_the_fatherland_front_zveno_support_requirement_tt: "Fraktionsloyalität von [GetZvenoName] über §Y§Y 50% §!§!  "</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25244,11 +25244,11 @@
       </c>
       <c r="C1102" s="1" t="str">
         <f aca="false">A1102 &amp;" " &amp;"""" &amp;B1102 &amp;""""</f>
-        <v> BUL_the_peoples_republic_of_bulgaria_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y50%§! "</v>
+        <v> BUL_the_peoples_republic_of_bulgaria_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 50% §!§!  "</v>
       </c>
       <c r="D1102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1102),"",C1102)</f>
-        <v> BUL_the_peoples_republic_of_bulgaria_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y50%§! "</v>
+        <v> BUL_the_peoples_republic_of_bulgaria_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 50% §!§!  "</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25276,11 +25276,11 @@
       </c>
       <c r="C1104" s="1" t="str">
         <f aca="false">A1104 &amp;" " &amp;"""" &amp;B1104 &amp;""""</f>
-        <v> BUL_collectivization_of_the_countryside_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y70%§! "</v>
+        <v> BUL_collectivization_of_the_countryside_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 70% §!§!  "</v>
       </c>
       <c r="D1104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1104),"",C1104)</f>
-        <v> BUL_collectivization_of_the_countryside_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y70%§! "</v>
+        <v> BUL_collectivization_of_the_countryside_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 70% §!§!  "</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25292,11 +25292,11 @@
       </c>
       <c r="C1105" s="1" t="str">
         <f aca="false">A1105 &amp;" " &amp;"""" &amp;B1105 &amp;""""</f>
-        <v> BUL_soviet_bulgarian_war_industry_research_sharing_tt: "Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G5%§!."</v>
+        <v> BUL_soviet_bulgarian_war_industry_research_sharing_tt: "Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G§G 5% §!§! ."</v>
       </c>
       <c r="D1105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1105),"",C1105)</f>
-        <v> BUL_soviet_bulgarian_war_industry_research_sharing_tt: "Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G5%§!."</v>
+        <v> BUL_soviet_bulgarian_war_industry_research_sharing_tt: "Forschungsbonus aus Gruppe zum Teilen von Technologie erhöht sich um §G§G 5% §!§! ."</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25308,11 +25308,11 @@
       </c>
       <c r="C1106" s="1" t="str">
         <f aca="false">A1106 &amp;" " &amp;"""" &amp;B1106 &amp;""""</f>
-        <v> BUL_carry_the_revolution_abroad_tt: "Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in sein Bündnis ein'§!."</v>
+        <v> BUL_carry_the_revolution_abroad_tt: "Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in sein Bündnis ein' §!§! ."</v>
       </c>
       <c r="D1106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1106),"",C1106)</f>
-        <v> BUL_carry_the_revolution_abroad_tt: "Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in sein Bündnis ein'§!."</v>
+        <v> BUL_carry_the_revolution_abroad_tt: "Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in sein Bündnis ein' §!§! ."</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25340,11 +25340,11 @@
       </c>
       <c r="C1108" s="1" t="str">
         <f aca="false">A1108 &amp;" " &amp;"""" &amp;B1108 &amp;""""</f>
-        <v> BUL_the_anti_capitalist_fight_wargoal_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße Demokratien in Europa§!."</v>
+        <v> BUL_the_anti_capitalist_fight_wargoal_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große Demokratien in Europa §!§! ."</v>
       </c>
       <c r="D1108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1108),"",C1108)</f>
-        <v> BUL_the_anti_capitalist_fight_wargoal_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße Demokratien in Europa§!."</v>
+        <v> BUL_the_anti_capitalist_fight_wargoal_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große Demokratien in Europa §!§! ."</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25372,11 +25372,11 @@
       </c>
       <c r="C1110" s="1" t="str">
         <f aca="false">A1110 &amp;" " &amp;"""" &amp;B1110 &amp;""""</f>
-        <v> BUL_liberation_of_the_proletariat_tt: "Erhält das Kriegsziel §YStürzen Sie die Regierung§! gegen alle §Yfaschistischen§! oder §Yneutralen§! Nachbarn oder europäischen Großmächte:"</v>
+        <v> BUL_liberation_of_the_proletariat_tt: "Erhält das Kriegsziel §Y§Y Stürzen Sie die Regierung §!§!  gegen alle §Y§Y faschistischen §!§!  oder §Y§Y neutralen §!§!  Nachbarn oder europäischen Großmächte:"</v>
       </c>
       <c r="D1110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1110),"",C1110)</f>
-        <v> BUL_liberation_of_the_proletariat_tt: "Erhält das Kriegsziel §YStürzen Sie die Regierung§! gegen alle §Yfaschistischen§! oder §Yneutralen§! Nachbarn oder europäischen Großmächte:"</v>
+        <v> BUL_liberation_of_the_proletariat_tt: "Erhält das Kriegsziel §Y§Y Stürzen Sie die Regierung §!§!  gegen alle §Y§Y faschistischen §!§!  oder §Y§Y neutralen §!§!  Nachbarn oder europäischen Großmächte:"</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25388,11 +25388,11 @@
       </c>
       <c r="C1111" s="1" t="str">
         <f aca="false">A1111 &amp;" " &amp;"""" &amp;B1111 &amp;""""</f>
-        <v> BUL_condemn_macedonian_organizations_tt: "Schaltet Entscheidungen §YMazedonische Revolutionsgruppen bekämpfen§! frei."</v>
+        <v> BUL_condemn_macedonian_organizations_tt: "Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen bekämpfen §!§!  frei."</v>
       </c>
       <c r="D1111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1111),"",C1111)</f>
-        <v> BUL_condemn_macedonian_organizations_tt: "Schaltet Entscheidungen §YMazedonische Revolutionsgruppen bekämpfen§! frei."</v>
+        <v> BUL_condemn_macedonian_organizations_tt: "Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen bekämpfen §!§!  frei."</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25404,11 +25404,11 @@
       </c>
       <c r="C1112" s="1" t="str">
         <f aca="false">A1112 &amp;" " &amp;"""" &amp;B1112 &amp;""""</f>
-        <v> BUL_support_macedonian_organizations_tt: "Schaltet Entscheidungen §YMazedonische Revolutionsgruppen unterstützen§! frei."</v>
+        <v> BUL_support_macedonian_organizations_tt: "Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen unterstützen §!§!  frei."</v>
       </c>
       <c r="D1112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1112),"",C1112)</f>
-        <v> BUL_support_macedonian_organizations_tt: "Schaltet Entscheidungen §YMazedonische Revolutionsgruppen unterstützen§! frei."</v>
+        <v> BUL_support_macedonian_organizations_tt: "Schaltet Entscheidungen §Y§Y Mazedonische Revolutionsgruppen unterstützen §!§!  frei."</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25532,11 +25532,11 @@
       </c>
       <c r="C1120" s="1" t="str">
         <f aca="false">A1120 &amp;" " &amp;"""" &amp;B1120 &amp;""""</f>
-        <v> BUL_crush_the_communists_no_cooperation_tt: "\n§RHindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen§!."</v>
+        <v> BUL_crush_the_communists_no_cooperation_tt: "\n§R§R Hindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen §!§! ."</v>
       </c>
       <c r="D1120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1120),"",C1120)</f>
-        <v> BUL_crush_the_communists_no_cooperation_tt: "\n§RHindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen§!."</v>
+        <v> BUL_crush_the_communists_no_cooperation_tt: "\n§R§R Hindert die bulgarische Regierung in Zukunft daran, [GetBsName] als Kooperationspartner zu wählen §!§! ."</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25596,11 +25596,11 @@
       </c>
       <c r="C1124" s="1" t="str">
         <f aca="false">A1124 &amp;" " &amp;"""" &amp;B1124 &amp;""""</f>
-        <v> BUL_stability_impact_tt: "Verlust von Stabilität auf Basis von Unterstützung für §YKommunismus§! und §YBeliebtheit§! von [GetBsName]."</v>
+        <v> BUL_stability_impact_tt: "Verlust von Stabilität auf Basis von Unterstützung für §Y§Y Kommunismus §!§!  und §Y§Y Beliebtheit §!§!  von [GetBsName]."</v>
       </c>
       <c r="D1124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1124),"",C1124)</f>
-        <v> BUL_stability_impact_tt: "Verlust von Stabilität auf Basis von Unterstützung für §YKommunismus§! und §YBeliebtheit§! von [GetBsName]."</v>
+        <v> BUL_stability_impact_tt: "Verlust von Stabilität auf Basis von Unterstützung für §Y§Y Kommunismus §!§!  und §Y§Y Beliebtheit §!§!  von [GetBsName]."</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25660,11 +25660,11 @@
       </c>
       <c r="C1128" s="1" t="str">
         <f aca="false">A1128 &amp;" " &amp;"""" &amp;B1128 &amp;""""</f>
-        <v> BUL_united_we_shall_prevail_tt: "[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §YVereinter Balkan§! und damit (Divisionsorganisation: §G+10%§!, Divisionsangriff auf Kerngebiet: §G+15%§!, Divisionsverteidigung auf Kerngebiet: §G+15%§!)."</v>
+        <v> BUL_united_we_shall_prevail_tt: "[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §Y§Y Vereinter Balkan §!§!  und damit (Divisionsorganisation: §G§G +10% §!§! , Divisionsangriff auf Kerngebiet: §G§G +15% §!§! , Divisionsverteidigung auf Kerngebiet: §G§G +15% §!§! )."</v>
       </c>
       <c r="D1128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1128),"",C1128)</f>
-        <v> BUL_united_we_shall_prevail_tt: "[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §YVereinter Balkan§! und damit (Divisionsorganisation: §G+10%§!, Divisionsangriff auf Kerngebiet: §G+15%§!, Divisionsverteidigung auf Kerngebiet: §G+15%§!)."</v>
+        <v> BUL_united_we_shall_prevail_tt: "[BUL.GetFlag][BUL.GetNameDefCap] und alle kommunistischen Verbündeten auf dem Balkan erhalten den Nationalgeist §Y§Y Vereinter Balkan §!§!  und damit (Divisionsorganisation: §G§G +10% §!§! , Divisionsangriff auf Kerngebiet: §G§G +15% §!§! , Divisionsverteidigung auf Kerngebiet: §G§G +15% §!§! )."</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25676,11 +25676,11 @@
       </c>
       <c r="C1129" s="1" t="str">
         <f aca="false">A1129 &amp;" " &amp;"""" &amp;B1129 &amp;""""</f>
-        <v> BUL_balkan_federation_of_socialist_republics_faction_tt: "Erhält das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!."</v>
+        <v> BUL_balkan_federation_of_socialist_republics_faction_tt: "Erhält das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! ."</v>
       </c>
       <c r="D1129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1129),"",C1129)</f>
-        <v> BUL_balkan_federation_of_socialist_republics_faction_tt: "Erhält das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!."</v>
+        <v> BUL_balkan_federation_of_socialist_republics_faction_tt: "Erhält das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! ."</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25692,11 +25692,11 @@
       </c>
       <c r="C1130" s="1" t="str">
         <f aca="false">A1130 &amp;" " &amp;"""" &amp;B1130 &amp;""""</f>
-        <v> BUL_balkan_federation_of_socialist_republics_decisions_tt: "§YDer Traum von der Balkanföderation§! Entscheidungen können nun auch andere Balkanländer als Ziel haben."</v>
+        <v> BUL_balkan_federation_of_socialist_republics_decisions_tt: "§Y§Y Der Traum von der Balkanföderation §!§!  Entscheidungen können nun auch andere Balkanländer als Ziel haben."</v>
       </c>
       <c r="D1130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1130),"",C1130)</f>
-        <v> BUL_balkan_federation_of_socialist_republics_decisions_tt: "§YDer Traum von der Balkanföderation§! Entscheidungen können nun auch andere Balkanländer als Ziel haben."</v>
+        <v> BUL_balkan_federation_of_socialist_republics_decisions_tt: "§Y§Y Der Traum von der Balkanföderation §!§!  Entscheidungen können nun auch andere Balkanländer als Ziel haben."</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25708,11 +25708,11 @@
       </c>
       <c r="C1131" s="1" t="str">
         <f aca="false">A1131 &amp;" " &amp;"""" &amp;B1131 &amp;""""</f>
-        <v> BUL_bury_the_grudges_of_the_past_explanatory_tt: "Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!."</v>
+        <v> BUL_bury_the_grudges_of_the_past_explanatory_tt: "Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! ."</v>
       </c>
       <c r="D1131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1131),"",C1131)</f>
-        <v> BUL_bury_the_grudges_of_the_past_explanatory_tt: "Alle unabhängigen §Ykommunistischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!."</v>
+        <v> BUL_bury_the_grudges_of_the_past_explanatory_tt: "Alle unabhängigen §Y§Y kommunistischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y 'Bulgarien lädt uns in Balkanföderation der Sozialistischen Republiken ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! ."</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25724,11 +25724,11 @@
       </c>
       <c r="C1132" s="1" t="str">
         <f aca="false">A1132 &amp;" " &amp;"""" &amp;B1132 &amp;""""</f>
-        <v> BUL_bury_the_grudges_of_the_past_explanatory_democratic_tt: "Alle unabhängigen §Ydemokratischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!."</v>
+        <v> BUL_bury_the_grudges_of_the_past_explanatory_democratic_tt: "Alle unabhängigen §Y§Y demokratischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! ."</v>
       </c>
       <c r="D1132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1132),"",C1132)</f>
-        <v> BUL_bury_the_grudges_of_the_past_explanatory_democratic_tt: "Alle unabhängigen §Ydemokratischen§! Nationen auf dem Balkan erhalten das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!.\n§RBulgarien gibt alle Gebietsansprüche in diesen Ländern auf§!."</v>
+        <v> BUL_bury_the_grudges_of_the_past_explanatory_democratic_tt: "Alle unabhängigen §Y§Y demokratischen §!§!  Nationen auf dem Balkan erhalten das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! .\n§R§R Bulgarien gibt alle Gebietsansprüche in diesen Ländern auf §!§! ."</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25756,11 +25756,11 @@
       </c>
       <c r="C1134" s="1" t="str">
         <f aca="false">A1134 &amp;" " &amp;"""" &amp;B1134 &amp;""""</f>
-        <v> BUL_bury_the_grudges_of_the_past_no_faction: "[ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e Fraktion"</v>
+        <v> BUL_bury_the_grudges_of_the_past_no_faction: "[ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e Fraktion"</v>
       </c>
       <c r="D1134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1134),"",C1134)</f>
-        <v> BUL_bury_the_grudges_of_the_past_no_faction: "[ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e Fraktion"</v>
+        <v> BUL_bury_the_grudges_of_the_past_no_faction: "[ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e Fraktion"</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25772,11 +25772,11 @@
       </c>
       <c r="C1135" s="1" t="str">
         <f aca="false">A1135 &amp;" " &amp;"""" &amp;B1135 &amp;""""</f>
-        <v> BUL_bury_the_grudges_of_the_past_communist: "die §YBalkanföderation der Sozialistischen Republiken§!"</v>
+        <v> BUL_bury_the_grudges_of_the_past_communist: "die §Y§Y Balkanföderation der Sozialistischen Republiken §!§! "</v>
       </c>
       <c r="D1135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1135),"",C1135)</f>
-        <v> BUL_bury_the_grudges_of_the_past_communist: "die §YBalkanföderation der Sozialistischen Republiken§!"</v>
+        <v> BUL_bury_the_grudges_of_the_past_communist: "die §Y§Y Balkanföderation der Sozialistischen Republiken §!§! "</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25788,11 +25788,11 @@
       </c>
       <c r="C1136" s="1" t="str">
         <f aca="false">A1136 &amp;" " &amp;"""" &amp;B1136 &amp;""""</f>
-        <v> BUL_bury_the_grudges_of_the_past_democratic: "die §YBalkanentente§!"</v>
+        <v> BUL_bury_the_grudges_of_the_past_democratic: "die §Y§Y Balkanentente §!§! "</v>
       </c>
       <c r="D1136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1136),"",C1136)</f>
-        <v> BUL_bury_the_grudges_of_the_past_democratic: "die §YBalkanentente§!"</v>
+        <v> BUL_bury_the_grudges_of_the_past_democratic: "die §Y§Y Balkanentente §!§! "</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25804,11 +25804,11 @@
       </c>
       <c r="C1137" s="1" t="str">
         <f aca="false">A1137 &amp;" " &amp;"""" &amp;B1137 &amp;""""</f>
-        <v> BUL_balkan_trade_union_secretariat_tt: "Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §YBalkan-Gewerkschaftssekretariat§! und damit (Konsumgüterfabriken: §Y-5%§!, Wirtschaftsgesetze-Kosten: §G-35%§!, Handelsgesetze-Kosten: §G-35%§!)."</v>
+        <v> BUL_balkan_trade_union_secretariat_tt: "Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §Y§Y Balkan-Gewerkschaftssekretariat §!§!  und damit (Konsumgüterfabriken: §Y§Y -5% §!§! , Wirtschaftsgesetze-Kosten: §G§G -35% §!§! , Handelsgesetze-Kosten: §G§G -35% §!§! )."</v>
       </c>
       <c r="D1137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1137),"",C1137)</f>
-        <v> BUL_balkan_trade_union_secretariat_tt: "Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §YBalkan-Gewerkschaftssekretariat§! und damit (Konsumgüterfabriken: §Y-5%§!, Wirtschaftsgesetze-Kosten: §G-35%§!, Handelsgesetze-Kosten: §G-35%§!)."</v>
+        <v> BUL_balkan_trade_union_secretariat_tt: "Jede Balkannation, die mit Bulgarien verbündet ist, erhält den Nationalgeist §Y§Y Balkan-Gewerkschaftssekretariat §!§!  und damit (Konsumgüterfabriken: §Y§Y -5% §!§! , Wirtschaftsgesetze-Kosten: §G§G -35% §!§! , Handelsgesetze-Kosten: §G§G -35% §!§! )."</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25820,11 +25820,11 @@
       </c>
       <c r="C1138" s="1" t="str">
         <f aca="false">A1138 &amp;" " &amp;"""" &amp;B1138 &amp;""""</f>
-        <v> BUL_the_unification_of_the_balkans_event_tt: "\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! verbündet sind, erhalten das Ereignis §Y'Vereinigung auf dem Balkan'§!.\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll."</v>
+        <v> BUL_the_unification_of_the_balkans_event_tt: "\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  verbündet sind, erhalten das Ereignis §Y§Y 'Vereinigung auf dem Balkan' §!§! .\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll."</v>
       </c>
       <c r="D1138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1138),"",C1138)</f>
-        <v> BUL_the_unification_of_the_balkans_event_tt: "\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! verbündet sind, erhalten das Ereignis §Y'Vereinigung auf dem Balkan'§!.\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll."</v>
+        <v> BUL_the_unification_of_the_balkans_event_tt: "\nAlle Balkan-Nationen, die mit [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  verbündet sind, erhalten das Ereignis §Y§Y 'Vereinigung auf dem Balkan' §!§! .\nSchaltet Entscheidungen frei, wie mit [TUR.GetAdjective]en Territorien verfahren werden soll."</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25836,11 +25836,11 @@
       </c>
       <c r="C1139" s="1" t="str">
         <f aca="false">A1139 &amp;" " &amp;"""" &amp;B1139 &amp;""""</f>
-        <v> BUL_the_eastern_front_ws_tt: "Gewinn von Basiskriegsunterstützung auf Basis der §YUnterstützung für den Faschismus§!"</v>
+        <v> BUL_the_eastern_front_ws_tt: "Gewinn von Basiskriegsunterstützung auf Basis der §Y§Y Unterstützung für den Faschismus §!§! "</v>
       </c>
       <c r="D1139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1139),"",C1139)</f>
-        <v> BUL_the_eastern_front_ws_tt: "Gewinn von Basiskriegsunterstützung auf Basis der §YUnterstützung für den Faschismus§!"</v>
+        <v> BUL_the_eastern_front_ws_tt: "Gewinn von Basiskriegsunterstützung auf Basis der §Y§Y Unterstützung für den Faschismus §!§! "</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25852,11 +25852,11 @@
       </c>
       <c r="C1140" s="1" t="str">
         <f aca="false">A1140 &amp;" " &amp;"""" &amp;B1140 &amp;""""</f>
-        <v> BUL_the_eastern_front_stab_tt: "Verlust von Stabilität auf Basis der §YUnterstützung für den Kommunismus§!"</v>
+        <v> BUL_the_eastern_front_stab_tt: "Verlust von Stabilität auf Basis der §Y§Y Unterstützung für den Kommunismus §!§! "</v>
       </c>
       <c r="D1140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1140),"",C1140)</f>
-        <v> BUL_the_eastern_front_stab_tt: "Verlust von Stabilität auf Basis der §YUnterstützung für den Kommunismus§!"</v>
+        <v> BUL_the_eastern_front_stab_tt: "Verlust von Stabilität auf Basis der §Y§Y Unterstützung für den Kommunismus §!§! "</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25868,11 +25868,11 @@
       </c>
       <c r="C1141" s="1" t="str">
         <f aca="false">A1141 &amp;" " &amp;"""" &amp;B1141 &amp;""""</f>
-        <v> BUL_total_war_wargoal_expires_tt: "Ablauf des Kriegsziels in: §R180 Tagen§!"</v>
+        <v> BUL_total_war_wargoal_expires_tt: "Ablauf des Kriegsziels in: §R§R 180 Tagen §!§! "</v>
       </c>
       <c r="D1141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1141),"",C1141)</f>
-        <v> BUL_total_war_wargoal_expires_tt: "Ablauf des Kriegsziels in: §R180 Tagen§!"</v>
+        <v> BUL_total_war_wargoal_expires_tt: "Ablauf des Kriegsziels in: §R§R 180 Tagen §!§! "</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25884,11 +25884,11 @@
       </c>
       <c r="C1142" s="1" t="str">
         <f aca="false">A1142 &amp;" " &amp;"""" &amp;B1142 &amp;""""</f>
-        <v> BUL_the_eastern_front_join_war_tt: "§Y[ROOT.GetNameDefCap]§! schließt sich seinen Verbündeten im Krieg gegen die §Y[SOV.GetNameDef]§! an"</v>
+        <v> BUL_the_eastern_front_join_war_tt: "§Y§Y [ROOT.GetNameDefCap] §!§!  schließt sich seinen Verbündeten im Krieg gegen die §Y§Y [SOV.GetNameDef] §!§!  an"</v>
       </c>
       <c r="D1142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1142),"",C1142)</f>
-        <v> BUL_the_eastern_front_join_war_tt: "§Y[ROOT.GetNameDefCap]§! schließt sich seinen Verbündeten im Krieg gegen die §Y[SOV.GetNameDef]§! an"</v>
+        <v> BUL_the_eastern_front_join_war_tt: "§Y§Y [ROOT.GetNameDefCap] §!§!  schließt sich seinen Verbündeten im Krieg gegen die §Y§Y [SOV.GetNameDef] §!§!  an"</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25900,11 +25900,11 @@
       </c>
       <c r="C1143" s="1" t="str">
         <f aca="false">A1143 &amp;" " &amp;"""" &amp;B1143 &amp;""""</f>
-        <v> BUL_the_third_bulgarian_empire_tt: "+ §G1§! Bauplatz, §Y1 Zivilfabrik§! und §Y1 Infrastruktur§! in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden."</v>
+        <v> BUL_the_third_bulgarian_empire_tt: "+ §G§G 1 §!§!  Bauplatz, §Y§Y 1 Zivilfabrik §!§!  und §Y§Y 1 Infrastruktur §!§!  in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden."</v>
       </c>
       <c r="D1143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1143),"",C1143)</f>
-        <v> BUL_the_third_bulgarian_empire_tt: "+ §G1§! Bauplatz, §Y1 Zivilfabrik§! und §Y1 Infrastruktur§! in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden."</v>
+        <v> BUL_the_third_bulgarian_empire_tt: "+ §G§G 1 §!§!  Bauplatz, §Y§Y 1 Zivilfabrik §!§!  und §Y§Y 1 Infrastruktur §!§!  in drei historischen Staaten, die von Bulgarien zurückerobert und zum Kerngebiet gemacht wurden."</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25980,11 +25980,11 @@
       </c>
       <c r="C1148" s="1" t="str">
         <f aca="false">A1148 &amp;" " &amp;"""" &amp;B1148 &amp;""""</f>
-        <v> BUL_join_the_tripartite_pact_warranted_claims_tt: "§GZugesicherte Staaten:§!"</v>
+        <v> BUL_join_the_tripartite_pact_warranted_claims_tt: "§G§G Zugesicherte Staaten: §!§! "</v>
       </c>
       <c r="D1148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1148),"",C1148)</f>
-        <v> BUL_join_the_tripartite_pact_warranted_claims_tt: "§GZugesicherte Staaten:§!"</v>
+        <v> BUL_join_the_tripartite_pact_warranted_claims_tt: "§G§G Zugesicherte Staaten: §!§! "</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25996,11 +25996,11 @@
       </c>
       <c r="C1149" s="1" t="str">
         <f aca="false">A1149 &amp;" " &amp;"""" &amp;B1149 &amp;""""</f>
-        <v> BUL_peaceful_development_tt: "Schaltet Entscheidungen vom Typ §YBesatzung sichern§! frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind."</v>
+        <v> BUL_peaceful_development_tt: "Schaltet Entscheidungen vom Typ §Y§Y Besatzung sichern §!§!  frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind."</v>
       </c>
       <c r="D1149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1149),"",C1149)</f>
-        <v> BUL_peaceful_development_tt: "Schaltet Entscheidungen vom Typ §YBesatzung sichern§! frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind."</v>
+        <v> BUL_peaceful_development_tt: "Schaltet Entscheidungen vom Typ §Y§Y Besatzung sichern §!§!  frei, durch die es möglich wird, die Kontrolle über benachbarte Balkanstaaten zu fordern, die von bulgarischen Verbündeten besetzt sind."</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26012,11 +26012,11 @@
       </c>
       <c r="C1150" s="1" t="str">
         <f aca="false">A1150 &amp;" " &amp;"""" &amp;B1150 &amp;""""</f>
-        <v> BUL_bulgarian_administration_of_the_balkans_cores_tt: "Gewährt Kerngebiete in §Y[106.GetName]§!, §Y[803.GetName]§! und §Y[77.GetName]§!, sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:"</v>
+        <v> BUL_bulgarian_administration_of_the_balkans_cores_tt: "Gewährt Kerngebiete in §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§!  und §Y§Y [77.GetName] §!§! , sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:"</v>
       </c>
       <c r="D1150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1150),"",C1150)</f>
-        <v> BUL_bulgarian_administration_of_the_balkans_cores_tt: "Gewährt Kerngebiete in §Y[106.GetName]§!, §Y[803.GetName]§! und §Y[77.GetName]§!, sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:"</v>
+        <v> BUL_bulgarian_administration_of_the_balkans_cores_tt: "Gewährt Kerngebiete in §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§!  und §Y§Y [77.GetName] §!§! , sofern diese von [ROOT.GetNameDef] kontrolliert werden.\nAktuelle Effekte:"</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26028,11 +26028,11 @@
       </c>
       <c r="C1151" s="1" t="str">
         <f aca="false">A1151 &amp;" " &amp;"""" &amp;B1151 &amp;""""</f>
-        <v> BUL_bulgarian_administration_of_the_balkans_decisions_tt: "Schaltet §YBulgarische Reintegrationskampagne§!-Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen."</v>
+        <v> BUL_bulgarian_administration_of_the_balkans_decisions_tt: "Schaltet §Y§Y Bulgarische Reintegrationskampagne §!§! -Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen."</v>
       </c>
       <c r="D1151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1151),"",C1151)</f>
-        <v> BUL_bulgarian_administration_of_the_balkans_decisions_tt: "Schaltet §YBulgarische Reintegrationskampagne§!-Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen."</v>
+        <v> BUL_bulgarian_administration_of_the_balkans_decisions_tt: "Schaltet §Y§Y Bulgarische Reintegrationskampagne §!§! -Entscheidungen frei, wodurch es möglich wird, Balkanstaaten zu Kerngebiet zu machen."</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26044,11 +26044,11 @@
       </c>
       <c r="C1152" s="1" t="str">
         <f aca="false">A1152 &amp;" " &amp;"""" &amp;B1152 &amp;""""</f>
-        <v> BUL_amend_old_grudges_balkan_targets_tt: "Erhält das Kriegsziel §YAnnektierung§! gegen:"</v>
+        <v> BUL_amend_old_grudges_balkan_targets_tt: "Erhält das Kriegsziel §Y§Y Annektierung §!§!  gegen:"</v>
       </c>
       <c r="D1152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1152),"",C1152)</f>
-        <v> BUL_amend_old_grudges_balkan_targets_tt: "Erhält das Kriegsziel §YAnnektierung§! gegen:"</v>
+        <v> BUL_amend_old_grudges_balkan_targets_tt: "Erhält das Kriegsziel §Y§Y Annektierung §!§!  gegen:"</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26060,11 +26060,11 @@
       </c>
       <c r="C1153" s="1" t="str">
         <f aca="false">A1153 &amp;" " &amp;"""" &amp;B1153 &amp;""""</f>
-        <v> BUL_toppling_giants_wargoal_1_tt: "Erhält das Kriegsziel §YMarionette§! gegen:"</v>
+        <v> BUL_toppling_giants_wargoal_1_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen:"</v>
       </c>
       <c r="D1153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1153),"",C1153)</f>
-        <v> BUL_toppling_giants_wargoal_1_tt: "Erhält das Kriegsziel §YMarionette§! gegen:"</v>
+        <v> BUL_toppling_giants_wargoal_1_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen:"</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26076,11 +26076,11 @@
       </c>
       <c r="C1154" s="1" t="str">
         <f aca="false">A1154 &amp;" " &amp;"""" &amp;B1154 &amp;""""</f>
-        <v> BUL_toppling_giants_wargoal_2_tt: "Erhält das Kriegsziel §YMarionette§! gegen §Yjede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef]§! grenzt."</v>
+        <v> BUL_toppling_giants_wargoal_2_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef] §!§!  grenzt."</v>
       </c>
       <c r="D1154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1154),"",C1154)</f>
-        <v> BUL_toppling_giants_wargoal_2_tt: "Erhält das Kriegsziel §YMarionette§! gegen §Yjede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef]§! grenzt."</v>
+        <v> BUL_toppling_giants_wargoal_2_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede große europäische Nation, die an [ROOT.GetFlag][ROOT.GetNameDef] §!§!  grenzt."</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26092,11 +26092,11 @@
       </c>
       <c r="C1155" s="1" t="str">
         <f aca="false">A1155 &amp;" " &amp;"""" &amp;B1155 &amp;""""</f>
-        <v> BUL_nationalist_propaganda_combo_tt: "Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§YDas Schicksal des Balkans§!' (§Y+365§! Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§YNationalistische Propaganda§!'."</v>
+        <v> BUL_nationalist_propaganda_combo_tt: "Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§Y§Y Das Schicksal des Balkans §!§! ' (§Y§Y +365 §!§!  Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§Y§Y Nationalistische Propaganda §!§! '."</v>
       </c>
       <c r="D1155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1155),"",C1155)</f>
-        <v> BUL_nationalist_propaganda_combo_tt: "Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§YDas Schicksal des Balkans§!' (§Y+365§! Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§YNationalistische Propaganda§!'."</v>
+        <v> BUL_nationalist_propaganda_combo_tt: "Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war:\n- Erhöht die Dauer von '§Y§Y Das Schicksal des Balkans §!§! ' (§Y§Y +365 §!§!  Tage).\n- Verleiht eine verbesserte Version des Nationalgeists '§Y§Y Nationalistische Propaganda §!§! '."</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26108,11 +26108,11 @@
       </c>
       <c r="C1156" s="1" t="str">
         <f aca="false">A1156 &amp;" " &amp;"""" &amp;B1156 &amp;""""</f>
-        <v> BUL_guardians_of_the_balkans_wargoal_tt: "Erhält das Kriegsziel §YMarionette§! gegen §Yjede nicht-verbündete Nation, die Balkanstaaten kontrolliert§!:"</v>
+        <v> BUL_guardians_of_the_balkans_wargoal_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede nicht-verbündete Nation, die Balkanstaaten kontrolliert §!§! :"</v>
       </c>
       <c r="D1156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1156),"",C1156)</f>
-        <v> BUL_guardians_of_the_balkans_wargoal_tt: "Erhält das Kriegsziel §YMarionette§! gegen §Yjede nicht-verbündete Nation, die Balkanstaaten kontrolliert§!:"</v>
+        <v> BUL_guardians_of_the_balkans_wargoal_tt: "Erhält das Kriegsziel §Y§Y Marionette §!§!  gegen §Y§Y jede nicht-verbündete Nation, die Balkanstaaten kontrolliert §!§! :"</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26124,11 +26124,11 @@
       </c>
       <c r="C1157" s="1" t="str">
         <f aca="false">A1157 &amp;" " &amp;"""" &amp;B1157 &amp;""""</f>
-        <v> BUL_guardians_of_the_balkans_remove_ns_tt: "Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war."</v>
+        <v> BUL_guardians_of_the_balkans_remove_ns_tt: "Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war."</v>
       </c>
       <c r="D1157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1157),"",C1157)</f>
-        <v> BUL_guardians_of_the_balkans_remove_ns_tt: "Der Nationalgeist '§YDas Schicksal des Balkans§!' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war."</v>
+        <v> BUL_guardians_of_the_balkans_remove_ns_tt: "Der Nationalgeist '§Y§Y Das Schicksal des Balkans §!§! ' wird bei Abschluss dieses Schwerpunkts entfernt, wenn er noch aktiv war."</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26156,11 +26156,11 @@
       </c>
       <c r="C1159" s="1" t="str">
         <f aca="false">A1159 &amp;" " &amp;"""" &amp;B1159 &amp;""""</f>
-        <v> BUL_toppling_giants_ns_targets_tt: "\nGroße europäische Länder, die an [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! grenzen:"</v>
+        <v> BUL_toppling_giants_ns_targets_tt: "\nGroße europäische Länder, die an [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  grenzen:"</v>
       </c>
       <c r="D1159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1159),"",C1159)</f>
-        <v> BUL_toppling_giants_ns_targets_tt: "\nGroße europäische Länder, die an [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! grenzen:"</v>
+        <v> BUL_toppling_giants_ns_targets_tt: "\nGroße europäische Länder, die an [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  grenzen:"</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26172,11 +26172,11 @@
       </c>
       <c r="C1160" s="1" t="str">
         <f aca="false">A1160 &amp;" " &amp;"""" &amp;B1160 &amp;""""</f>
-        <v> BUL_dominance_in_the_black_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_black_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
       <c r="D1160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1160),"",C1160)</f>
-        <v> BUL_dominance_in_the_black_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_black_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste des Schwarzen Meeres, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26188,11 +26188,11 @@
       </c>
       <c r="C1161" s="1" t="str">
         <f aca="false">A1161 &amp;" " &amp;"""" &amp;B1161 &amp;""""</f>
-        <v> BUL_dominance_in_the_black_sea_wargoals_tt: "Erhält das Kriegsziel §YAnnektierung§! gegen:"</v>
+        <v> BUL_dominance_in_the_black_sea_wargoals_tt: "Erhält das Kriegsziel §Y§Y Annektierung §!§!  gegen:"</v>
       </c>
       <c r="D1161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1161),"",C1161)</f>
-        <v> BUL_dominance_in_the_black_sea_wargoals_tt: "Erhält das Kriegsziel §YAnnektierung§! gegen:"</v>
+        <v> BUL_dominance_in_the_black_sea_wargoals_tt: "Erhält das Kriegsziel §Y§Y Annektierung §!§!  gegen:"</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26204,11 +26204,11 @@
       </c>
       <c r="C1162" s="1" t="str">
         <f aca="false">A1162 &amp;" " &amp;"""" &amp;B1162 &amp;""""</f>
-        <v> BUL_dominance_in_the_aegean_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_aegean_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
       <c r="D1162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1162),"",C1162)</f>
-        <v> BUL_dominance_in_the_aegean_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_aegean_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Ägäis, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26220,11 +26220,11 @@
       </c>
       <c r="C1163" s="1" t="str">
         <f aca="false">A1163 &amp;" " &amp;"""" &amp;B1163 &amp;""""</f>
-        <v> BUL_dominance_in_the_adriatic_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_adriatic_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
       <c r="D1163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1163),"",C1163)</f>
-        <v> BUL_dominance_in_the_adriatic_sea_claims_tt: "[ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§! erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
+        <v> BUL_dominance_in_the_adriatic_sea_claims_tt: "[ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§!  erhält Ansprüche auf jeden Staat an der Küste der Adria, der nicht von einem Verbündeten oder Untertan kontrolliert wird."</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26236,11 +26236,11 @@
       </c>
       <c r="C1164" s="1" t="str">
         <f aca="false">A1164 &amp;" " &amp;"""" &amp;B1164 &amp;""""</f>
-        <v> BUL_bulgaria_on_the_three_seas_buliding_tt: "Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y2 Marinewerften§! hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y1 Marinestützpunkt§! und §Y2 Küstenbefestigungen§! hinzugefügt. \nAktuelle Effekte:"</v>
+        <v> BUL_bulgaria_on_the_three_seas_buliding_tt: "Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 2 Marinewerften §!§!  hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 1 Marinestützpunkt §!§!  und §Y§Y 2 Küstenbefestigungen §!§!  hinzugefügt. \nAktuelle Effekte:"</v>
       </c>
       <c r="D1164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1164),"",C1164)</f>
-        <v> BUL_bulgaria_on_the_three_seas_buliding_tt: "Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y2 Marinewerften§! hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y1 Marinestützpunkt§! und §Y2 Küstenbefestigungen§! hinzugefügt. \nAktuelle Effekte:"</v>
+        <v> BUL_bulgaria_on_the_three_seas_buliding_tt: "Einem beliebigen Staat mit einer bereits gebauten Marinewerft an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 2 Marinewerften §!§!  hinzugefügt. \nEiner beliebigen Provinz mit einem Marinestützpunkt an der Küste der Ägäis, der Adria oder des Schwarzen Meeres werden §Y§Y 1 Marinestützpunkt §!§!  und §Y§Y 2 Küstenbefestigungen §!§!  hinzugefügt. \nAktuelle Effekte:"</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26252,11 +26252,11 @@
       </c>
       <c r="C1165" s="1" t="str">
         <f aca="false">A1165 &amp;" " &amp;"""" &amp;B1165 &amp;""""</f>
-        <v> BUL_support_the_spanish_coup_tt: "Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §YFeldmarschall§! befördert und erhält §G1§! Fähigkeitsstufe und eine zufällige §YEigenschaft§!, wenn der Spanische Bürgerkrieg endet. §RErfordert die Entsendung von Freiwilligen an das§! §Y[GetNationalistSpainFlag]Nationalistische Spanien§!."</v>
+        <v> BUL_support_the_spanish_coup_tt: "Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §Y§Y Feldmarschall §!§!  befördert und erhält §G§G 1 §!§!  Fähigkeitsstufe und eine zufällige §Y§Y Eigenschaft §!§! , wenn der Spanische Bürgerkrieg endet. §R§R Erfordert die Entsendung von Freiwilligen an das §!§!  §Y§Y [GetNationalistSpainFlag]Nationalistische Spanien §!§! ."</v>
       </c>
       <c r="D1165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1165),"",C1165)</f>
-        <v> BUL_support_the_spanish_coup_tt: "Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §YFeldmarschall§! befördert und erhält §G1§! Fähigkeitsstufe und eine zufällige §YEigenschaft§!, wenn der Spanische Bürgerkrieg endet. §RErfordert die Entsendung von Freiwilligen an das§! §Y[GetNationalistSpainFlag]Nationalistische Spanien§!."</v>
+        <v> BUL_support_the_spanish_coup_tt: "Ein General, der im Spanischen Bürgerkrieg gekämpft hat, wird zum §Y§Y Feldmarschall §!§!  befördert und erhält §G§G 1 §!§!  Fähigkeitsstufe und eine zufällige §Y§Y Eigenschaft §!§! , wenn der Spanische Bürgerkrieg endet. §R§R Erfordert die Entsendung von Freiwilligen an das §!§!  §Y§Y [GetNationalistSpainFlag]Nationalistische Spanien §!§! ."</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26297,11 +26297,11 @@
       </c>
       <c r="C1168" s="1" t="str">
         <f aca="false">A1168 &amp;" " &amp;"""" &amp;B1168 &amp;""""</f>
-        <v> BUL_the_return_of_ferdinand_opinion_tt: "Erhält §YAlte Feinde§! (Meinung von [GRE.GetFlag]§Y[GRE.GetNameDef]§!, [ROM.GetFlag]§Y[ROM.GetNameDef]§!, [YUG.GetFlag]§Y[YUG.GetNameDef]§!, [TUR.GetFlag]§Y[TUR.GetNameDef]§! §R-25§!"</v>
+        <v> BUL_the_return_of_ferdinand_opinion_tt: "Erhält §Y§Y Alte Feinde §!§!  (Meinung von [GRE.GetFlag]§Y§Y [GRE.GetNameDef] §!§! , [ROM.GetFlag]§Y§Y [ROM.GetNameDef] §!§! , [YUG.GetFlag]§Y§Y [YUG.GetNameDef] §!§! , [TUR.GetFlag]§Y§Y [TUR.GetNameDef] §!§!  §R§R -25 §!§! "</v>
       </c>
       <c r="D1168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1168),"",C1168)</f>
-        <v> BUL_the_return_of_ferdinand_opinion_tt: "Erhält §YAlte Feinde§! (Meinung von [GRE.GetFlag]§Y[GRE.GetNameDef]§!, [ROM.GetFlag]§Y[ROM.GetNameDef]§!, [YUG.GetFlag]§Y[YUG.GetNameDef]§!, [TUR.GetFlag]§Y[TUR.GetNameDef]§! §R-25§!"</v>
+        <v> BUL_the_return_of_ferdinand_opinion_tt: "Erhält §Y§Y Alte Feinde §!§!  (Meinung von [GRE.GetFlag]§Y§Y [GRE.GetNameDef] §!§! , [ROM.GetFlag]§Y§Y [ROM.GetNameDef] §!§! , [YUG.GetFlag]§Y§Y [YUG.GetNameDef] §!§! , [TUR.GetFlag]§Y§Y [TUR.GetNameDef] §!§!  §R§R -25 §!§! "</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26313,11 +26313,11 @@
       </c>
       <c r="C1169" s="1" t="str">
         <f aca="false">A1169 &amp;" " &amp;"""" &amp;B1169 &amp;""""</f>
-        <v> BUL_carry_the_revolution_abroad_comintern_invitation_tt: "Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y[ROOT.GetName]§! eingeladen werden"</v>
+        <v> BUL_carry_the_revolution_abroad_comintern_invitation_tt: "Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  eingeladen werden"</v>
       </c>
       <c r="D1169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1169),"",C1169)</f>
-        <v> BUL_carry_the_revolution_abroad_comintern_invitation_tt: "Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y[ROOT.GetName]§! eingeladen werden"</v>
+        <v> BUL_carry_the_revolution_abroad_comintern_invitation_tt: "Unabhängige kommunistische Länder auf dem Balkan erhalten ein Ereignis, durch das sie in das Bündnis von [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  eingeladen werden"</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26329,11 +26329,11 @@
       </c>
       <c r="C1170" s="1" t="str">
         <f aca="false">A1170 &amp;" " &amp;"""" &amp;B1170 &amp;""""</f>
-        <v> BUL_carry_the_revolution_abroad_alternative_invitation_tt: "Wenn [ROOT.GetFlag]§Y[ROOT.GetName]§! Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden."</v>
+        <v> BUL_carry_the_revolution_abroad_alternative_invitation_tt: "Wenn [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden."</v>
       </c>
       <c r="D1170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1170),"",C1170)</f>
-        <v> BUL_carry_the_revolution_abroad_alternative_invitation_tt: "Wenn [ROOT.GetFlag]§Y[ROOT.GetName]§! Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden."</v>
+        <v> BUL_carry_the_revolution_abroad_alternative_invitation_tt: "Wenn [ROOT.GetFlag]§Y§Y [ROOT.GetName] §!§!  Bündnisführer ist, erhalten unabhängige kommunistische Länder auf dem Balkan ein Ereignis, durch das sie in das bulgarische Bündnis eingeladen werden."</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26345,11 +26345,11 @@
       </c>
       <c r="C1171" s="1" t="str">
         <f aca="false">A1171 &amp;" " &amp;"""" &amp;B1171 &amp;""""</f>
-        <v> BUL_recover_italian_territories_ita_will_refuse_tt: "\n[ITA.GetFlag]§Y[ITA.GetNameDefCap]§! §Rweigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil§! §Y[ITA.GetFlag][ITA.GetNameDef]§! §Roder§! §Yein [ITA.GetAdjective]er Verbündeter§! §Rmit§! [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! §Rim Krieg liegt§!"</v>
+        <v> BUL_recover_italian_territories_ita_will_refuse_tt: "\n[ITA.GetFlag]§Y§Y [ITA.GetNameDefCap] §!§!  §R§R weigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil §!§!  §Y§Y [ITA.GetFlag][ITA.GetNameDef] §!§!  §R§R oder §!§!  §Y§Y ein [ITA.GetAdjective]er Verbündeter §!§!  §R§R mit §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  §R§R im Krieg liegt §!§! "</v>
       </c>
       <c r="D1171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1171),"",C1171)</f>
-        <v> BUL_recover_italian_territories_ita_will_refuse_tt: "\n[ITA.GetFlag]§Y[ITA.GetNameDefCap]§! §Rweigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil§! §Y[ITA.GetFlag][ITA.GetNameDef]§! §Roder§! §Yein [ITA.GetAdjective]er Verbündeter§! §Rmit§! [ROOT.GetFlag]§Y[ROOT.GetNameDef]§! §Rim Krieg liegt§!"</v>
+        <v> BUL_recover_italian_territories_ita_will_refuse_tt: "\n[ITA.GetFlag]§Y§Y [ITA.GetNameDefCap] §!§!  §R§R weigert sich, seine Territorien auf dem Balkan im Moment abzutreten, weil §!§!  §Y§Y [ITA.GetFlag][ITA.GetNameDef] §!§!  §R§R oder §!§!  §Y§Y ein [ITA.GetAdjective]er Verbündeter §!§!  §R§R mit §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDef] §!§!  §R§R im Krieg liegt §!§! "</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26425,11 +26425,11 @@
       </c>
       <c r="C1176" s="1" t="str">
         <f aca="false">A1176 &amp;" " &amp;"""" &amp;B1176 &amp;""""</f>
-        <v> BUL_support_macedonian_organizations_rearmament_tt: "\n§RDer Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung§! §YUnsere Friedenspolitik demonstrieren§! §Rnicht mehr länger für§! §Y[ROOT.GetNameWithFlag]§! §Rverfügbar ist§!."</v>
+        <v> BUL_support_macedonian_organizations_rearmament_tt: "\n§R§R Der Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung §!§!  §Y§Y Unsere Friedenspolitik demonstrieren §!§!  §R§R nicht mehr länger für §!§!  §Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R verfügbar ist §!§! ."</v>
       </c>
       <c r="D1176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1176),"",C1176)</f>
-        <v> BUL_support_macedonian_organizations_rearmament_tt: "\n§RDer Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung§! §YUnsere Friedenspolitik demonstrieren§! §Rnicht mehr länger für§! §Y[ROOT.GetNameWithFlag]§! §Rverfügbar ist§!."</v>
+        <v> BUL_support_macedonian_organizations_rearmament_tt: "\n§R§R Der Abschluss dieses Schwerpunkts beinhaltet die Destabilisierung des Balkans, wodurch die Wiederbewaffnungsentscheidung §!§!  §Y§Y Unsere Friedenspolitik demonstrieren §!§!  §R§R nicht mehr länger für §!§!  §Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R verfügbar ist §!§! ."</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26457,11 +26457,11 @@
       </c>
       <c r="C1178" s="1" t="str">
         <f aca="false">A1178 &amp;" " &amp;"""" &amp;B1178 &amp;""""</f>
-        <v> BUL_treaty_of_perpetual_friendship_claims_tt: "§RBulgarien gibt alle Gebietsansprüche in§! §Y[YUG.GetNameWithFlag]§! §Rauf§!."</v>
+        <v> BUL_treaty_of_perpetual_friendship_claims_tt: "§R§R Bulgarien gibt alle Gebietsansprüche in §!§!  §Y§Y [YUG.GetNameWithFlag] §!§!  §R§R auf §!§! ."</v>
       </c>
       <c r="D1178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1178),"",C1178)</f>
-        <v> BUL_treaty_of_perpetual_friendship_claims_tt: "§RBulgarien gibt alle Gebietsansprüche in§! §Y[YUG.GetNameWithFlag]§! §Rauf§!."</v>
+        <v> BUL_treaty_of_perpetual_friendship_claims_tt: "§R§R Bulgarien gibt alle Gebietsansprüche in §!§!  §Y§Y [YUG.GetNameWithFlag] §!§!  §R§R auf §!§! ."</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26473,11 +26473,11 @@
       </c>
       <c r="C1179" s="1" t="str">
         <f aca="false">A1179 &amp;" " &amp;"""" &amp;B1179 &amp;""""</f>
-        <v> BUL_guardians_of_the_balkans_subject_ns_tt: "\nAlle §Y[ROOT.GetAdjective]en Untertanen auf dem Balkan§!:"</v>
+        <v> BUL_guardians_of_the_balkans_subject_ns_tt: "\nAlle §Y§Y [ROOT.GetAdjective]en Untertanen auf dem Balkan §!§! :"</v>
       </c>
       <c r="D1179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1179),"",C1179)</f>
-        <v> BUL_guardians_of_the_balkans_subject_ns_tt: "\nAlle §Y[ROOT.GetAdjective]en Untertanen auf dem Balkan§!:"</v>
+        <v> BUL_guardians_of_the_balkans_subject_ns_tt: "\nAlle §Y§Y [ROOT.GetAdjective]en Untertanen auf dem Balkan §!§! :"</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26489,11 +26489,11 @@
       </c>
       <c r="C1180" s="1" t="str">
         <f aca="false">A1180 &amp;" " &amp;"""" &amp;B1180 &amp;""""</f>
-        <v> BUL_total_war_join_wars_tt: "§Y[ROOT.GetNameWithFlag]§! §Rschließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der§! §Y[SOV.GetNameWithFlag]§!."</v>
+        <v> BUL_total_war_join_wars_tt: "§Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R schließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der §!§!  §Y§Y [SOV.GetNameWithFlag] §!§! ."</v>
       </c>
       <c r="D1180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1180),"",C1180)</f>
-        <v> BUL_total_war_join_wars_tt: "§Y[ROOT.GetNameWithFlag]§! §Rschließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der§! §Y[SOV.GetNameWithFlag]§!."</v>
+        <v> BUL_total_war_join_wars_tt: "§Y§Y [ROOT.GetNameWithFlag] §!§!  §R§R schließt sich allen Kriegen gegen die Feinde seines Bündnisanführers an, mit Ausnahme der §!§!  §Y§Y [SOV.GetNameWithFlag] §!§! ."</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26505,11 +26505,11 @@
       </c>
       <c r="C1181" s="1" t="str">
         <f aca="false">A1181 &amp;" " &amp;"""" &amp;B1181 &amp;""""</f>
-        <v> BUL_land_reorganization_tt: "+ §Y2§! Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:"</v>
+        <v> BUL_land_reorganization_tt: "+ §Y§Y 2 §!§!  Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:"</v>
       </c>
       <c r="D1181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1181),"",C1181)</f>
-        <v> BUL_land_reorganization_tt: "+ §Y2§! Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:"</v>
+        <v> BUL_land_reorganization_tt: "+ §Y§Y 2 §!§!  Bauplätze in jedem Kerngebietsstaat, der vollständig von [ROOT.GetFlag][ROOT.GetNameDef] kontrolliert wird:"</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26521,11 +26521,11 @@
       </c>
       <c r="C1182" s="1" t="str">
         <f aca="false">A1182 &amp;" " &amp;"""" &amp;B1182 &amp;""""</f>
-        <v> BUL_agrarian_cooperative_movement_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y80%§! "</v>
+        <v> BUL_agrarian_cooperative_movement_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y§Y 80% §!§!  "</v>
       </c>
       <c r="D1182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1182),"",C1182)</f>
-        <v> BUL_agrarian_cooperative_movement_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y80%§! "</v>
+        <v> BUL_agrarian_cooperative_movement_bzns_support_requirement_tt: "Fraktionsloyalität von [GetBznsName] über §Y§Y 80% §!§!  "</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26537,11 +26537,11 @@
       </c>
       <c r="C1183" s="1" t="str">
         <f aca="false">A1183 &amp;" " &amp;"""" &amp;B1183 &amp;""""</f>
-        <v> BUL_modernize_the_industry_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y80%§! "</v>
+        <v> BUL_modernize_the_industry_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 80% §!§!  "</v>
       </c>
       <c r="D1183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1183),"",C1183)</f>
-        <v> BUL_modernize_the_industry_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y80%§! "</v>
+        <v> BUL_modernize_the_industry_bs_support_requirement_tt: "Fraktionsloyalität von [GetBsName] über §Y§Y 80% §!§!  "</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26569,11 +26569,11 @@
       </c>
       <c r="C1185" s="1" t="str">
         <f aca="false">A1185 &amp;" " &amp;"""" &amp;B1185 &amp;""""</f>
-        <v> BUL_appeal_to_european_capitalists_cg_tt: "§YAusländische Industrie§! modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y-5%§!"</v>
+        <v> BUL_appeal_to_european_capitalists_cg_tt: "§Y§Y Ausländische Industrie §!§!  modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y§Y -5% §!§! "</v>
       </c>
       <c r="D1185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1185),"",C1185)</f>
-        <v> BUL_appeal_to_european_capitalists_cg_tt: "§YAusländische Industrie§! modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y-5%§!"</v>
+        <v> BUL_appeal_to_european_capitalists_cg_tt: "§Y§Y Ausländische Industrie §!§!  modifizieren Nationalgeist durch \nKonsumgüterfabriken: §Y§Y -5% §!§! "</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26601,11 +26601,11 @@
       </c>
       <c r="C1187" s="1" t="str">
         <f aca="false">A1187 &amp;" " &amp;"""" &amp;B1187 &amp;""""</f>
-        <v> BUL_a_balkan_confederation_faction_tt: "Erhält das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!."</v>
+        <v> BUL_a_balkan_confederation_faction_tt: "Erhält das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! ."</v>
       </c>
       <c r="D1187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1187),"",C1187)</f>
-        <v> BUL_a_balkan_confederation_faction_tt: "Erhält das Ereignis §Y'[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein'§!."</v>
+        <v> BUL_a_balkan_confederation_faction_tt: "Erhält das Ereignis §Y§Y '[BUL.GetNameDef] lädt uns in [GetDemocraticBalkanConfederationName] ein' §!§! ."</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26665,11 +26665,11 @@
       </c>
       <c r="C1191" s="1" t="str">
         <f aca="false">A1191 &amp;" " &amp;"""" &amp;B1191 &amp;""""</f>
-        <v> BUL_free_balkan_states_guarantees_tt: "Garantie für alle §Ydemokratischen§! und §Yneutralen§! Balkannationen, die unabhängig oder mit §Y[BUL.GetNameWithFlag]§! verbündet sind:"</v>
+        <v> BUL_free_balkan_states_guarantees_tt: "Garantie für alle §Y§Y demokratischen §!§!  und §Y§Y neutralen §!§!  Balkannationen, die unabhängig oder mit §Y§Y [BUL.GetNameWithFlag] §!§!  verbündet sind:"</v>
       </c>
       <c r="D1191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1191),"",C1191)</f>
-        <v> BUL_free_balkan_states_guarantees_tt: "Garantie für alle §Ydemokratischen§! und §Yneutralen§! Balkannationen, die unabhängig oder mit §Y[BUL.GetNameWithFlag]§! verbündet sind:"</v>
+        <v> BUL_free_balkan_states_guarantees_tt: "Garantie für alle §Y§Y demokratischen §!§!  und §Y§Y neutralen §!§!  Balkannationen, die unabhängig oder mit §Y§Y [BUL.GetNameWithFlag] §!§!  verbündet sind:"</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26681,11 +26681,11 @@
       </c>
       <c r="C1192" s="1" t="str">
         <f aca="false">A1192 &amp;" " &amp;"""" &amp;B1192 &amp;""""</f>
-        <v> BUL_free_balkan_states_ns_tt: "\nErhält Nationalgeist §YUnsere Pflicht auf dem Balkan§!. Dieser gewährt (Konsumgüterfabriken: §Y-1%§! für jedes garantierte Land, Stabilität: §G+5%§! für jedes garantierte Land, Wöchentliche Mannstärke: §G+1000§! nicht beeinflusst von garantierten Ländern)."</v>
+        <v> BUL_free_balkan_states_ns_tt: "\nErhält Nationalgeist §Y§Y Unsere Pflicht auf dem Balkan §!§! . Dieser gewährt (Konsumgüterfabriken: §Y§Y -1% §!§!  für jedes garantierte Land, Stabilität: §G§G +5% §!§!  für jedes garantierte Land, Wöchentliche Mannstärke: §G§G +1000 §!§!  nicht beeinflusst von garantierten Ländern)."</v>
       </c>
       <c r="D1192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1192),"",C1192)</f>
-        <v> BUL_free_balkan_states_ns_tt: "\nErhält Nationalgeist §YUnsere Pflicht auf dem Balkan§!. Dieser gewährt (Konsumgüterfabriken: §Y-1%§! für jedes garantierte Land, Stabilität: §G+5%§! für jedes garantierte Land, Wöchentliche Mannstärke: §G+1000§! nicht beeinflusst von garantierten Ländern)."</v>
+        <v> BUL_free_balkan_states_ns_tt: "\nErhält Nationalgeist §Y§Y Unsere Pflicht auf dem Balkan §!§! . Dieser gewährt (Konsumgüterfabriken: §Y§Y -1% §!§!  für jedes garantierte Land, Stabilität: §G§G +5% §!§!  für jedes garantierte Land, Wöchentliche Mannstärke: §G§G +1000 §!§!  nicht beeinflusst von garantierten Ländern)."</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26697,11 +26697,11 @@
       </c>
       <c r="C1193" s="1" t="str">
         <f aca="false">A1193 &amp;" " &amp;"""" &amp;B1193 &amp;""""</f>
-        <v> BUL_free_balkan_states_wargoals_tt: "\nErhält Kriegsziel §YMarionette§! gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:"</v>
+        <v> BUL_free_balkan_states_wargoals_tt: "\nErhält Kriegsziel §Y§Y Marionette §!§!  gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:"</v>
       </c>
       <c r="D1193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1193),"",C1193)</f>
-        <v> BUL_free_balkan_states_wargoals_tt: "\nErhält Kriegsziel §YMarionette§! gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:"</v>
+        <v> BUL_free_balkan_states_wargoals_tt: "\nErhält Kriegsziel §Y§Y Marionette §!§!  gegen: \n-Alle Balkannationen, die einem anderen Bündnis angehören als [BUL.GetNameDef]. \n-Alle Nicht-Balkannationen, die einen Balkanstaat besetzt halten. \nAktuell betroffene Länder:"</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26713,11 +26713,11 @@
       </c>
       <c r="C1194" s="1" t="str">
         <f aca="false">A1194 &amp;" " &amp;"""" &amp;B1194 &amp;""""</f>
-        <v> BUL_fight_tyranny_wargoals_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße faschistische Länder in Europa§!."</v>
+        <v> BUL_fight_tyranny_wargoals_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große faschistische Länder in Europa §!§! ."</v>
       </c>
       <c r="D1194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1194),"",C1194)</f>
-        <v> BUL_fight_tyranny_wargoals_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße faschistische Länder in Europa§!."</v>
+        <v> BUL_fight_tyranny_wargoals_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große faschistische Länder in Europa §!§! ."</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26745,11 +26745,11 @@
       </c>
       <c r="C1196" s="1" t="str">
         <f aca="false">A1196 &amp;" " &amp;"""" &amp;B1196 &amp;""""</f>
-        <v> BUL_obliterate_the_bolshevik_threat_wargoal_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße kommunistische Länder in Europa§!."</v>
+        <v> BUL_obliterate_the_bolshevik_threat_wargoal_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große kommunistische Länder in Europa §!§! ."</v>
       </c>
       <c r="D1196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1196),"",C1196)</f>
-        <v> BUL_obliterate_the_bolshevik_threat_wargoal_tt: "Erhält das Kriegsziel §YRegierung stürzen§! gegen §Ygroße kommunistische Länder in Europa§!."</v>
+        <v> BUL_obliterate_the_bolshevik_threat_wargoal_tt: "Erhält das Kriegsziel §Y§Y Regierung stürzen §!§!  gegen §Y§Y große kommunistische Länder in Europa §!§! ."</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26777,11 +26777,11 @@
       </c>
       <c r="C1198" s="1" t="str">
         <f aca="false">A1198 &amp;" " &amp;"""" &amp;B1198 &amp;""""</f>
-        <v> BUL_assert_our_claims_historical_claims_tt: "Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y[BUL.GetNameWithFlag]§! kontrolliert werden.\nHistorische beanspruchte Staaten: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!."</v>
+        <v> BUL_assert_our_claims_historical_claims_tt: "Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y§Y [BUL.GetNameWithFlag] §!§!  kontrolliert werden.\nHistorische beanspruchte Staaten: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! ."</v>
       </c>
       <c r="D1198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1198),"",C1198)</f>
-        <v> BUL_assert_our_claims_historical_claims_tt: "Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y[BUL.GetNameWithFlag]§! kontrolliert werden.\nHistorische beanspruchte Staaten: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!."</v>
+        <v> BUL_assert_our_claims_historical_claims_tt: "Verleiht Kerngebiet in allen historisch beanspruchten Staaten, die voll von  §Y§Y [BUL.GetNameWithFlag] §!§!  kontrolliert werden.\nHistorische beanspruchte Staaten: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26809,11 +26809,11 @@
       </c>
       <c r="C1200" s="1" t="str">
         <f aca="false">A1200 &amp;" " &amp;"""" &amp;B1200 &amp;""""</f>
-        <v> BUL_assert_our_claims_initial_states_tt: "Wenn §Y[ENG.GetNameWithFlag]§! akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y[48.GetName]§!, §Y[211.GetName]§!, §Y[212.GetName]§!, §Y[801.GetName]§!), die von einem Verbündeten kontrolliert werden, werden an §Y[BUL.GetNameWithFlag]§! zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	"</v>
+        <v> BUL_assert_our_claims_initial_states_tt: "Wenn §Y§Y [ENG.GetNameWithFlag] §!§!  akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y§Y [48.GetName] §!§! , §Y§Y [211.GetName] §!§! , §Y§Y [212.GetName] §!§! , §Y§Y [801.GetName] §!§! ), die von einem Verbündeten kontrolliert werden, werden an §Y§Y [BUL.GetNameWithFlag] §!§!  zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	"</v>
       </c>
       <c r="D1200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1200),"",C1200)</f>
-        <v> BUL_assert_our_claims_initial_states_tt: "Wenn §Y[ENG.GetNameWithFlag]§! akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y[48.GetName]§!, §Y[211.GetName]§!, §Y[212.GetName]§!, §Y[801.GetName]§!), die von einem Verbündeten kontrolliert werden, werden an §Y[BUL.GetNameWithFlag]§! zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	"</v>
+        <v> BUL_assert_our_claims_initial_states_tt: "Wenn §Y§Y [ENG.GetNameWithFlag] §!§!  akzeptiert: Alle rechtmäßig [BUL.GetAdjective]en Staaten (§Y§Y [48.GetName] §!§! , §Y§Y [211.GetName] §!§! , §Y§Y [212.GetName] §!§! , §Y§Y [801.GetName] §!§! ), die von einem Verbündeten kontrolliert werden, werden an §Y§Y [BUL.GetNameWithFlag] §!§!  zurückgegeben. \nAktuelle Staaten, die potenziell übertragen werden:	"</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26825,11 +26825,11 @@
       </c>
       <c r="C1201" s="1" t="str">
         <f aca="false">A1201 &amp;" " &amp;"""" &amp;B1201 &amp;""""</f>
-        <v> BUL_assert_our_claims_enemy_claims_tt: "\n§Y[BUL.GetNameWithFlag]§! erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Yannektieren§! gegen diese Nachbarländer."</v>
+        <v> BUL_assert_our_claims_enemy_claims_tt: "\n§Y§Y [BUL.GetNameWithFlag] §!§!  erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Y§Y annektieren §!§!  gegen diese Nachbarländer."</v>
       </c>
       <c r="D1201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1201),"",C1201)</f>
-        <v> BUL_assert_our_claims_enemy_claims_tt: "\n§Y[BUL.GetNameWithFlag]§! erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Yannektieren§! gegen diese Nachbarländer."</v>
+        <v> BUL_assert_our_claims_enemy_claims_tt: "\n§Y§Y [BUL.GetNameWithFlag] §!§!  erhält Ansprüche auf Balkanstaaten, die von einem benachbarten Feind oder Verbündeten eines Feindes kontrolliert werden, und Kriegsziel §Y§Y annektieren §!§!  gegen diese Nachbarländer."</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26841,11 +26841,11 @@
       </c>
       <c r="C1202" s="1" t="str">
         <f aca="false">A1202 &amp;" " &amp;"""" &amp;B1202 &amp;""""</f>
-        <v> BUL_freedom_of_press_ban_faction_media_tt: "\n§Rhindert die Regierung §Y365 Tage§! lang daran, die Medien eines Bündnisses zu verbieten.§!"</v>
+        <v> BUL_freedom_of_press_ban_faction_media_tt: "\n§R§R hindert die Regierung §Y§Y 365 Tage §!§!  lang daran, die Medien eines Bündnisses zu verbieten. §!§! "</v>
       </c>
       <c r="D1202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1202),"",C1202)</f>
-        <v> BUL_freedom_of_press_ban_faction_media_tt: "\n§Rhindert die Regierung §Y365 Tage§! lang daran, die Medien eines Bündnisses zu verbieten.§!"</v>
+        <v> BUL_freedom_of_press_ban_faction_media_tt: "\n§R§R hindert die Regierung §Y§Y 365 Tage §!§!  lang daran, die Medien eines Bündnisses zu verbieten. §!§! "</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26889,11 +26889,11 @@
       </c>
       <c r="C1205" s="1" t="str">
         <f aca="false">A1205 &amp;" " &amp;"""" &amp;B1205 &amp;""""</f>
-        <v> BUL_defensive_lines_tt: "Ergänz §Y1 Infrastruktur§!, §Y1 Flugabwehr§! und §Y1 Landbefestigung§! in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Yweltweite Spannung§! erzeugt hat."</v>
+        <v> BUL_defensive_lines_tt: "Ergänz §Y§Y 1 Infrastruktur §!§! , §Y§Y 1 Flugabwehr §!§!  und §Y§Y 1 Landbefestigung §!§!  in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Y§Y weltweite Spannung §!§!  erzeugt hat."</v>
       </c>
       <c r="D1205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1205),"",C1205)</f>
-        <v> BUL_defensive_lines_tt: "Ergänz §Y1 Infrastruktur§!, §Y1 Flugabwehr§! und §Y1 Landbefestigung§! in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Yweltweite Spannung§! erzeugt hat."</v>
+        <v> BUL_defensive_lines_tt: "Ergänz §Y§Y 1 Infrastruktur §!§! , §Y§Y 1 Flugabwehr §!§!  und §Y§Y 1 Landbefestigung §!§!  in allen anfänglichen bulgarischen Staaten oder historischen Territorialansprüchen, die voll von Bulgarien kontrolliert werden und an ein Land grenzen, das §Y§Y weltweite Spannung §!§!  erzeugt hat."</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26905,11 +26905,11 @@
       </c>
       <c r="C1206" s="1" t="str">
         <f aca="false">A1206 &amp;" " &amp;"""" &amp;B1206 &amp;""""</f>
-        <v> BUL_historical_states_tt: "\nHistorische Territorialansprüche: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!."</v>
+        <v> BUL_historical_states_tt: "\nHistorische Territorialansprüche: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! ."</v>
       </c>
       <c r="D1206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1206),"",C1206)</f>
-        <v> BUL_historical_states_tt: "\nHistorische Territorialansprüche: §Y[106.GetName]§!, §Y[803.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!."</v>
+        <v> BUL_historical_states_tt: "\nHistorische Territorialansprüche: §Y§Y [106.GetName] §!§! , §Y§Y [803.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26921,11 +26921,11 @@
       </c>
       <c r="C1207" s="1" t="str">
         <f aca="false">A1207 &amp;" " &amp;"""" &amp;B1207 &amp;""""</f>
-        <v> BUL_reinforce_naval_bases_tt: "Ergänzt §Y2 Landbefestigungen§!, §Y2 Küstenbefestigungen§!, §Y1 Flugabwehr-§! und §Y2 Marinestützpunkte§! in §Y[211.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!, so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:"</v>
+        <v> BUL_reinforce_naval_bases_tt: "Ergänzt §Y§Y 2 Landbefestigungen §!§! , §Y§Y 2 Küstenbefestigungen §!§! , §Y§Y 1 Flugabwehr- §!§!  und §Y§Y 2 Marinestützpunkte §!§!  in §Y§Y [211.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! , so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:"</v>
       </c>
       <c r="D1207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1207),"",C1207)</f>
-        <v> BUL_reinforce_naval_bases_tt: "Ergänzt §Y2 Landbefestigungen§!, §Y2 Küstenbefestigungen§!, §Y1 Flugabwehr-§! und §Y2 Marinestützpunkte§! in §Y[211.GetName]§!, §Y[77.GetName]§!, §Y[184.GetName]§!, §Y[731.GetName]§!, so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:"</v>
+        <v> BUL_reinforce_naval_bases_tt: "Ergänzt §Y§Y 2 Landbefestigungen §!§! , §Y§Y 2 Küstenbefestigungen §!§! , §Y§Y 1 Flugabwehr- §!§!  und §Y§Y 2 Marinestützpunkte §!§!  in §Y§Y [211.GetName] §!§! , §Y§Y [77.GetName] §!§! , §Y§Y [184.GetName] §!§! , §Y§Y [731.GetName] §!§! , so lange die Gebiete voll von [BUL.GetNameDef] kontrolliert werden. \nAktuelle Effekte:"</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26937,11 +26937,11 @@
       </c>
       <c r="C1208" s="1" t="str">
         <f aca="false">A1208 &amp;" " &amp;"""" &amp;B1208 &amp;""""</f>
-        <v> BUL_an_aegean_sea_fleet_tt: "Ergänzt §Y1 Marinestützpunkt§!, §G1§! Bauplatz und §Y1 Marinewerft§! in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:"</v>
+        <v> BUL_an_aegean_sea_fleet_tt: "Ergänzt §Y§Y 1 Marinestützpunkt §!§! , §G§G 1 §!§!  Bauplatz und §Y§Y 1 Marinewerft §!§!  in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:"</v>
       </c>
       <c r="D1208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1208),"",C1208)</f>
-        <v> BUL_an_aegean_sea_fleet_tt: "Ergänzt §Y1 Marinestützpunkt§!, §G1§! Bauplatz und §Y1 Marinewerft§! in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:"</v>
+        <v> BUL_an_aegean_sea_fleet_tt: "Ergänzt §Y§Y 1 Marinestützpunkt §!§! , §G§G 1 §!§!  Bauplatz und §Y§Y 1 Marinewerft §!§!  in jedem Staat mit einer Werft in der Ägäis. \nAktuelle Effekte:"</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26953,11 +26953,11 @@
       </c>
       <c r="C1209" s="1" t="str">
         <f aca="false">A1209 &amp;" " &amp;"""" &amp;B1209 &amp;""""</f>
-        <v> BUL_remove_tsar_loyalist_trait_tt: "Entfernt Staatsoberhaupteigenschaft §YLoyaler Zarist§!."</v>
+        <v> BUL_remove_tsar_loyalist_trait_tt: "Entfernt Staatsoberhaupteigenschaft §Y§Y Loyaler Zarist §!§! ."</v>
       </c>
       <c r="D1209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1209),"",C1209)</f>
-        <v> BUL_remove_tsar_loyalist_trait_tt: "Entfernt Staatsoberhaupteigenschaft §YLoyaler Zarist§!."</v>
+        <v> BUL_remove_tsar_loyalist_trait_tt: "Entfernt Staatsoberhaupteigenschaft §Y§Y Loyaler Zarist §!§! ."</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26969,11 +26969,11 @@
       </c>
       <c r="C1210" s="1" t="str">
         <f aca="false">A1210 &amp;" " &amp;"""" &amp;B1210 &amp;""""</f>
-        <v> BUL_is_not_alone_in_faction_tt: "Beliebiges Land: Ist in einem Bündnis mit §Y[ROOT.GetNameWithFlag]§!"</v>
+        <v> BUL_is_not_alone_in_faction_tt: "Beliebiges Land: Ist in einem Bündnis mit §Y§Y [ROOT.GetNameWithFlag] §!§! "</v>
       </c>
       <c r="D1210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1210),"",C1210)</f>
-        <v> BUL_is_not_alone_in_faction_tt: "Beliebiges Land: Ist in einem Bündnis mit §Y[ROOT.GetNameWithFlag]§!"</v>
+        <v> BUL_is_not_alone_in_faction_tt: "Beliebiges Land: Ist in einem Bündnis mit §Y§Y [ROOT.GetNameWithFlag] §!§! "</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26985,11 +26985,11 @@
       </c>
       <c r="C1211" s="1" t="str">
         <f aca="false">A1211 &amp;" " &amp;"""" &amp;B1211 &amp;""""</f>
-        <v> BUL_the_unification_of_the_balkans_cores_tt: "Erhält Kernprovinz in §Yallen Balkanstaaten§!:"</v>
+        <v> BUL_the_unification_of_the_balkans_cores_tt: "Erhält Kernprovinz in §Y§Y allen Balkanstaaten §!§! :"</v>
       </c>
       <c r="D1211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1211),"",C1211)</f>
-        <v> BUL_the_unification_of_the_balkans_cores_tt: "Erhält Kernprovinz in §Yallen Balkanstaaten§!:"</v>
+        <v> BUL_the_unification_of_the_balkans_cores_tt: "Erhält Kernprovinz in §Y§Y allen Balkanstaaten §!§! :"</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27001,11 +27001,11 @@
       </c>
       <c r="C1212" s="1" t="str">
         <f aca="false">A1212 &amp;" " &amp;"""" &amp;B1212 &amp;""""</f>
-        <v> BUL_carry_the_revolution_abroad_wargoals_tt: "Erhält Kriegsziel §Yannektieren§! gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Ykommunistische Gefahr§! (Meinung von §Y[BUL.GetNameWithFlag]§! §R-35§!.)\nAktuell betroffene Länder:"</v>
+        <v> BUL_carry_the_revolution_abroad_wargoals_tt: "Erhält Kriegsziel §Y§Y annektieren §!§!  gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Y§Y kommunistische Gefahr §!§!  (Meinung von §Y§Y [BUL.GetNameWithFlag] §!§!  §R§R -35 §!§! .)\nAktuell betroffene Länder:"</v>
       </c>
       <c r="D1212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1212),"",C1212)</f>
-        <v> BUL_carry_the_revolution_abroad_wargoals_tt: "Erhält Kriegsziel §Yannektieren§! gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Ykommunistische Gefahr§! (Meinung von §Y[BUL.GetNameWithFlag]§! §R-35§!.)\nAktuell betroffene Länder:"</v>
+        <v> BUL_carry_the_revolution_abroad_wargoals_tt: "Erhält Kriegsziel §Y§Y annektieren §!§!  gegen alle Balkanländer, die eine nicht-kommunistische Regierung haben oder mit einem anderen Bündnis verbündet sind. \nBetroffene Länder erhalten §Y§Y kommunistische Gefahr §!§!  (Meinung von §Y§Y [BUL.GetNameWithFlag] §!§!  §R§R -35 §!§! .)\nAktuell betroffene Länder:"</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27017,11 +27017,11 @@
       </c>
       <c r="C1213" s="1" t="str">
         <f aca="false">A1213 &amp;" " &amp;"""" &amp;B1213 &amp;""""</f>
-        <v> BUL_freedom_of_press_flag: "Hat Schwerpunkt §YPressefreiheit§! abgeschlossen"</v>
+        <v> BUL_freedom_of_press_flag: "Hat Schwerpunkt §Y§Y Pressefreiheit §!§!  abgeschlossen"</v>
       </c>
       <c r="D1213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1213),"",C1213)</f>
-        <v> BUL_freedom_of_press_flag: "Hat Schwerpunkt §YPressefreiheit§! abgeschlossen"</v>
+        <v> BUL_freedom_of_press_flag: "Hat Schwerpunkt §Y§Y Pressefreiheit §!§!  abgeschlossen"</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27033,11 +27033,11 @@
       </c>
       <c r="C1214" s="1" t="str">
         <f aca="false">A1214 &amp;" " &amp;"""" &amp;B1214 &amp;""""</f>
-        <v> BUL_industrial_investments_in_bulgaria_flag: "Land hat industrielle Investitionen in §Y[ROOT.GetNameWithFlag]§! getätigt"</v>
+        <v> BUL_industrial_investments_in_bulgaria_flag: "Land hat industrielle Investitionen in §Y§Y [ROOT.GetNameWithFlag] §!§!  getätigt"</v>
       </c>
       <c r="D1214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1214),"",C1214)</f>
-        <v> BUL_industrial_investments_in_bulgaria_flag: "Land hat industrielle Investitionen in §Y[ROOT.GetNameWithFlag]§! getätigt"</v>
+        <v> BUL_industrial_investments_in_bulgaria_flag: "Land hat industrielle Investitionen in §Y§Y [ROOT.GetNameWithFlag] §!§!  getätigt"</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27049,11 +27049,11 @@
       </c>
       <c r="C1215" s="1" t="str">
         <f aca="false">A1215 &amp;" " &amp;"""" &amp;B1215 &amp;""""</f>
-        <v> BUL_replace_national_naval_designer_tt: "Modifiziert §Y$BUL_varna_naval_dockyard$§! um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G+10%§! \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G+5%§! \n$naval_equipment_research$: §G+5%§!\n\n"</v>
+        <v> BUL_replace_national_naval_designer_tt: "Modifiziert §Y§Y $BUL_varna_naval_dockyard$ §!§!  um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G§G +10% §!§!  \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G§G +5% §!§!  \n$naval_equipment_research$: §G§G +5% §!§! \n\n"</v>
       </c>
       <c r="D1215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1215),"",C1215)</f>
-        <v> BUL_replace_national_naval_designer_tt: "Modifiziert §Y$BUL_varna_naval_dockyard$§! um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G+10%§! \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G+5%§! \n$naval_equipment_research$: §G+5%§!\n\n"</v>
+        <v> BUL_replace_national_naval_designer_tt: "Modifiziert §Y§Y $BUL_varna_naval_dockyard$ §!§!  um \n$MODIFIER_INDUSTRIAL_REFIT_SPEED_FACTOR$: §G§G +10% §!§!  \n$MODIFIER_REPAIR_SPEED_FACTOR$: §G§G +5% §!§!  \n$naval_equipment_research$: §G§G +5% §!§! \n\n"</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27065,11 +27065,11 @@
       </c>
       <c r="C1216" s="1" t="str">
         <f aca="false">A1216 &amp;" " &amp;"""" &amp;B1216 &amp;""""</f>
-        <v> BUL_depose_the_tsar_cw_tt: "Die §Yneutralen§! Unterstützer starten einen Bürgerkrieg."</v>
+        <v> BUL_depose_the_tsar_cw_tt: "Die §Y§Y neutralen §!§!  Unterstützer starten einen Bürgerkrieg."</v>
       </c>
       <c r="D1216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1216),"",C1216)</f>
-        <v> BUL_depose_the_tsar_cw_tt: "Die §Yneutralen§! Unterstützer starten einen Bürgerkrieg."</v>
+        <v> BUL_depose_the_tsar_cw_tt: "Die §Y§Y neutralen §!§!  Unterstützer starten einen Bürgerkrieg."</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27081,11 +27081,11 @@
       </c>
       <c r="C1217" s="1" t="str">
         <f aca="false">A1217 &amp;" " &amp;"""" &amp;B1217 &amp;""""</f>
-        <v> BUL_nationalization_foreign_designers_tt: "§RAusländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind.§!"</v>
+        <v> BUL_nationalization_foreign_designers_tt: "§R§R Ausländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind. §!§! "</v>
       </c>
       <c r="D1217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1217),"",C1217)</f>
-        <v> BUL_nationalization_foreign_designers_tt: "§RAusländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind.§!"</v>
+        <v> BUL_nationalization_foreign_designers_tt: "§R§R Ausländische Konstrukteure stehen nicht mehr zur Verfügung und werden entfernt, wenn sie aktiv sind. §!§! "</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27273,11 +27273,11 @@
       </c>
       <c r="C1229" s="1" t="str">
         <f aca="false">A1229 &amp;" " &amp;"""" &amp;B1229 &amp;""""</f>
-        <v> BUL_condemn_macedonian_organizations_rearmament_tt: "\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y[ENG.GetNameWithFlag]§! über die Entscheidung §YBulgarische Wiederbewaffnung verhandeln§! die bulgarischen Militärbeschränkungen aufhebt."</v>
+        <v> BUL_condemn_macedonian_organizations_rearmament_tt: "\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y§Y [ENG.GetNameWithFlag] §!§!  über die Entscheidung §Y§Y Bulgarische Wiederbewaffnung verhandeln §!§!  die bulgarischen Militärbeschränkungen aufhebt."</v>
       </c>
       <c r="D1229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1229),"",C1229)</f>
-        <v> BUL_condemn_macedonian_organizations_rearmament_tt: "\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y[ENG.GetNameWithFlag]§! über die Entscheidung §YBulgarische Wiederbewaffnung verhandeln§! die bulgarischen Militärbeschränkungen aufhebt."</v>
+        <v> BUL_condemn_macedonian_organizations_rearmament_tt: "\nDurch den Abschluss dieses Schwerpunkts steigt die Wahrscheinlichkeit, dass §Y§Y [ENG.GetNameWithFlag] §!§!  über die Entscheidung §Y§Y Bulgarische Wiederbewaffnung verhandeln §!§!  die bulgarischen Militärbeschränkungen aufhebt."</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27289,11 +27289,11 @@
       </c>
       <c r="C1230" s="1" t="str">
         <f aca="false">A1230 &amp;" " &amp;"""" &amp;B1230 &amp;""""</f>
-        <v> BUL_dissolve_the_military_union_zveno_coup_tt: "\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird§!"</v>
+        <v> BUL_dissolve_the_military_union_zveno_coup_tt: "\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird §!§! "</v>
       </c>
       <c r="D1230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1230),"",C1230)</f>
-        <v> BUL_dissolve_the_military_union_zveno_coup_tt: "\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird§!"</v>
+        <v> BUL_dissolve_the_military_union_zveno_coup_tt: "\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig zerstört wird §!§! "</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27305,11 +27305,11 @@
       </c>
       <c r="C1231" s="1" t="str">
         <f aca="false">A1231 &amp;" " &amp;"""" &amp;B1231 &amp;""""</f>
-        <v> BUL_cooperate_with_the_zveno_coup_tt: "\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird§!"</v>
+        <v> BUL_cooperate_with_the_zveno_coup_tt: "\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird §!§! "</v>
       </c>
       <c r="D1231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1231),"",C1231)</f>
-        <v> BUL_cooperate_with_the_zveno_coup_tt: "\n§RDie Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird§!"</v>
+        <v> BUL_cooperate_with_the_zveno_coup_tt: "\n§R§R Die Fraktion [GetZvenoName] könnte einen Putsch inszenieren, wenn sie nicht rechtzeitig integriert wird §!§! "</v>
       </c>
     </row>
   </sheetData>
